--- a/exp2/case01/report/motivation/perceived-choice/MeasurementModel.xlsx
+++ b/exp2/case01/report/motivation/perceived-choice/MeasurementModel.xlsx
@@ -116,13 +116,13 @@
     <t>Item05PC</t>
   </si>
   <si>
+    <t>Item06PC</t>
+  </si>
+  <si>
     <t>Item08PC</t>
   </si>
   <si>
     <t>Item15PC</t>
-  </si>
-  <si>
-    <t>Item17PC</t>
   </si>
   <si>
     <t>Item20PC</t>
@@ -2603,16 +2603,16 @@
         <v>7.0</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>1215.6326164193626</v>
+        <v>1277.4271346565763</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>-607.8163082096813</v>
+        <v>-638.7135673282881</v>
       </c>
       <c r="D6" t="n" s="34">
         <v>57.0</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.856256654848518</v>
+        <v>0.8197266039030631</v>
       </c>
       <c r="F6" t="n" s="36">
         <v>21.0</v>
@@ -2649,13 +2649,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.10352187636269951</v>
+        <v>0.07835107900389048</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.3137929658145476</v>
+        <v>0.30286516818598475</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>0.4434430355708284</v>
+        <v>0.5468672305133152</v>
       </c>
     </row>
     <row r="12">
@@ -2686,13 +2686,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>247.65966238241054</v>
+        <v>78.94610683158325</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>21.0</v>
       </c>
       <c r="C16" t="n" s="79">
-        <v>0.0</v>
+        <v>0.08996159873764309</v>
       </c>
     </row>
     <row r="17">
@@ -2723,13 +2723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>24.857167318286358</v>
+        <v>26.732784799824543</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.07976476540311997</v>
+        <v>0.08588540642370934</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.09968810789656271</v>
+        <v>0.10618578799006476</v>
       </c>
     </row>
     <row r="22">
@@ -2790,10 +2790,10 @@
         <v>49.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>65.18093232418592</v>
+        <v>55.50515531558435</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.0607375029448447</v>
+        <v>0.24296426276213978</v>
       </c>
       <c r="H26" t="n" s="126">
         <v>1.0</v>
@@ -2816,10 +2816,10 @@
         <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>48.81326495080918</v>
+        <v>47.47931780617811</v>
       </c>
       <c r="G27" t="n" s="125">
-        <v>0.4806419078858444</v>
+        <v>0.5349214355998985</v>
       </c>
       <c r="H27" t="n" s="126">
         <v>1.0</v>
@@ -2842,10 +2842,10 @@
         <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>37.550460185555856</v>
+        <v>50.82584632375195</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.8834776797409647</v>
+        <v>0.40152623277784516</v>
       </c>
       <c r="H28" t="n" s="126">
         <v>1.0</v>
@@ -2868,10 +2868,10 @@
         <v>49.0</v>
       </c>
       <c r="F29" t="n" s="124">
-        <v>38.96743170892522</v>
+        <v>38.70428481348334</v>
       </c>
       <c r="G29" t="n" s="125">
-        <v>0.8469955869123195</v>
+        <v>0.8542148566099853</v>
       </c>
       <c r="H29" t="n" s="126">
         <v>1.0</v>
@@ -2894,10 +2894,10 @@
         <v>49.0</v>
       </c>
       <c r="F30" t="n" s="124">
-        <v>51.16540827005788</v>
+        <v>48.37162827540772</v>
       </c>
       <c r="G30" t="n" s="125">
-        <v>0.3886794467625234</v>
+        <v>0.49851123051071045</v>
       </c>
       <c r="H30" t="n" s="126">
         <v>1.0</v>
@@ -2920,10 +2920,10 @@
         <v>49.0</v>
       </c>
       <c r="F31" t="n" s="124">
-        <v>52.68077893732912</v>
+        <v>49.599703700187646</v>
       </c>
       <c r="G31" t="n" s="125">
-        <v>0.3336375358981569</v>
+        <v>0.44920344065289686</v>
       </c>
       <c r="H31" t="n" s="126">
         <v>1.0</v>
@@ -2946,13 +2946,13 @@
         <v>49.0</v>
       </c>
       <c r="F32" t="n" s="124">
-        <v>137.07837309950708</v>
+        <v>60.76231820884559</v>
       </c>
       <c r="G32" t="n" s="125">
-        <v>2.8555058317891735E-10</v>
+        <v>0.12086182303310444</v>
       </c>
       <c r="H32" t="n" s="126">
-        <v>5.711011663578347E-9</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="33">
@@ -2972,13 +2972,13 @@
         <v>49.0</v>
       </c>
       <c r="F33" t="n" s="124">
-        <v>68.24254695370102</v>
+        <v>78.94610683158325</v>
       </c>
       <c r="G33" t="n" s="125">
-        <v>0.035868788110268834</v>
+        <v>0.0042838856541734804</v>
       </c>
       <c r="H33" t="n" s="126">
-        <v>0.6815069740951079</v>
+        <v>0.08996159873764309</v>
       </c>
     </row>
     <row r="34">
@@ -2998,13 +2998,13 @@
         <v>49.0</v>
       </c>
       <c r="F34" t="n" s="124">
-        <v>247.65966238241054</v>
+        <v>52.86033153196022</v>
       </c>
       <c r="G34" t="n" s="125">
-        <v>0.0</v>
+        <v>0.3273881265258254</v>
       </c>
       <c r="H34" t="n" s="126">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35">
@@ -3024,10 +3024,10 @@
         <v>49.0</v>
       </c>
       <c r="F35" t="n" s="124">
-        <v>59.82567035384763</v>
+        <v>42.74750761410253</v>
       </c>
       <c r="G35" t="n" s="125">
-        <v>0.13823419990572783</v>
+        <v>0.7232443019224732</v>
       </c>
       <c r="H35" t="n" s="126">
         <v>1.0</v>
@@ -3050,10 +3050,10 @@
         <v>49.0</v>
       </c>
       <c r="F36" t="n" s="124">
-        <v>44.620893399507914</v>
+        <v>36.42030405500616</v>
       </c>
       <c r="G36" t="n" s="125">
-        <v>0.6511196685331322</v>
+        <v>0.9083104792855424</v>
       </c>
       <c r="H36" t="n" s="126">
         <v>1.0</v>
@@ -3076,10 +3076,10 @@
         <v>49.0</v>
       </c>
       <c r="F37" t="n" s="124">
-        <v>44.39463217055715</v>
+        <v>42.826049374063146</v>
       </c>
       <c r="G37" t="n" s="125">
-        <v>0.6600842352319539</v>
+        <v>0.7203317696436727</v>
       </c>
       <c r="H37" t="n" s="126">
         <v>1.0</v>
@@ -3102,13 +3102,13 @@
         <v>49.0</v>
       </c>
       <c r="F38" t="n" s="124">
-        <v>66.40855656445851</v>
+        <v>48.37732860755251</v>
       </c>
       <c r="G38" t="n" s="125">
-        <v>0.04940707429658531</v>
+        <v>0.49827979743831174</v>
       </c>
       <c r="H38" t="n" s="126">
-        <v>0.8893273373385355</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39">
@@ -3128,10 +3128,10 @@
         <v>49.0</v>
       </c>
       <c r="F39" t="n" s="124">
-        <v>53.82259847627268</v>
+        <v>40.47266210608516</v>
       </c>
       <c r="G39" t="n" s="125">
-        <v>0.2949752684143636</v>
+        <v>0.8019767586414503</v>
       </c>
       <c r="H39" t="n" s="126">
         <v>1.0</v>
@@ -3154,10 +3154,10 @@
         <v>49.0</v>
       </c>
       <c r="F40" t="n" s="124">
-        <v>41.14383393585715</v>
+        <v>50.969323318552384</v>
       </c>
       <c r="G40" t="n" s="125">
-        <v>0.7799793857203983</v>
+        <v>0.39607719554959964</v>
       </c>
       <c r="H40" t="n" s="126">
         <v>1.0</v>
@@ -3180,10 +3180,10 @@
         <v>49.0</v>
       </c>
       <c r="F41" t="n" s="124">
-        <v>55.953305216650705</v>
+        <v>50.02684524174547</v>
       </c>
       <c r="G41" t="n" s="125">
-        <v>0.23016019702117163</v>
+        <v>0.43238582032619344</v>
       </c>
       <c r="H41" t="n" s="126">
         <v>1.0</v>
@@ -3206,10 +3206,10 @@
         <v>49.0</v>
       </c>
       <c r="F42" t="n" s="124">
-        <v>39.1604684705012</v>
+        <v>53.68830284603063</v>
       </c>
       <c r="G42" t="n" s="125">
-        <v>0.8415734043869378</v>
+        <v>0.2993865875767199</v>
       </c>
       <c r="H42" t="n" s="126">
         <v>1.0</v>
@@ -3232,10 +3232,10 @@
         <v>49.0</v>
       </c>
       <c r="F43" t="n" s="124">
-        <v>41.70484747500019</v>
+        <v>39.243677915262886</v>
       </c>
       <c r="G43" t="n" s="125">
-        <v>0.7607629243983538</v>
+        <v>0.8392034549248144</v>
       </c>
       <c r="H43" t="n" s="126">
         <v>1.0</v>
@@ -3258,10 +3258,10 @@
         <v>49.0</v>
       </c>
       <c r="F44" t="n" s="124">
-        <v>45.02462722158723</v>
+        <v>43.06947418995664</v>
       </c>
       <c r="G44" t="n" s="125">
-        <v>0.6349921504118596</v>
+        <v>0.7112348359595484</v>
       </c>
       <c r="H44" t="n" s="126">
         <v>1.0</v>
@@ -3284,10 +3284,10 @@
         <v>49.0</v>
       </c>
       <c r="F45" t="n" s="124">
-        <v>36.779723090477844</v>
+        <v>35.22121354446256</v>
       </c>
       <c r="G45" t="n" s="125">
-        <v>0.9008244517580362</v>
+        <v>0.9305550475148521</v>
       </c>
       <c r="H45" t="n" s="126">
         <v>1.0</v>
@@ -3310,10 +3310,10 @@
         <v>49.0</v>
       </c>
       <c r="F46" t="n" s="124">
-        <v>22.73877459898508</v>
+        <v>21.379150456661318</v>
       </c>
       <c r="G46" t="n" s="125">
-        <v>0.999515135826924</v>
+        <v>0.9997976586960589</v>
       </c>
       <c r="H46" t="n" s="126">
         <v>1.0</v>
@@ -3359,1313 +3359,1313 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>-1.5027217773711827</v>
+        <v>-1.0625492125790048</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>0.2916714180219069</v>
+        <v>0.6996033932461918</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>-0.14358119713479045</v>
+        <v>-3.300396606753808</v>
       </c>
       <c r="D51" t="n" s="148">
-        <v>0.8601560971912274</v>
+        <v>0.17182141023877495</v>
       </c>
       <c r="E51" t="n" s="149">
-        <v>-0.30781031585564733</v>
+        <v>1.3422434276676283</v>
       </c>
       <c r="F51" t="n" s="150">
-        <v>-0.18597632806334818</v>
+        <v>0.1183674282635927</v>
       </c>
       <c r="G51" t="n" s="151">
-        <v>1.3825077635233693</v>
+        <v>1.894936315413151</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>-0.21073628777193232</v>
+        <v>-0.15901860922515176</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>0.6684330503004254</v>
+        <v>0.7192140461548604</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>-0.5666593120186079</v>
+        <v>0.7192140461548604</v>
       </c>
       <c r="D52" t="n" s="148">
-        <v>0.020666271507810308</v>
+        <v>-0.5204237436487213</v>
       </c>
       <c r="E52" t="n" s="149">
-        <v>0.3501465638513528</v>
+        <v>0.07298021502400154</v>
       </c>
       <c r="F52" t="n" s="150">
-        <v>-0.588353351600519</v>
+        <v>-0.5428143391851572</v>
       </c>
       <c r="G52" t="n" s="151">
-        <v>1.396256399849574</v>
+        <v>1.448762822268975</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="145">
-        <v>0.49727822262881816</v>
+        <v>0.4732060095384485</v>
       </c>
       <c r="B53" t="n" s="146">
-        <v>1.2916714180219087</v>
+        <v>1.2786385692173674</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>0.8564188028652104</v>
+        <v>0.2786385692173674</v>
       </c>
       <c r="D53" t="n" s="148">
-        <v>-0.1398439028087708</v>
+        <v>0.8658603884745855</v>
       </c>
       <c r="E53" t="n" s="149">
-        <v>-0.30781031585564644</v>
+        <v>-0.1817809724316266</v>
       </c>
       <c r="F53" t="n" s="150">
-        <v>0.8140236719366527</v>
+        <v>0.8253559622843989</v>
       </c>
       <c r="G53" t="n" s="151">
-        <v>-2.617492236476628</v>
+        <v>-2.680150109406691</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>-0.6447434223554227</v>
+        <v>-0.8679527442765762</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-1.9042899035118541</v>
+        <v>-2.114497686167395</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>-0.5117646809624254</v>
+        <v>0.885502313832605</v>
       </c>
       <c r="D54" t="n" s="148">
-        <v>1.7845543017555414</v>
+        <v>-0.6745079723749292</v>
       </c>
       <c r="E54" t="n" s="149">
-        <v>0.2310347488665867</v>
+        <v>1.5454022436046877</v>
       </c>
       <c r="F54" t="n" s="150">
-        <v>-0.5764443981439982</v>
+        <v>-0.7324752282422935</v>
       </c>
       <c r="G54" t="n" s="151">
-        <v>1.3551105820626907</v>
+        <v>1.099118992931392</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="145">
-        <v>-0.215506045642047</v>
+        <v>-0.17228705785934384</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>-0.48959139810743313</v>
+        <v>-0.4369149052475487</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>-0.15990092311481696</v>
+        <v>-0.4369149052475487</v>
       </c>
       <c r="D55" t="n" s="148">
-        <v>0.2267017475107278</v>
+        <v>-0.08970460720563977</v>
       </c>
       <c r="E55" t="n" s="149">
-        <v>-0.4588264736390384</v>
+        <v>0.24916257109832385</v>
       </c>
       <c r="F55" t="n" s="150">
-        <v>-0.23415484587305802</v>
+        <v>-0.16246742019079186</v>
       </c>
       <c r="G55" t="n" s="151">
-        <v>0.7976671837468285</v>
+        <v>0.7790765707545564</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>0.42982621066220084</v>
+        <v>0.5272681890283186</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>0.36371087186942574</v>
+        <v>0.4513988316446387</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>0.2375179018332103</v>
+        <v>0.4513988316446387</v>
       </c>
       <c r="D56" t="n" s="148">
-        <v>0.5603282328362003</v>
+        <v>0.3041726712106856</v>
       </c>
       <c r="E56" t="n" s="149">
-        <v>0.19309220715189035</v>
+        <v>0.6750989541141603</v>
       </c>
       <c r="F56" t="n" s="150">
-        <v>0.22594188937523185</v>
+        <v>0.29046874664715183</v>
       </c>
       <c r="G56" t="n" s="151">
-        <v>-0.21369280797161938</v>
+        <v>-0.07346016132780964</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>-1.9780731479338014</v>
+        <v>-2.148110790435598</v>
       </c>
       <c r="B57" t="n" s="146">
-        <v>0.7764403838934699</v>
+        <v>0.6203490124649829</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>1.224183514781311</v>
+        <v>1.6203490124649829</v>
       </c>
       <c r="D57" t="n" s="148">
-        <v>1.4366494420715918</v>
+        <v>1.110959320193623</v>
       </c>
       <c r="E57" t="n" s="149">
-        <v>0.0016402766314733697</v>
+        <v>1.2486020790730699</v>
       </c>
       <c r="F57" t="n" s="150">
-        <v>0.16755905499473212</v>
+        <v>0.05973297491742713</v>
       </c>
       <c r="G57" t="n" s="151">
-        <v>-1.9993526613644264</v>
+        <v>-2.204435931423088</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>-1.2386434467378828</v>
+        <v>-1.1481107904355987</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>-0.46836636339996396</v>
+        <v>-0.37965098753501625</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>1.0307492509244751</v>
+        <v>0.6203490124649838</v>
       </c>
       <c r="D58" t="n" s="148">
-        <v>0.1569683911062718</v>
+        <v>1.1109593201936239</v>
       </c>
       <c r="E58" t="n" s="149">
-        <v>0.8363937927727605</v>
+        <v>0.24860207907306986</v>
       </c>
       <c r="F58" t="n" s="150">
-        <v>-1.0191411764611473</v>
+        <v>-0.9402670250825729</v>
       </c>
       <c r="G58" t="n" s="151">
-        <v>0.7075454958903364</v>
+        <v>0.7955640685769119</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="145">
-        <v>-1.2261473442369089</v>
+        <v>-1.449490464092889</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>-0.5012208639137268</v>
+        <v>-0.7097273158446149</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>-0.21933385882995005</v>
+        <v>-0.7097273158446149</v>
       </c>
       <c r="D59" t="n" s="148">
-        <v>0.19122640258122026</v>
+        <v>-0.39731755579820227</v>
       </c>
       <c r="E59" t="n" s="149">
-        <v>-0.5662725958129888</v>
+        <v>-0.05444626706339717</v>
       </c>
       <c r="F59" t="n" s="150">
-        <v>0.6964878371802854</v>
+        <v>0.5215410940283176</v>
       </c>
       <c r="G59" t="n" s="151">
-        <v>0.6711129587595881</v>
+        <v>0.4110759448755035</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="145">
-        <v>1.1813470144075078</v>
+        <v>0.9374507874209952</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>-3.0712483152559367</v>
+        <v>-3.300396606753809</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>-0.650610788446131</v>
+        <v>1.699603393246191</v>
       </c>
       <c r="D60" t="n" s="148">
-        <v>1.6036620224268328</v>
+        <v>-0.828178589761225</v>
       </c>
       <c r="E60" t="n" s="149">
-        <v>0.11014831642910217</v>
+        <v>1.3422434276676283</v>
       </c>
       <c r="F60" t="n" s="150">
-        <v>0.2888692595096787</v>
+        <v>0.1183674282635927</v>
       </c>
       <c r="G60" t="n" s="151">
-        <v>0.1714894958096167</v>
+        <v>-0.105063684586848</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>0.0219268520661986</v>
+        <v>-0.06254921257900481</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>-0.2235596161065292</v>
+        <v>-0.3003966067538091</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>-1.775816485218689</v>
+        <v>0.6996033932461909</v>
       </c>
       <c r="D61" t="n" s="148">
-        <v>1.4366494420715927</v>
+        <v>-1.828178589761225</v>
       </c>
       <c r="E61" t="n" s="149">
-        <v>0.0016402766314733697</v>
+        <v>1.3422434276676283</v>
       </c>
       <c r="F61" t="n" s="150">
-        <v>0.167559054994733</v>
+        <v>0.11836742826359181</v>
       </c>
       <c r="G61" t="n" s="151">
-        <v>6.473386355749788E-4</v>
+        <v>-0.1050636845868489</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="145">
-        <v>-2.238643446737882</v>
+        <v>-2.2492019639378187</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>1.531633636600036</v>
+        <v>1.5283317596677577</v>
       </c>
       <c r="C62" t="n" s="147">
-        <v>1.0307492509244742</v>
+        <v>1.5283317596677577</v>
       </c>
       <c r="D62" t="n" s="148">
-        <v>-0.8430316088937264</v>
+        <v>1.0434196490155987</v>
       </c>
       <c r="E62" t="n" s="149">
-        <v>0.8363937927727605</v>
+        <v>-0.8648646219028908</v>
       </c>
       <c r="F62" t="n" s="150">
-        <v>-0.019141176461147325</v>
+        <v>-0.0050173168945395474</v>
       </c>
       <c r="G62" t="n" s="151">
-        <v>-0.2924545041096618</v>
+        <v>-0.32816029970358773</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>-0.004951263571808084</v>
+        <v>-0.17228705785934384</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>-1.2822331163260552</v>
+        <v>-1.4369149052475487</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>0.02850899876433033</v>
+        <v>0.5630850947524513</v>
       </c>
       <c r="D63" t="n" s="148">
-        <v>0.43698106902615175</v>
+        <v>-0.08970460720563977</v>
       </c>
       <c r="E63" t="n" s="149">
-        <v>-1.284981646888137</v>
+        <v>0.2491625710983243</v>
       </c>
       <c r="F63" t="n" s="150">
-        <v>-0.0489501175903051</v>
+        <v>-0.16246742019079186</v>
       </c>
       <c r="G63" t="n" s="151">
-        <v>0.9968220112942658</v>
+        <v>0.7790765707545564</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="145">
-        <v>0.04922154375856458</v>
+        <v>0.4732060095384467</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>-2.106388010524066</v>
+        <v>-1.7213614307826326</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>0.5822357663459821</v>
+        <v>-1.7213614307826326</v>
       </c>
       <c r="D64" t="n" s="148">
-        <v>1.3387001547778539</v>
+        <v>0.8658603884745864</v>
       </c>
       <c r="E64" t="n" s="149">
-        <v>0.46984783900032756</v>
+        <v>1.8182190275683734</v>
       </c>
       <c r="F64" t="n" s="150">
-        <v>0.5530097850490554</v>
+        <v>0.8253559622843989</v>
       </c>
       <c r="G64" t="n" s="151">
-        <v>-0.21267756978844687</v>
+        <v>0.3198498905933089</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>1.1925624307461193</v>
+        <v>1.1717691713983402</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>-0.9800651431089058</v>
+        <v>-0.9906838202006449</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>-1.3320242422327917</v>
+        <v>1.009316179799355</v>
       </c>
       <c r="D65" t="n" s="148">
-        <v>-1.4919397485680488</v>
+        <v>-1.3228336196641992</v>
       </c>
       <c r="E65" t="n" s="149">
-        <v>0.5390954764480513</v>
+        <v>-1.5299272676629423</v>
       </c>
       <c r="F65" t="n" s="150">
-        <v>0.6345371047621189</v>
+        <v>0.6453548091876566</v>
       </c>
       <c r="G65" t="n" s="151">
-        <v>1.9848907107496707</v>
+        <v>1.926741883598889</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>0.7844939543579539</v>
+        <v>0.6452094246307478</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>-1.4895913981074331</v>
+        <v>-1.615077315829054</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>-0.15990092311481607</v>
+        <v>0.3849226841709461</v>
       </c>
       <c r="D66" t="n" s="148">
-        <v>1.2267017475107278</v>
+        <v>-0.24431408165689117</v>
       </c>
       <c r="E66" t="n" s="149">
-        <v>-0.4588264736390384</v>
+        <v>1.0652098177983662</v>
       </c>
       <c r="F66" t="n" s="150">
-        <v>-1.234154845873058</v>
+        <v>-1.3132565345413916</v>
       </c>
       <c r="G66" t="n" s="151">
-        <v>0.797667183746829</v>
+        <v>0.602178501296172</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>-0.6447434223554227</v>
+        <v>-0.8679527442765762</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>0.09571009648814588</v>
+        <v>-0.11449768616739497</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>1.4882353190375754</v>
+        <v>0.885502313832605</v>
       </c>
       <c r="D67" t="n" s="148">
-        <v>-1.2154456982444577</v>
+        <v>1.3254920276250717</v>
       </c>
       <c r="E67" t="n" s="149">
-        <v>0.23103474886658848</v>
+        <v>-1.4545977563953123</v>
       </c>
       <c r="F67" t="n" s="150">
-        <v>1.4235556018560027</v>
+        <v>1.2675247717577065</v>
       </c>
       <c r="G67" t="n" s="151">
-        <v>-1.6448894179373075</v>
+        <v>-1.9008810070686075</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>-1.2386434467378837</v>
+        <v>-1.3763031777325798</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>1.5316336366000352</v>
+        <v>1.4137234867585864</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>-0.9692507490755267</v>
+        <v>1.4137234867585864</v>
       </c>
       <c r="D68" t="n" s="148">
-        <v>2.156968391106271</v>
+        <v>-1.0386016254030963</v>
       </c>
       <c r="E68" t="n" s="149">
-        <v>-0.16360620722724128</v>
+        <v>1.9905564339461437</v>
       </c>
       <c r="F68" t="n" s="150">
-        <v>-1.0191411764611473</v>
+        <v>-1.0834294157710875</v>
       </c>
       <c r="G68" t="n" s="151">
-        <v>-0.29245450410966445</v>
+        <v>-0.4880613637894715</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="145">
-        <v>0.8847081237254892</v>
+        <v>0.9374507874209952</v>
       </c>
       <c r="B69" t="n" s="146">
-        <v>0.6465694297721241</v>
+        <v>0.6996033932461918</v>
       </c>
       <c r="C69" t="n" s="147">
-        <v>-0.8802463837108041</v>
+        <v>0.6996033932461918</v>
       </c>
       <c r="D69" t="n" s="148">
-        <v>-2.7090888578767514</v>
+        <v>-0.8281785897612242</v>
       </c>
       <c r="E69" t="n" s="149">
-        <v>0.9118604187201749</v>
+        <v>-2.6577565723323735</v>
       </c>
       <c r="F69" t="n" s="150">
-        <v>1.066593771667617</v>
+        <v>1.1183674282635918</v>
       </c>
       <c r="G69" t="n" s="151">
-        <v>-0.15051067525966033</v>
+        <v>-0.10506368458684978</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>1.3552565776445773</v>
+        <v>2.0853264490875345</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>2.095710096488146</v>
+        <v>2.815423831401982</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>1.4882353190375746</v>
+        <v>-3.184576168598018</v>
       </c>
       <c r="D70" t="n" s="148">
-        <v>-3.2154456982444586</v>
+        <v>2.1316329746955143</v>
       </c>
       <c r="E70" t="n" s="149">
-        <v>1.2310347488665885</v>
+        <v>-2.4924649042294202</v>
       </c>
       <c r="F70" t="n" s="150">
-        <v>-3.5764443981439973</v>
+        <v>-2.946269707158587</v>
       </c>
       <c r="G70" t="n" s="151">
-        <v>0.3551105820626925</v>
+        <v>1.0260213956548272</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="145">
-        <v>1.3552565776445782</v>
+        <v>1.4506499371889623</v>
       </c>
       <c r="B71" t="n" s="146">
-        <v>-0.904289903511855</v>
+        <v>-0.8047936808190395</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>-0.5117646809624246</v>
+        <v>-1.8047936808190395</v>
       </c>
       <c r="D71" t="n" s="148">
-        <v>-1.2154456982444586</v>
+        <v>-0.4084434284135545</v>
       </c>
       <c r="E71" t="n" s="149">
-        <v>-0.7689652511334133</v>
+        <v>-1.13124090032455</v>
       </c>
       <c r="F71" t="n" s="150">
-        <v>0.4235556018560027</v>
+        <v>0.5267318022813106</v>
       </c>
       <c r="G71" t="n" s="151">
-        <v>1.355110582062692</v>
+        <v>1.4128400957191816</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>-0.4769203245851523</v>
+        <v>-0.7263652228057378</v>
       </c>
       <c r="B72" t="n" s="146">
-        <v>-0.7427011804001502</v>
+        <v>-0.9771299310292862</v>
       </c>
       <c r="C72" t="n" s="147">
-        <v>1.6237117464874737</v>
+        <v>-0.9771299310292862</v>
       </c>
       <c r="D72" t="n" s="148">
-        <v>-0.04165761667585777</v>
+        <v>1.4430064730360428</v>
       </c>
       <c r="E72" t="n" s="149">
-        <v>-1.6505148027375656</v>
+        <v>-0.3104392983632307</v>
       </c>
       <c r="F72" t="n" s="150">
-        <v>0.5551057091339446</v>
+        <v>0.3819638926165867</v>
       </c>
       <c r="G72" t="n" s="151">
-        <v>0.5305390752498536</v>
+        <v>0.23955352729108315</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="145">
-        <v>-1.226147344236911</v>
+        <v>-1.5846580254610445</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>-1.501220863913728</v>
+        <v>-1.8499289098232472</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>-0.21933385882995093</v>
+        <v>3.150071090176753</v>
       </c>
       <c r="D73" t="n" s="148">
-        <v>-1.8087735974187802</v>
+        <v>-0.5424760234150101</v>
       </c>
       <c r="E73" t="n" s="149">
-        <v>2.4337274041870103</v>
+        <v>-2.178415948022867</v>
       </c>
       <c r="F73" t="n" s="150">
-        <v>-0.3035121628197155</v>
+        <v>-0.6233790796833265</v>
       </c>
       <c r="G73" t="n" s="151">
-        <v>1.6711129587595872</v>
+        <v>1.306232815678122</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="145">
-        <v>0.42982621066220084</v>
+        <v>0.6294072380843616</v>
       </c>
       <c r="B74" t="n" s="146">
-        <v>0.36371087186942574</v>
+        <v>0.5382573181690198</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>0.2375179018332103</v>
+        <v>-0.4617426818309802</v>
       </c>
       <c r="D74" t="n" s="148">
-        <v>0.5603282328362003</v>
+        <v>0.36083918501827306</v>
       </c>
       <c r="E74" t="n" s="149">
-        <v>0.19309220715189035</v>
+        <v>0.8058085196488243</v>
       </c>
       <c r="F74" t="n" s="150">
-        <v>0.22594188937523185</v>
+        <v>0.3443315394391355</v>
       </c>
       <c r="G74" t="n" s="151">
-        <v>-0.21369280797161938</v>
+        <v>0.10093213523187128</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="145">
-        <v>0.32717337875646724</v>
+        <v>0.4343846684289314</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>0.27726870270740545</v>
+        <v>0.3725170721634612</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>0.18203542315250765</v>
+        <v>0.3725170721634612</v>
       </c>
       <c r="D75" t="n" s="148">
-        <v>0.42613703978164263</v>
+        <v>0.2525925288562796</v>
       </c>
       <c r="E75" t="n" s="149">
-        <v>0.14838380488427116</v>
+        <v>0.5555586094369476</v>
       </c>
       <c r="F75" t="n" s="150">
-        <v>0.17327750890957194</v>
+        <v>0.24140828559735894</v>
       </c>
       <c r="G75" t="n" s="151">
-        <v>0.5999945571765766</v>
+        <v>0.7646071943528296</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="145">
-        <v>0.32717337875646724</v>
+        <v>0.4343846684289314</v>
       </c>
       <c r="B76" t="n" s="146">
-        <v>0.27726870270740545</v>
+        <v>0.3725170721634612</v>
       </c>
       <c r="C76" t="n" s="147">
-        <v>0.18203542315250765</v>
+        <v>0.3725170721634612</v>
       </c>
       <c r="D76" t="n" s="148">
-        <v>0.42613703978164263</v>
+        <v>0.2525925288562796</v>
       </c>
       <c r="E76" t="n" s="149">
-        <v>0.14838380488427116</v>
+        <v>0.5555586094369476</v>
       </c>
       <c r="F76" t="n" s="150">
-        <v>0.17327750890957194</v>
+        <v>0.24140828559735894</v>
       </c>
       <c r="G76" t="n" s="151">
-        <v>0.5999945571765766</v>
+        <v>0.7646071943528296</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="145">
-        <v>1.0219268520661986</v>
+        <v>0.9374507874209952</v>
       </c>
       <c r="B77" t="n" s="146">
-        <v>-0.2235596161065283</v>
+        <v>-0.3003966067538091</v>
       </c>
       <c r="C77" t="n" s="147">
-        <v>-0.7758164852186873</v>
+        <v>0.6996033932461909</v>
       </c>
       <c r="D77" t="n" s="148">
-        <v>-0.5633505579284073</v>
+        <v>-0.8281785897612233</v>
       </c>
       <c r="E77" t="n" s="149">
-        <v>0.0016402766314760342</v>
+        <v>-0.6577565723323708</v>
       </c>
       <c r="F77" t="n" s="150">
-        <v>0.1675590549947339</v>
+        <v>0.1183674282635927</v>
       </c>
       <c r="G77" t="n" s="151">
-        <v>6.473386355745347E-4</v>
+        <v>-0.105063684586848</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="145">
-        <v>0.34556201521247054</v>
+        <v>0.4732060095384458</v>
       </c>
       <c r="B78" t="n" s="146">
-        <v>1.1559031379180444</v>
+        <v>1.2786385692173674</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>-0.23841937644839906</v>
+        <v>-0.7213614307826326</v>
       </c>
       <c r="D78" t="n" s="148">
-        <v>0.6859037783000854</v>
+        <v>-0.13413961152541454</v>
       </c>
       <c r="E78" t="n" s="149">
-        <v>-0.3850443578554472</v>
+        <v>0.8182190275683743</v>
       </c>
       <c r="F78" t="n" s="150">
-        <v>0.7236336914885939</v>
+        <v>0.8253559622843989</v>
       </c>
       <c r="G78" t="n" s="151">
-        <v>-1.8126612842578051</v>
+        <v>-1.6801501094066902</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="145">
-        <v>-2.1088486173031447</v>
+        <v>-2.449490464092889</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>0.6180588472154387</v>
+        <v>0.2902726841553842</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>-1.1010586499833188</v>
+        <v>0.2902726841553842</v>
       </c>
       <c r="D79" t="n" s="148">
-        <v>1.3021143966096655</v>
+        <v>-1.3973175557982023</v>
       </c>
       <c r="E79" t="n" s="149">
-        <v>-0.4517543929521457</v>
+        <v>0.9455537329366019</v>
       </c>
       <c r="F79" t="n" s="150">
-        <v>-0.18592970591296254</v>
+        <v>-0.4784589059716833</v>
       </c>
       <c r="G79" t="n" s="151">
-        <v>0.7671972009872312</v>
+        <v>0.41107594487550214</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="145">
-        <v>1.0492215437585646</v>
+        <v>1.0491742413749172</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>0.8936119894759349</v>
+        <v>0.9006808614979995</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>0.5822357663459838</v>
+        <v>0.9006808614979995</v>
       </c>
       <c r="D80" t="n" s="148">
-        <v>1.3387001547778548</v>
+        <v>0.6020291789901027</v>
       </c>
       <c r="E80" t="n" s="149">
-        <v>0.46984783900032756</v>
+        <v>1.3260433610782085</v>
       </c>
       <c r="F80" t="n" s="150">
-        <v>0.5530097850490563</v>
+        <v>0.5737385308424079</v>
       </c>
       <c r="G80" t="n" s="151">
-        <v>-4.212677569788447</v>
+        <v>-4.240603958916903</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="145">
-        <v>-0.5701737893377992</v>
+        <v>-0.15901860922515088</v>
       </c>
       <c r="B81" t="n" s="146">
-        <v>0.36371087186942574</v>
+        <v>0.7192140461548604</v>
       </c>
       <c r="C81" t="n" s="147">
-        <v>0.2375179018332103</v>
+        <v>-2.2807859538451396</v>
       </c>
       <c r="D81" t="n" s="148">
-        <v>0.5603282328362011</v>
+        <v>0.47957625635127776</v>
       </c>
       <c r="E81" t="n" s="149">
-        <v>0.19309220715189035</v>
+        <v>1.0729802150240024</v>
       </c>
       <c r="F81" t="n" s="150">
-        <v>0.22594188937523185</v>
+        <v>0.4571856608148437</v>
       </c>
       <c r="G81" t="n" s="151">
-        <v>0.7863071920283797</v>
+        <v>1.4487628222689768</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="145">
-        <v>0.7892637122280668</v>
+        <v>0.8409813907748465</v>
       </c>
       <c r="B82" t="n" s="146">
-        <v>0.6684330503004263</v>
+        <v>0.7192140461548586</v>
       </c>
       <c r="C82" t="n" s="147">
-        <v>-0.5666593120186079</v>
+        <v>0.7192140461548586</v>
       </c>
       <c r="D82" t="n" s="148">
-        <v>0.020666271507810308</v>
+        <v>-0.5204237436487231</v>
       </c>
       <c r="E82" t="n" s="149">
-        <v>0.3501465638513528</v>
+        <v>0.07298021502399976</v>
       </c>
       <c r="F82" t="n" s="150">
-        <v>-0.588353351600519</v>
+        <v>-0.5428143391851581</v>
       </c>
       <c r="G82" t="n" s="151">
-        <v>0.39625639984957495</v>
+        <v>0.44876282226897324</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="145">
-        <v>-1.8074375692538798</v>
+        <v>-1.376303177732578</v>
       </c>
       <c r="B83" t="n" s="146">
-        <v>1.0199348568910942</v>
+        <v>1.4137234867585873</v>
       </c>
       <c r="C83" t="n" s="147">
-        <v>0.6679757577672083</v>
+        <v>-1.5862765132414127</v>
       </c>
       <c r="D83" t="n" s="148">
-        <v>0.5080602514319512</v>
+        <v>0.9613983745969046</v>
       </c>
       <c r="E83" t="n" s="149">
-        <v>0.5390954764480522</v>
+        <v>0.9905564339461446</v>
       </c>
       <c r="F83" t="n" s="150">
-        <v>-0.3654628952378802</v>
+        <v>-0.08342941577108576</v>
       </c>
       <c r="G83" t="n" s="151">
-        <v>-0.015109289250329283</v>
+        <v>0.5119386362105294</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="145">
-        <v>-0.657684641605984</v>
+        <v>-0.6929054375937809</v>
       </c>
       <c r="B84" t="n" s="146">
-        <v>0.09521538911968142</v>
+        <v>0.07929935774398222</v>
       </c>
       <c r="C84" t="n" s="147">
-        <v>-0.5930582919697662</v>
+        <v>0.07929935774398222</v>
       </c>
       <c r="D84" t="n" s="148">
-        <v>-0.3013399271421049</v>
+        <v>-0.5684479266843177</v>
       </c>
       <c r="E84" t="n" s="149">
-        <v>0.05413642977031907</v>
+        <v>-0.36632400932566256</v>
       </c>
       <c r="F84" t="n" s="150">
-        <v>-0.6775258216693505</v>
+        <v>-0.6494809929292891</v>
       </c>
       <c r="G84" t="n" s="151">
-        <v>0.0798078529477817</v>
+        <v>-0.013076597218668162</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="145">
-        <v>-2.718767795216419</v>
+        <v>-2.5846580254610436</v>
       </c>
       <c r="B85" t="n" s="146">
-        <v>-0.9963889430075876</v>
+        <v>-0.8499289098232463</v>
       </c>
       <c r="C85" t="n" s="147">
-        <v>0.300820565299202</v>
+        <v>-1.8499289098232463</v>
       </c>
       <c r="D85" t="n" s="148">
-        <v>-1.283945088697672</v>
+        <v>0.4575239765849908</v>
       </c>
       <c r="E85" t="n" s="149">
-        <v>-0.02630026771497196</v>
+        <v>-1.1784159480228666</v>
       </c>
       <c r="F85" t="n" s="150">
-        <v>1.2205565534960385</v>
+        <v>1.3766209203166735</v>
       </c>
       <c r="G85" t="n" s="151">
-        <v>2.249157374432968</v>
+        <v>2.3062328156781216</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="145">
-        <v>-0.9507784562414372</v>
+        <v>-0.8282308286016598</v>
       </c>
       <c r="B86" t="n" s="146">
-        <v>0.8936119894759349</v>
+        <v>1.0093161797993542</v>
       </c>
       <c r="C86" t="n" s="147">
-        <v>0.5822357663459838</v>
+        <v>-0.9906838202006458</v>
       </c>
       <c r="D86" t="n" s="148">
-        <v>1.3387001547778539</v>
+        <v>0.6771663803357999</v>
       </c>
       <c r="E86" t="n" s="149">
-        <v>-0.5301521609996733</v>
+        <v>1.4700727323370577</v>
       </c>
       <c r="F86" t="n" s="150">
-        <v>0.5530097850490545</v>
+        <v>0.6453548091876549</v>
       </c>
       <c r="G86" t="n" s="151">
-        <v>-1.2126775697884469</v>
+        <v>-1.0732581164011128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="145">
-        <v>0.12393386062745426</v>
+        <v>0.0853264490875345</v>
       </c>
       <c r="B87" t="n" s="146">
-        <v>-0.15376767127976976</v>
+        <v>-0.18457616859801806</v>
       </c>
       <c r="C87" t="n" s="147">
-        <v>-0.8499172191696127</v>
+        <v>2.815423831401982</v>
       </c>
       <c r="D87" t="n" s="148">
-        <v>-2.436887494239259</v>
+        <v>-0.8683670253044848</v>
       </c>
       <c r="E87" t="n" s="149">
-        <v>1.8300552995973849</v>
+        <v>-2.4924649042294194</v>
       </c>
       <c r="F87" t="n" s="150">
-        <v>1.0712602862203218</v>
+        <v>1.0537302928414132</v>
       </c>
       <c r="G87" t="n" s="151">
-        <v>-0.8883351984673942</v>
+        <v>-0.9739786043451719</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="145">
-        <v>0.6277642264260566</v>
+        <v>0.31478813781749926</v>
       </c>
       <c r="B88" t="n" s="146">
-        <v>0.3514288440389435</v>
+        <v>0.04624431047269395</v>
       </c>
       <c r="C88" t="n" s="147">
-        <v>-0.36316040439379105</v>
+        <v>0.04624431047269395</v>
       </c>
       <c r="D88" t="n" s="148">
-        <v>0.0511455446122695</v>
+        <v>-0.6487030990693183</v>
       </c>
       <c r="E88" t="n" s="149">
-        <v>-0.7046108919828065</v>
+        <v>-0.2713384634665821</v>
       </c>
       <c r="F88" t="n" s="150">
-        <v>-0.446274809779883</v>
+        <v>-0.7292794756301832</v>
       </c>
       <c r="G88" t="n" s="151">
-        <v>-0.4523448642974208</v>
+        <v>-0.7732470946866656</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="145">
-        <v>0.7892637122280659</v>
+        <v>0.8409813907748491</v>
       </c>
       <c r="B89" t="n" s="146">
-        <v>-0.33156694969957456</v>
+        <v>-0.2807859538451396</v>
       </c>
       <c r="C89" t="n" s="147">
-        <v>0.43334068798139125</v>
+        <v>0.7192140461548604</v>
       </c>
       <c r="D89" t="n" s="148">
-        <v>1.0206662715078094</v>
+        <v>0.47957625635127776</v>
       </c>
       <c r="E89" t="n" s="149">
-        <v>0.3501465638513528</v>
+        <v>1.0729802150240006</v>
       </c>
       <c r="F89" t="n" s="150">
-        <v>0.41164664839948006</v>
+        <v>0.4571856608148428</v>
       </c>
       <c r="G89" t="n" s="151">
-        <v>-1.603743600150425</v>
+        <v>-1.551237177731024</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="145">
-        <v>0.9166452612725324</v>
+        <v>0.9427523689133697</v>
       </c>
       <c r="B90" t="n" s="146">
-        <v>0.778084347795958</v>
+        <v>0.8073600555552476</v>
       </c>
       <c r="C90" t="n" s="147">
-        <v>0.505168941947649</v>
+        <v>0.8073600555552476</v>
       </c>
       <c r="D90" t="n" s="148">
-        <v>-1.8215366080163111</v>
+        <v>0.5384867812465641</v>
       </c>
       <c r="E90" t="n" s="149">
-        <v>0.4078057647122586</v>
+        <v>-1.8017328687413032</v>
       </c>
       <c r="F90" t="n" s="150">
-        <v>-1.5201937938955732</v>
+        <v>-1.486772379756446</v>
       </c>
       <c r="G90" t="n" s="151">
-        <v>1.59388302699874</v>
+        <v>1.6055745261149772</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n" s="145">
-        <v>0.34556201521247054</v>
+        <v>0.3159867937922005</v>
       </c>
       <c r="B91" t="n" s="146">
-        <v>-1.8440968620819564</v>
+        <v>-1.8620722450854572</v>
       </c>
       <c r="C91" t="n" s="147">
-        <v>0.7615806235516027</v>
+        <v>1.1379277549145428</v>
       </c>
       <c r="D91" t="n" s="148">
-        <v>1.6859037783000863</v>
+        <v>0.7669853609139006</v>
       </c>
       <c r="E91" t="n" s="149">
-        <v>0.6149556421445519</v>
+        <v>1.6372631016771209</v>
       </c>
       <c r="F91" t="n" s="150">
-        <v>-0.2763663085114052</v>
+        <v>-0.2689847002454684</v>
       </c>
       <c r="G91" t="n" s="151">
-        <v>-0.8126612842578043</v>
+        <v>-0.8833110767322898</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n" s="145">
-        <v>0.8847081237254892</v>
+        <v>0.9374507874209952</v>
       </c>
       <c r="B92" t="n" s="146">
-        <v>-0.35343057022787505</v>
+        <v>-0.3003966067538091</v>
       </c>
       <c r="C92" t="n" s="147">
-        <v>1.119753616289195</v>
+        <v>-1.300396606753809</v>
       </c>
       <c r="D92" t="n" s="148">
-        <v>0.29091114212324864</v>
+        <v>1.171821410238775</v>
       </c>
       <c r="E92" t="n" s="149">
-        <v>-1.0881395812798242</v>
+        <v>0.3422434276676283</v>
       </c>
       <c r="F92" t="n" s="150">
-        <v>0.06659377166761704</v>
+        <v>0.1183674282635927</v>
       </c>
       <c r="G92" t="n" s="151">
-        <v>-1.1505106752596603</v>
+        <v>-1.105063684586848</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n" s="145">
-        <v>2.4568889106140763</v>
+        <v>2.237570860061496</v>
       </c>
       <c r="B93" t="n" s="146">
-        <v>-2.820265306157213</v>
+        <v>-3.0326897681632072</v>
       </c>
       <c r="C93" t="n" s="147">
-        <v>0.470551618526895</v>
+        <v>-0.03268976816320723</v>
       </c>
       <c r="D93" t="n" s="148">
-        <v>0.8862174710278761</v>
+        <v>0.2726889812614832</v>
       </c>
       <c r="E93" t="n" s="149">
-        <v>-0.8640042473407146</v>
+        <v>0.6561214167366995</v>
       </c>
       <c r="F93" t="n" s="150">
-        <v>0.388799910276747</v>
+        <v>0.19261501985501361</v>
       </c>
       <c r="G93" t="n" s="151">
-        <v>-1.598874563383367</v>
+        <v>-1.836802821880839</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="145">
-        <v>0.32717337875646724</v>
+        <v>0.7361660485388626</v>
       </c>
       <c r="B94" t="n" s="146">
-        <v>0.27726870270740545</v>
+        <v>0.6293095924445513</v>
       </c>
       <c r="C94" t="n" s="147">
-        <v>0.18203542315250765</v>
+        <v>-2.3706904075554487</v>
       </c>
       <c r="D94" t="n" s="148">
-        <v>0.42613703978164263</v>
+        <v>0.4203582437543263</v>
       </c>
       <c r="E94" t="n" s="149">
-        <v>0.14838380488427116</v>
+        <v>0.9414149936002971</v>
       </c>
       <c r="F94" t="n" s="150">
-        <v>0.17327750890957194</v>
+        <v>0.4008939734767907</v>
       </c>
       <c r="G94" t="n" s="151">
-        <v>0.5999945571765766</v>
+        <v>1.2791553142784045</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="145">
-        <v>0.3552565776445782</v>
+        <v>0.6452094246307469</v>
       </c>
       <c r="B95" t="n" s="146">
-        <v>1.0957100964881459</v>
+        <v>1.384922684170946</v>
       </c>
       <c r="C95" t="n" s="147">
-        <v>1.4882353190375763</v>
+        <v>-0.6150773158290539</v>
       </c>
       <c r="D95" t="n" s="148">
-        <v>-0.2154456982444577</v>
+        <v>1.755685918343108</v>
       </c>
       <c r="E95" t="n" s="149">
-        <v>1.2310347488665876</v>
+        <v>0.06520981779836532</v>
       </c>
       <c r="F95" t="n" s="150">
-        <v>-1.5764443981439964</v>
+        <v>-1.3132565345413933</v>
       </c>
       <c r="G95" t="n" s="151">
-        <v>-2.644889417937307</v>
+        <v>-2.397821498703829</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="145">
-        <v>0.04922154375856458</v>
+        <v>0.17176917139834025</v>
       </c>
       <c r="B96" t="n" s="146">
-        <v>-0.10638801052406421</v>
+        <v>0.009316179799355062</v>
       </c>
       <c r="C96" t="n" s="147">
-        <v>0.5822357663459838</v>
+        <v>0.009316179799355062</v>
       </c>
       <c r="D96" t="n" s="148">
-        <v>0.338700154777853</v>
+        <v>0.6771663803357999</v>
       </c>
       <c r="E96" t="n" s="149">
-        <v>0.46984783900032756</v>
+        <v>0.4700727323370577</v>
       </c>
       <c r="F96" t="n" s="150">
-        <v>-1.4469902149509437</v>
+        <v>-1.3546451908123451</v>
       </c>
       <c r="G96" t="n" s="151">
-        <v>0.7873224302115531</v>
+        <v>0.9267418835988872</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n" s="145">
-        <v>1.0897969573025836</v>
+        <v>0.4153419745389564</v>
       </c>
       <c r="B97" t="n" s="146">
-        <v>3.8249606602074926</v>
+        <v>3.1500710901767537</v>
       </c>
       <c r="C97" t="n" s="147">
-        <v>-2.886666633883025</v>
+        <v>0.15007109017675369</v>
       </c>
       <c r="D97" t="n" s="148">
-        <v>-1.5181194596529148</v>
+        <v>-3.5424760234150092</v>
       </c>
       <c r="E97" t="n" s="149">
-        <v>-3.240475411220964</v>
+        <v>-2.178415948022867</v>
       </c>
       <c r="F97" t="n" s="150">
-        <v>1.0280966551827322</v>
+        <v>0.3766209203166735</v>
       </c>
       <c r="G97" t="n" s="151">
-        <v>-0.08536726907846015</v>
+        <v>-0.6937671843218784</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="145">
-        <v>-0.7952262935544105</v>
+        <v>-0.9318642160387167</v>
       </c>
       <c r="B98" t="n" s="146">
-        <v>-1.0525011278848617</v>
+        <v>-1.171116555703498</v>
       </c>
       <c r="C98" t="n" s="147">
-        <v>-0.7545261710824307</v>
+        <v>0.8288834442965021</v>
       </c>
       <c r="D98" t="n" s="148">
-        <v>-0.4186016764534086</v>
+        <v>-0.8349780909072506</v>
       </c>
       <c r="E98" t="n" s="149">
-        <v>-0.10826159810522196</v>
+        <v>-0.5821254147430266</v>
       </c>
       <c r="F98" t="n" s="150">
-        <v>2.1604917105631753</v>
+        <v>2.0835263578579664</v>
       </c>
       <c r="G98" t="n" s="151">
-        <v>-1.0086350519091951</v>
+        <v>-1.1923196801254048</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n" s="145">
-        <v>0.666993417619314</v>
+        <v>0.4506499371889614</v>
       </c>
       <c r="B99" t="n" s="146">
-        <v>1.3963034818372861</v>
+        <v>1.1952063191809605</v>
       </c>
       <c r="C99" t="n" s="147">
-        <v>-0.2585027886903122</v>
+        <v>-0.8047936808190395</v>
       </c>
       <c r="D99" t="n" s="148">
-        <v>-0.893354899250518</v>
+        <v>-0.4084434284135545</v>
       </c>
       <c r="E99" t="n" s="149">
-        <v>-1.546817613568944</v>
+        <v>-1.13124090032455</v>
       </c>
       <c r="F99" t="n" s="150">
-        <v>0.6696574364099002</v>
+        <v>0.5267318022813106</v>
       </c>
       <c r="G99" t="n" s="151">
-        <v>-0.32087857728901836</v>
+        <v>-0.5871599042808193</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n" s="145">
-        <v>-1.2155060456420461</v>
+        <v>-1.354790575369253</v>
       </c>
       <c r="B100" t="n" s="146">
-        <v>-0.48959139810743313</v>
+        <v>-0.6150773158290539</v>
       </c>
       <c r="C100" t="n" s="147">
-        <v>0.840099076885183</v>
+        <v>0.3849226841709461</v>
       </c>
       <c r="D100" t="n" s="148">
-        <v>1.2267017475107278</v>
+        <v>0.7556859183431088</v>
       </c>
       <c r="E100" t="n" s="149">
-        <v>-0.4588264736390375</v>
+        <v>1.0652098177983662</v>
       </c>
       <c r="F100" t="n" s="150">
-        <v>-0.23415484587305802</v>
+        <v>-0.3132565345413916</v>
       </c>
       <c r="G100" t="n" s="151">
-        <v>-0.20233281625317057</v>
+        <v>-0.39782149870382755</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n" s="145">
-        <v>1.666993417619314</v>
+        <v>1.4506499371889623</v>
       </c>
       <c r="B101" t="n" s="146">
-        <v>0.39630348183728614</v>
+        <v>0.19520631918096143</v>
       </c>
       <c r="C101" t="n" s="147">
-        <v>-2.258502788690313</v>
+        <v>2.1952063191809614</v>
       </c>
       <c r="D101" t="n" s="148">
-        <v>0.10664510074948153</v>
+        <v>-2.4084434284135527</v>
       </c>
       <c r="E101" t="n" s="149">
-        <v>1.4531823864310551</v>
+        <v>-0.13124090032454827</v>
       </c>
       <c r="F101" t="n" s="150">
-        <v>-2.3303425635901007</v>
+        <v>-2.4732681977186886</v>
       </c>
       <c r="G101" t="n" s="151">
-        <v>0.6791214227109816</v>
+        <v>0.412840095719182</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n" s="145">
-        <v>0.5427434147779202</v>
+        <v>0.6294072380843625</v>
       </c>
       <c r="B102" t="n" s="146">
-        <v>-0.5410316914436768</v>
+        <v>-0.46174268183097933</v>
       </c>
       <c r="C102" t="n" s="147">
-        <v>0.2984993997686658</v>
+        <v>0.5382573181690207</v>
       </c>
       <c r="D102" t="n" s="148">
-        <v>-0.293218596706998</v>
+        <v>0.36083918501827394</v>
       </c>
       <c r="E102" t="n" s="149">
-        <v>0.24206905585976024</v>
+        <v>-0.19419148035117484</v>
       </c>
       <c r="F102" t="n" s="150">
-        <v>0.28378368466935644</v>
+        <v>0.3443315394391364</v>
       </c>
       <c r="G102" t="n" s="151">
-        <v>0.9853241823135219</v>
+        <v>1.1009321352318704</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n" s="145">
-        <v>0.761356553262118</v>
+        <v>0.9374507874209952</v>
       </c>
       <c r="B103" t="n" s="146">
-        <v>-0.46836636339996307</v>
+        <v>-0.3003966067538091</v>
       </c>
       <c r="C103" t="n" s="147">
-        <v>0.030749250924475113</v>
+        <v>-1.300396606753809</v>
       </c>
       <c r="D103" t="n" s="148">
-        <v>-0.8430316088937264</v>
+        <v>0.17182141023877673</v>
       </c>
       <c r="E103" t="n" s="149">
-        <v>-0.1636062072272395</v>
+        <v>-0.6577565723323708</v>
       </c>
       <c r="F103" t="n" s="150">
-        <v>0.9808588235388518</v>
+        <v>1.1183674282635927</v>
       </c>
       <c r="G103" t="n" s="151">
-        <v>-0.29245450410966267</v>
+        <v>-0.105063684586848</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n" s="145">
-        <v>-2.372235773573941</v>
+        <v>-2.6852118621825007</v>
       </c>
       <c r="B104" t="n" s="146">
-        <v>2.351428844038944</v>
+        <v>2.046244310472694</v>
       </c>
       <c r="C104" t="n" s="147">
-        <v>0.6368395956062107</v>
+        <v>1.046244310472694</v>
       </c>
       <c r="D104" t="n" s="148">
-        <v>-0.9488544553877296</v>
+        <v>0.35129690093068167</v>
       </c>
       <c r="E104" t="n" s="149">
-        <v>0.2953891080171944</v>
+        <v>-1.271338463466582</v>
       </c>
       <c r="F104" t="n" s="150">
-        <v>-1.446274809779882</v>
+        <v>-1.7292794756301832</v>
       </c>
       <c r="G104" t="n" s="151">
-        <v>0.5476551357025801</v>
+        <v>0.22675290531333436</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n" s="145">
-        <v>2.28123220478358</v>
+        <v>2.237570860061496</v>
       </c>
       <c r="B105" t="n" s="146">
-        <v>-1.996388943007588</v>
+        <v>-2.0326897681632072</v>
       </c>
       <c r="C105" t="n" s="147">
-        <v>-0.6991794347007998</v>
+        <v>-1.0326897681632072</v>
       </c>
       <c r="D105" t="n" s="148">
-        <v>-1.283945088697672</v>
+        <v>-0.7273110187385177</v>
       </c>
       <c r="E105" t="n" s="149">
-        <v>-1.0263002677149728</v>
+        <v>-1.3438785832633</v>
       </c>
       <c r="F105" t="n" s="150">
-        <v>0.22055655349603764</v>
+        <v>0.1926150198550145</v>
       </c>
       <c r="G105" t="n" s="151">
-        <v>1.2491573744329671</v>
+        <v>1.163197178119161</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="145">
-        <v>-0.6544379847875295</v>
+        <v>-0.14811079043559783</v>
       </c>
       <c r="B106" t="n" s="146">
-        <v>1.1559031379180436</v>
+        <v>1.6203490124649829</v>
       </c>
       <c r="C106" t="n" s="147">
-        <v>-0.23841937644839728</v>
+        <v>-2.379650987535017</v>
       </c>
       <c r="D106" t="n" s="148">
-        <v>0.6859037783000872</v>
+        <v>0.11095932019362387</v>
       </c>
       <c r="E106" t="n" s="149">
-        <v>0.614955642144551</v>
+        <v>1.2486020790730699</v>
       </c>
       <c r="F106" t="n" s="150">
-        <v>-0.2763663085114061</v>
+        <v>0.05973297491742802</v>
       </c>
       <c r="G106" t="n" s="151">
-        <v>-0.8126612842578051</v>
+        <v>-0.20443593142308725</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="145">
-        <v>0.7738526557630911</v>
+        <v>0.4153419745389555</v>
       </c>
       <c r="B107" t="n" s="146">
-        <v>-0.5012208639137268</v>
+        <v>-0.8499289098232472</v>
       </c>
       <c r="C107" t="n" s="147">
-        <v>-0.21933385882995005</v>
+        <v>-0.8499289098232472</v>
       </c>
       <c r="D107" t="n" s="148">
-        <v>-1.8087735974187797</v>
+        <v>-0.5424760234150101</v>
       </c>
       <c r="E107" t="n" s="149">
-        <v>-1.5662725958129888</v>
+        <v>-2.178415948022868</v>
       </c>
       <c r="F107" t="n" s="150">
-        <v>1.6964878371802854</v>
+        <v>1.3766209203166735</v>
       </c>
       <c r="G107" t="n" s="151">
-        <v>0.6711129587595881</v>
+        <v>0.30623281567812155</v>
       </c>
     </row>
     <row r="108">
@@ -4990,28 +4990,28 @@
         <v>4.9298245614035086</v>
       </c>
       <c r="D6" t="n" s="197">
-        <v>-1.6081284624336831</v>
+        <v>-1.3871633809762685</v>
       </c>
       <c r="E6" t="n" s="198">
-        <v>-7.352586817506091</v>
+        <v>-6.606864529325685</v>
       </c>
       <c r="F6" t="n" s="199">
-        <v>-8.893272566714439</v>
+        <v>-7.878959901779574</v>
       </c>
       <c r="G6" t="n" s="200">
-        <v>-10.105789275179363</v>
+        <v>-8.866783687895849</v>
       </c>
       <c r="H6" t="n" s="201">
-        <v>-11.54382479407816</v>
+        <v>-10.016634487622461</v>
       </c>
       <c r="I6" t="n" s="202">
-        <v>-11.490234031970358</v>
+        <v>-9.776329718145222</v>
       </c>
       <c r="J6" t="n" s="203">
-        <v>-11.617171389662307</v>
+        <v>-9.90165983940908</v>
       </c>
       <c r="K6" t="n" s="204">
-        <v>-11.256899237035782</v>
+        <v>-9.71014366683388</v>
       </c>
       <c r="L6" t="n" s="205">
         <v>1.0</v>
@@ -5046,28 +5046,28 @@
         <v>5.140350877192983</v>
       </c>
       <c r="D7" t="n" s="197">
-        <v>-1.7589713004907293</v>
+        <v>-1.5142150062855688</v>
       </c>
       <c r="E7" t="n" s="198">
-        <v>-7.503429655563137</v>
+        <v>-6.7339161546349855</v>
       </c>
       <c r="F7" t="n" s="199">
-        <v>-9.194958242828532</v>
+        <v>-8.133063152398174</v>
       </c>
       <c r="G7" t="n" s="200">
-        <v>-10.558317789350502</v>
+        <v>-9.247938563823748</v>
       </c>
       <c r="H7" t="n" s="201">
-        <v>-12.147196146306346</v>
+        <v>-10.524840988859662</v>
       </c>
       <c r="I7" t="n" s="202">
-        <v>-12.24444822225559</v>
+        <v>-10.411587844691724</v>
       </c>
       <c r="J7" t="n" s="203">
-        <v>-12.522228418004582</v>
+        <v>-10.66396959126488</v>
       </c>
       <c r="K7" t="n" s="204">
-        <v>-12.312799103435104</v>
+        <v>-10.599505043998981</v>
       </c>
       <c r="L7" t="n" s="205">
         <v>1.0</v>
@@ -5099,31 +5099,31 @@
         <v>57.0</v>
       </c>
       <c r="C8" t="n" s="196">
-        <v>5.631578947368421</v>
+        <v>5.140350877192983</v>
       </c>
       <c r="D8" t="n" s="197">
-        <v>-2.1479124056112107</v>
+        <v>-1.5142150062855688</v>
       </c>
       <c r="E8" t="n" s="198">
-        <v>-7.892370760683619</v>
+        <v>-6.7339161546349855</v>
       </c>
       <c r="F8" t="n" s="199">
-        <v>-9.972840453069495</v>
+        <v>-8.133063152398174</v>
       </c>
       <c r="G8" t="n" s="200">
-        <v>-11.725141104711946</v>
+        <v>-9.247938563823748</v>
       </c>
       <c r="H8" t="n" s="201">
-        <v>-13.702960566788272</v>
+        <v>-10.524840988859662</v>
       </c>
       <c r="I8" t="n" s="202">
-        <v>-14.189153747857993</v>
+        <v>-10.411587844691724</v>
       </c>
       <c r="J8" t="n" s="203">
-        <v>-14.855875048727471</v>
+        <v>-10.66396959126488</v>
       </c>
       <c r="K8" t="n" s="204">
-        <v>-15.035386839278475</v>
+        <v>-10.599505043998981</v>
       </c>
       <c r="L8" t="n" s="205">
         <v>1.0</v>
@@ -5155,31 +5155,31 @@
         <v>57.0</v>
       </c>
       <c r="C9" t="n" s="196">
-        <v>4.578947368421052</v>
+        <v>5.631578947368421</v>
       </c>
       <c r="D9" t="n" s="197">
-        <v>-1.3687412704969273</v>
+        <v>-1.8423924306289619</v>
       </c>
       <c r="E9" t="n" s="198">
-        <v>-7.113199625569335</v>
+        <v>-7.062093578978379</v>
       </c>
       <c r="F9" t="n" s="199">
-        <v>-8.414498182840928</v>
+        <v>-8.789418001084961</v>
       </c>
       <c r="G9" t="n" s="200">
-        <v>-9.387627699369096</v>
+        <v>-10.232470836853928</v>
       </c>
       <c r="H9" t="n" s="201">
-        <v>-10.586276026331138</v>
+        <v>-11.837550686233234</v>
       </c>
       <c r="I9" t="n" s="202">
-        <v>-10.29329807228658</v>
+        <v>-12.052474966408688</v>
       </c>
       <c r="J9" t="n" s="203">
-        <v>-10.180848238041772</v>
+        <v>-12.633034137325238</v>
       </c>
       <c r="K9" t="n" s="204">
-        <v>-9.58118889347849</v>
+        <v>-12.896747014402733</v>
       </c>
       <c r="L9" t="n" s="205">
         <v>1.0</v>
@@ -5211,31 +5211,31 @@
         <v>57.0</v>
       </c>
       <c r="C10" t="n" s="196">
-        <v>5.842105263157895</v>
+        <v>4.578947368421052</v>
       </c>
       <c r="D10" t="n" s="197">
-        <v>-2.3400359246988325</v>
+        <v>-1.185494016324085</v>
       </c>
       <c r="E10" t="n" s="198">
-        <v>-8.08449427977124</v>
+        <v>-6.405195164673502</v>
       </c>
       <c r="F10" t="n" s="199">
-        <v>-10.357087491244739</v>
+        <v>-7.475621172475207</v>
       </c>
       <c r="G10" t="n" s="200">
-        <v>-12.301511661974812</v>
+        <v>-8.261775593939298</v>
       </c>
       <c r="H10" t="n" s="201">
-        <v>-14.471454643138758</v>
+        <v>-9.209957029013728</v>
       </c>
       <c r="I10" t="n" s="202">
-        <v>-15.149771343296102</v>
+        <v>-8.767982894884305</v>
       </c>
       <c r="J10" t="n" s="203">
-        <v>-16.0086161632532</v>
+        <v>-8.69164365149598</v>
       </c>
       <c r="K10" t="n" s="204">
-        <v>-16.38025147289183</v>
+        <v>-8.298458114268595</v>
       </c>
       <c r="L10" t="n" s="205">
         <v>1.0</v>
@@ -5270,28 +5270,28 @@
         <v>5.684210526315789</v>
       </c>
       <c r="D11" t="n" s="197">
-        <v>-2.194065368276046</v>
+        <v>-1.8814321525669815</v>
       </c>
       <c r="E11" t="n" s="198">
-        <v>-7.938523723348453</v>
+        <v>-7.101133300916398</v>
       </c>
       <c r="F11" t="n" s="199">
-        <v>-10.065146378399165</v>
+        <v>-8.867497444961</v>
       </c>
       <c r="G11" t="n" s="200">
-        <v>-11.863599992706453</v>
+        <v>-10.349590002667988</v>
       </c>
       <c r="H11" t="n" s="201">
-        <v>-13.887572417447613</v>
+        <v>-11.993709573985313</v>
       </c>
       <c r="I11" t="n" s="202">
-        <v>-14.419918561182172</v>
+        <v>-12.247673576098787</v>
       </c>
       <c r="J11" t="n" s="203">
-        <v>-15.13279282471648</v>
+        <v>-12.867272468953358</v>
       </c>
       <c r="K11" t="n" s="204">
-        <v>-15.35845757793232</v>
+        <v>-13.17002506796887</v>
       </c>
       <c r="L11" t="n" s="205">
         <v>1.0</v>
@@ -5326,28 +5326,28 @@
         <v>4.105263157894737</v>
       </c>
       <c r="D12" t="n" s="197">
-        <v>-1.0582496996464232</v>
+        <v>-0.9233877187499662</v>
       </c>
       <c r="E12" t="n" s="198">
-        <v>-6.802708054718831</v>
+        <v>-6.143088867099383</v>
       </c>
       <c r="F12" t="n" s="199">
-        <v>-7.793515041139918</v>
+        <v>-6.951408577326969</v>
       </c>
       <c r="G12" t="n" s="200">
-        <v>-8.456152986817584</v>
+        <v>-7.475456701216942</v>
       </c>
       <c r="H12" t="n" s="201">
-        <v>-9.344309742929122</v>
+        <v>-8.161531838717252</v>
       </c>
       <c r="I12" t="n" s="202">
-        <v>-8.74084021803406</v>
+        <v>-7.457451407013711</v>
       </c>
       <c r="J12" t="n" s="203">
-        <v>-8.317898812938747</v>
+        <v>-7.119005866051267</v>
       </c>
       <c r="K12" t="n" s="204">
-        <v>-7.407747897524962</v>
+        <v>-6.463714031249763</v>
       </c>
       <c r="L12" t="n" s="205">
         <v>1.0</v>
@@ -5415,25 +5415,25 @@
         <v>31</v>
       </c>
       <c r="B17" t="n" s="230">
-        <v>-7.356536865234375</v>
+        <v>-6.613128662109375</v>
       </c>
       <c r="C17" t="n" s="231">
-        <v>-2.060394287109375</v>
+        <v>-1.801116943359375</v>
       </c>
       <c r="D17" t="n" s="232">
-        <v>-1.420440673828125</v>
+        <v>-1.177276611328125</v>
       </c>
       <c r="E17" t="n" s="233">
-        <v>-1.017791748046875</v>
+        <v>-0.785980224609375</v>
       </c>
       <c r="F17" t="n" s="234">
-        <v>-0.332611083984375</v>
+        <v>-0.205535888671875</v>
       </c>
       <c r="G17" t="n" s="235">
-        <v>0.100799560546875</v>
+        <v>0.138519287109375</v>
       </c>
       <c r="H17" t="n" s="236">
-        <v>0.822601318359375</v>
+        <v>0.737823486328125</v>
       </c>
     </row>
     <row r="18">
@@ -5441,25 +5441,25 @@
         <v>32</v>
       </c>
       <c r="B18" t="n" s="230">
-        <v>-7.507415771484375</v>
+        <v>-6.740203857421875</v>
       </c>
       <c r="C18" t="n" s="231">
-        <v>-2.211273193359375</v>
+        <v>-1.928192138671875</v>
       </c>
       <c r="D18" t="n" s="232">
-        <v>-1.571136474609375</v>
+        <v>-1.304351806640625</v>
       </c>
       <c r="E18" t="n" s="233">
-        <v>-1.168487548828125</v>
+        <v>-0.913055419921875</v>
       </c>
       <c r="F18" t="n" s="234">
-        <v>-0.483489990234375</v>
+        <v>-0.332794189453125</v>
       </c>
       <c r="G18" t="n" s="235">
-        <v>-0.050079345703125</v>
+        <v>0.011444091796875</v>
       </c>
       <c r="H18" t="n" s="236">
-        <v>0.671905517578125</v>
+        <v>0.610748291015625</v>
       </c>
     </row>
     <row r="19">
@@ -5467,25 +5467,25 @@
         <v>33</v>
       </c>
       <c r="B19" t="n" s="230">
-        <v>-7.896331787109375</v>
+        <v>-6.740203857421875</v>
       </c>
       <c r="C19" t="n" s="231">
-        <v>-2.600372314453125</v>
+        <v>-1.928192138671875</v>
       </c>
       <c r="D19" t="n" s="232">
-        <v>-1.960235595703125</v>
+        <v>-1.304351806640625</v>
       </c>
       <c r="E19" t="n" s="233">
-        <v>-1.557586669921875</v>
+        <v>-0.913055419921875</v>
       </c>
       <c r="F19" t="n" s="234">
-        <v>-0.872589111328125</v>
+        <v>-0.332794189453125</v>
       </c>
       <c r="G19" t="n" s="235">
-        <v>-0.439178466796875</v>
+        <v>0.011444091796875</v>
       </c>
       <c r="H19" t="n" s="236">
-        <v>0.282806396484375</v>
+        <v>0.610748291015625</v>
       </c>
     </row>
     <row r="20">
@@ -5493,25 +5493,25 @@
         <v>34</v>
       </c>
       <c r="B20" t="n" s="230">
-        <v>-7.117218017578125</v>
+        <v>-7.068511962890625</v>
       </c>
       <c r="C20" t="n" s="231">
-        <v>-1.821258544921875</v>
+        <v>-2.256317138671875</v>
       </c>
       <c r="D20" t="n" s="232">
-        <v>-1.181121826171875</v>
+        <v>-1.632476806640625</v>
       </c>
       <c r="E20" t="n" s="233">
-        <v>-0.778472900390625</v>
+        <v>-1.241180419921875</v>
       </c>
       <c r="F20" t="n" s="234">
-        <v>-0.093475341796875</v>
+        <v>-0.660919189453125</v>
       </c>
       <c r="G20" t="n" s="235">
-        <v>0.340118408203125</v>
+        <v>-0.316864013671875</v>
       </c>
       <c r="H20" t="n" s="236">
-        <v>1.061920166015625</v>
+        <v>0.282440185546875</v>
       </c>
     </row>
     <row r="21">
@@ -5519,25 +5519,25 @@
         <v>35</v>
       </c>
       <c r="B21" t="n" s="230">
-        <v>-8.088409423828125</v>
+        <v>-6.411529541015625</v>
       </c>
       <c r="C21" t="n" s="231">
-        <v>-2.792449951171875</v>
+        <v>-1.599517822265625</v>
       </c>
       <c r="D21" t="n" s="232">
-        <v>-2.152313232421875</v>
+        <v>-0.975494384765625</v>
       </c>
       <c r="E21" t="n" s="233">
-        <v>-1.749664306640625</v>
+        <v>-0.584381103515625</v>
       </c>
       <c r="F21" t="n" s="234">
-        <v>-1.064666748046875</v>
+        <v>-0.003936767578125</v>
       </c>
       <c r="G21" t="n" s="235">
-        <v>-0.631072998046875</v>
+        <v>0.340118408203125</v>
       </c>
       <c r="H21" t="n" s="236">
-        <v>0.090728759765625</v>
+        <v>0.939422607421875</v>
       </c>
     </row>
     <row r="22">
@@ -5545,25 +5545,25 @@
         <v>36</v>
       </c>
       <c r="B22" t="n" s="230">
-        <v>-7.942474365234375</v>
+        <v>-7.107513427734375</v>
       </c>
       <c r="C22" t="n" s="231">
-        <v>-2.646514892578125</v>
+        <v>-2.295501708984375</v>
       </c>
       <c r="D22" t="n" s="232">
-        <v>-2.006378173828125</v>
+        <v>-1.671478271484375</v>
       </c>
       <c r="E22" t="n" s="233">
-        <v>-1.603729248046875</v>
+        <v>-1.280364990234375</v>
       </c>
       <c r="F22" t="n" s="234">
-        <v>-0.918731689453125</v>
+        <v>-0.699920654296875</v>
       </c>
       <c r="G22" t="n" s="235">
-        <v>-0.485321044921875</v>
+        <v>-0.355865478515625</v>
       </c>
       <c r="H22" t="n" s="236">
-        <v>0.236663818359375</v>
+        <v>0.243438720703125</v>
       </c>
     </row>
     <row r="23">
@@ -5571,25 +5571,25 @@
         <v>37</v>
       </c>
       <c r="B23" t="n" s="230">
-        <v>-6.806488037109375</v>
+        <v>-6.149505615234375</v>
       </c>
       <c r="C23" t="n" s="231">
-        <v>-1.510528564453125</v>
+        <v>-1.337493896484375</v>
       </c>
       <c r="D23" t="n" s="232">
-        <v>-0.870391845703125</v>
+        <v>-0.713653564453125</v>
       </c>
       <c r="E23" t="n" s="233">
-        <v>-0.467742919921875</v>
+        <v>-0.322357177734375</v>
       </c>
       <c r="F23" t="n" s="234">
-        <v>0.217254638671875</v>
+        <v>0.258087158203125</v>
       </c>
       <c r="G23" t="n" s="235">
-        <v>0.650665283203125</v>
+        <v>0.602142333984375</v>
       </c>
       <c r="H23" t="n" s="236">
-        <v>1.372650146484375</v>
+        <v>1.201446533203125</v>
       </c>
     </row>
     <row r="24">
@@ -5618,7 +5618,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="255">
-        <v>-0.9401693198022751</v>
+        <v>-0.7467627396890192</v>
       </c>
     </row>
     <row r="29">
@@ -5626,7 +5626,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="255">
-        <v>-1.088804482629925</v>
+        <v>-0.8746202914264656</v>
       </c>
     </row>
     <row r="30">
@@ -5634,7 +5634,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="n" s="255">
-        <v>-1.481032949336639</v>
+        <v>-0.8746202914264656</v>
       </c>
     </row>
     <row r="31">
@@ -5642,7 +5642,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="255">
-        <v>-0.7025034026274677</v>
+        <v>-1.1919497478701822</v>
       </c>
     </row>
     <row r="32">
@@ -5650,7 +5650,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="255">
-        <v>-1.670044586057497</v>
+        <v>-0.5367144420839846</v>
       </c>
     </row>
     <row r="33">
@@ -5658,7 +5658,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="255">
-        <v>-1.5263645009842248</v>
+        <v>-1.2342370286100834</v>
       </c>
     </row>
     <row r="34">
@@ -5666,7 +5666,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="255">
-        <v>-0.389399228297152</v>
+        <v>-0.28363806630821964</v>
       </c>
     </row>
     <row r="35">
@@ -5718,25 +5718,25 @@
         <v>31</v>
       </c>
       <c r="B39" t="n" s="275">
-        <v>1.0147772654122267</v>
+        <v>0.8870140046668544</v>
       </c>
       <c r="C39" t="n" s="276">
-        <v>0.1095966640051264</v>
+        <v>-0.5490405453316803</v>
       </c>
       <c r="D39" t="n" s="277">
-        <v>0.9127292564594631</v>
+        <v>0.582977625305519</v>
       </c>
       <c r="E39" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F39" t="n" s="279">
-        <v>1.063577550921813</v>
+        <v>0.9415154712827997</v>
       </c>
       <c r="G39" t="n" s="280">
-        <v>0.3740387742996833</v>
+        <v>-0.2861411937130189</v>
       </c>
       <c r="H39" t="n" s="281">
-        <v>0.7083754687474559</v>
+        <v>0.7747699819253633</v>
       </c>
       <c r="I39" t="n" s="282">
         <v>1.0</v>
@@ -5747,25 +5747,25 @@
         <v>32</v>
       </c>
       <c r="B40" t="n" s="275">
-        <v>1.2166296858135666</v>
+        <v>1.1000160716640535</v>
       </c>
       <c r="C40" t="n" s="276">
-        <v>0.9881271988513682</v>
+        <v>0.5221840093301832</v>
       </c>
       <c r="D40" t="n" s="277">
-        <v>0.32309035666943126</v>
+        <v>0.601542218559302</v>
       </c>
       <c r="E40" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F40" t="n" s="279">
-        <v>1.2872891560737607</v>
+        <v>1.1591422540815548</v>
       </c>
       <c r="G40" t="n" s="280">
-        <v>1.43341641252633</v>
+        <v>0.8715334238012292</v>
       </c>
       <c r="H40" t="n" s="281">
-        <v>0.15173887079302253</v>
+        <v>0.3834629642376074</v>
       </c>
       <c r="I40" t="n" s="282">
         <v>1.0</v>
@@ -5776,25 +5776,25 @@
         <v>33</v>
       </c>
       <c r="B41" t="n" s="275">
-        <v>0.7778870445479529</v>
+        <v>1.3799406529253444</v>
       </c>
       <c r="C41" t="n" s="276">
-        <v>-0.9240066738859345</v>
+        <v>1.6747679887656486</v>
       </c>
       <c r="D41" t="n" s="277">
-        <v>0.35548284105756156</v>
+        <v>0.09397976187999792</v>
       </c>
       <c r="E41" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F41" t="n" s="279">
-        <v>0.8112641966776505</v>
+        <v>1.2378340948345514</v>
       </c>
       <c r="G41" t="n" s="280">
-        <v>-0.940896713745666</v>
+        <v>1.2523487469835808</v>
       </c>
       <c r="H41" t="n" s="281">
-        <v>0.3467577918680154</v>
+        <v>0.2104428134176777</v>
       </c>
       <c r="I41" t="n" s="282">
         <v>1.0</v>
@@ -5805,25 +5805,25 @@
         <v>34</v>
       </c>
       <c r="B42" t="n" s="275">
-        <v>1.0551334918952742</v>
+        <v>0.8027000380540099</v>
       </c>
       <c r="C42" t="n" s="276">
-        <v>0.32361788484838977</v>
+        <v>-0.8482429682485516</v>
       </c>
       <c r="D42" t="n" s="277">
-        <v>0.7462273458961493</v>
+        <v>0.3963026721045743</v>
       </c>
       <c r="E42" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F42" t="n" s="279">
-        <v>1.114553334163904</v>
+        <v>0.8449092684540559</v>
       </c>
       <c r="G42" t="n" s="280">
-        <v>0.6502314116555049</v>
+        <v>-0.7807897083598075</v>
       </c>
       <c r="H42" t="n" s="281">
-        <v>0.5155427537177784</v>
+        <v>0.43492618806699496</v>
       </c>
       <c r="I42" t="n" s="282">
         <v>1.0</v>
@@ -5834,25 +5834,25 @@
         <v>35</v>
       </c>
       <c r="B43" t="n" s="275">
-        <v>0.708583993021279</v>
+        <v>0.948274478633121</v>
       </c>
       <c r="C43" t="n" s="276">
-        <v>-1.1699092057341556</v>
+        <v>-0.2364357594124966</v>
       </c>
       <c r="D43" t="n" s="277">
-        <v>0.2420375088545429</v>
+        <v>0.8130945506413709</v>
       </c>
       <c r="E43" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F43" t="n" s="279">
-        <v>0.880827109235397</v>
+        <v>0.9750004604997333</v>
       </c>
       <c r="G43" t="n" s="280">
-        <v>-0.5370073872529725</v>
+        <v>-0.09652497451891834</v>
       </c>
       <c r="H43" t="n" s="281">
-        <v>0.5912625113113628</v>
+        <v>0.923103639734066</v>
       </c>
       <c r="I43" t="n" s="282">
         <v>1.0</v>
@@ -5863,25 +5863,25 @@
         <v>36</v>
       </c>
       <c r="B44" t="n" s="275">
-        <v>1.0018437164003635</v>
+        <v>0.7686018526831854</v>
       </c>
       <c r="C44" t="n" s="276">
-        <v>0.060922560220525564</v>
+        <v>-1.0179119371138028</v>
       </c>
       <c r="D44" t="n" s="277">
-        <v>0.9514208823574724</v>
+        <v>0.3087198082048947</v>
       </c>
       <c r="E44" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F44" t="n" s="279">
-        <v>0.9631786624665842</v>
+        <v>0.752237282678013</v>
       </c>
       <c r="G44" t="n" s="280">
-        <v>-0.12998895820582854</v>
+        <v>-1.321249859153016</v>
       </c>
       <c r="H44" t="n" s="281">
-        <v>0.8965751626427357</v>
+        <v>0.18641806655709317</v>
       </c>
       <c r="I44" t="n" s="282">
         <v>1.0</v>
@@ -5892,25 +5892,25 @@
         <v>37</v>
       </c>
       <c r="B45" t="n" s="275">
-        <v>1.1548227666490605</v>
+        <v>1.0486762296602394</v>
       </c>
       <c r="C45" t="n" s="276">
-        <v>0.7949993272497907</v>
+        <v>0.29241652493863335</v>
       </c>
       <c r="D45" t="n" s="277">
-        <v>0.4266138934891587</v>
+        <v>0.7699681750320013</v>
       </c>
       <c r="E45" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F45" t="n" s="279">
-        <v>1.133172910989407</v>
+        <v>1.0085409516830455</v>
       </c>
       <c r="G45" t="n" s="280">
-        <v>0.7419401632706482</v>
+        <v>0.08661552205420829</v>
       </c>
       <c r="H45" t="n" s="281">
-        <v>0.458123590273759</v>
+        <v>0.9309771274560094</v>
       </c>
       <c r="I45" t="n" s="282">
         <v>1.0</v>
@@ -5921,28 +5921,28 @@
         <v>60</v>
       </c>
       <c r="B46" t="n" s="275">
-        <v>1.4867446156131694</v>
+        <v>1.3370245620404297</v>
       </c>
       <c r="C46" t="n" s="276">
-        <v>0.9188382650825767</v>
+        <v>0.7038912401558451</v>
       </c>
       <c r="D46" t="n" s="277">
-        <v>0.35818017447506945</v>
+        <v>0.481500507124344</v>
       </c>
       <c r="E46" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F46" t="n" s="279">
-        <v>1.4871686305859084</v>
+        <v>1.4852199579780114</v>
       </c>
       <c r="G46" t="n" s="280">
-        <v>6.461468766609166</v>
+        <v>6.709388737110108</v>
       </c>
       <c r="H46" t="n" s="281">
-        <v>1.0369155971459314E-10</v>
+        <v>1.95441372460314E-11</v>
       </c>
       <c r="I46" t="n" s="282">
-        <v>9.332240374313383E-10</v>
+        <v>1.758972352142826E-10</v>
       </c>
     </row>
     <row r="47">
@@ -5950,28 +5950,28 @@
         <v>61</v>
       </c>
       <c r="B47" t="n" s="275">
-        <v>1.6207754856587524</v>
+        <v>1.6147164483180516</v>
       </c>
       <c r="C47" t="n" s="276">
-        <v>1.0250738913031232</v>
+        <v>1.119943253781879</v>
       </c>
       <c r="D47" t="n" s="277">
-        <v>0.3053283237137813</v>
+        <v>0.2627379445904647</v>
       </c>
       <c r="E47" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F47" t="n" s="279">
-        <v>1.6656719438274716</v>
+        <v>1.646112101784477</v>
       </c>
       <c r="G47" t="n" s="280">
-        <v>9.02691494764729</v>
+        <v>9.249899413179657</v>
       </c>
       <c r="H47" t="n" s="281">
-        <v>1.7657956241723793E-19</v>
+        <v>2.2470403162798162E-20</v>
       </c>
       <c r="I47" t="n" s="282">
-        <v>1.942375186589617E-18</v>
+        <v>2.247040316279816E-19</v>
       </c>
     </row>
     <row r="48">
@@ -5979,28 +5979,28 @@
         <v>62</v>
       </c>
       <c r="B48" t="n" s="275">
-        <v>1.669900207510745</v>
+        <v>1.6328059507967911</v>
       </c>
       <c r="C48" t="n" s="276">
-        <v>1.3751980552020266</v>
+        <v>1.5653331741088434</v>
       </c>
       <c r="D48" t="n" s="277">
-        <v>0.16907005109188358</v>
+        <v>0.11750480848407263</v>
       </c>
       <c r="E48" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F48" t="n" s="279">
-        <v>1.6873402849449084</v>
+        <v>1.6431388643749814</v>
       </c>
       <c r="G48" t="n" s="280">
-        <v>11.137947390324639</v>
+        <v>11.850694082227557</v>
       </c>
       <c r="H48" t="n" s="281">
-        <v>8.198716932543034E-29</v>
+        <v>2.1341577092703516E-32</v>
       </c>
       <c r="I48" t="n" s="282">
-        <v>9.83846031905164E-28</v>
+        <v>2.774405022051457E-31</v>
       </c>
     </row>
     <row r="49">
@@ -6008,28 +6008,28 @@
         <v>63</v>
       </c>
       <c r="B49" t="n" s="275">
-        <v>1.3726837198729325</v>
+        <v>1.3821619527285756</v>
       </c>
       <c r="C49" t="n" s="276">
-        <v>1.0497896498581707</v>
+        <v>1.4217292430373933</v>
       </c>
       <c r="D49" t="n" s="277">
-        <v>0.29381483491387755</v>
+        <v>0.1551048673755698</v>
       </c>
       <c r="E49" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F49" t="n" s="279">
-        <v>1.3863992556926443</v>
+        <v>1.385406313642924</v>
       </c>
       <c r="G49" t="n" s="280">
-        <v>8.674101812194554</v>
+        <v>11.079904398159966</v>
       </c>
       <c r="H49" t="n" s="281">
-        <v>4.168272722335295E-18</v>
+        <v>1.570401543260642E-28</v>
       </c>
       <c r="I49" t="n" s="282">
-        <v>4.1682727223352954E-17</v>
+        <v>1.8844818519127706E-27</v>
       </c>
     </row>
     <row r="50">
@@ -6037,28 +6037,28 @@
         <v>64</v>
       </c>
       <c r="B50" t="n" s="275">
-        <v>1.4531215694993658</v>
+        <v>1.4366762471961751</v>
       </c>
       <c r="C50" t="n" s="276">
-        <v>0.8524532319162046</v>
+        <v>0.9556528485185505</v>
       </c>
       <c r="D50" t="n" s="277">
-        <v>0.3939625858916891</v>
+        <v>0.33924765180445215</v>
       </c>
       <c r="E50" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F50" t="n" s="279">
-        <v>1.4551293375972012</v>
+        <v>1.4261567121658452</v>
       </c>
       <c r="G50" t="n" s="280">
-        <v>11.165230974462768</v>
+        <v>10.459989406829761</v>
       </c>
       <c r="H50" t="n" s="281">
-        <v>6.03341744928478E-29</v>
+        <v>1.3187040924575096E-25</v>
       </c>
       <c r="I50" t="n" s="282">
-        <v>7.843442684070214E-28</v>
+        <v>1.4505745017032605E-24</v>
       </c>
     </row>
     <row r="51">
@@ -6066,28 +6066,28 @@
         <v>65</v>
       </c>
       <c r="B51" t="n" s="275">
-        <v>1.3621268066798407</v>
+        <v>1.3170910750040314</v>
       </c>
       <c r="C51" t="n" s="276">
-        <v>0.7467287181261872</v>
+        <v>0.6275427792541496</v>
       </c>
       <c r="D51" t="n" s="277">
-        <v>0.45522733097592855</v>
+        <v>0.530303503510132</v>
       </c>
       <c r="E51" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F51" t="n" s="279">
-        <v>1.470053937644053</v>
+        <v>1.4059591787949968</v>
       </c>
       <c r="G51" t="n" s="280">
-        <v>6.088011790327668</v>
+        <v>5.025712512434128</v>
       </c>
       <c r="H51" t="n" s="281">
-        <v>1.1432145469255835E-9</v>
+        <v>5.01566793964275E-7</v>
       </c>
       <c r="I51" t="n" s="282">
-        <v>9.145716375404668E-9</v>
+        <v>4.0125343517142E-6</v>
       </c>
     </row>
     <row r="52">
@@ -8497,7 +8497,7 @@
         <v>6.0</v>
       </c>
       <c r="D2" t="n" s="304">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n" s="305">
         <v>6.0</v>
@@ -8515,16 +8515,16 @@
         <v>1.0</v>
       </c>
       <c r="J2" t="n" s="310">
-        <v>0.48115087107921634</v>
+        <v>1.3159005442644585</v>
       </c>
       <c r="K2" t="n" s="311">
-        <v>-0.9770688363940175</v>
+        <v>0.7530938296438295</v>
       </c>
       <c r="L2" t="n" s="312">
-        <v>0.5940486836273066</v>
+        <v>1.4032265864793902</v>
       </c>
       <c r="M2" t="n" s="313">
-        <v>-0.7063667686400313</v>
+        <v>0.9014692722392192</v>
       </c>
     </row>
     <row r="3">
@@ -8538,13 +8538,13 @@
         <v>7.0</v>
       </c>
       <c r="D3" t="n" s="304">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" t="n" s="305">
         <v>6.0</v>
       </c>
       <c r="F3" t="n" s="306">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G3" t="n" s="307">
         <v>6.0</v>
@@ -8556,16 +8556,16 @@
         <v>2.0</v>
       </c>
       <c r="J3" t="n" s="310">
-        <v>0.7350393064169236</v>
+        <v>0.5448385791250611</v>
       </c>
       <c r="K3" t="n" s="311">
-        <v>-0.06971505999856542</v>
+        <v>-0.4527009403213285</v>
       </c>
       <c r="L3" t="n" s="312">
-        <v>0.6536629899973985</v>
+        <v>0.5256763030899665</v>
       </c>
       <c r="M3" t="n" s="313">
-        <v>-0.25960832074121626</v>
+        <v>-0.5669275749454876</v>
       </c>
     </row>
     <row r="4">
@@ -8579,13 +8579,13 @@
         <v>7.0</v>
       </c>
       <c r="D4" t="n" s="304">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="n" s="305">
+        <v>7.0</v>
+      </c>
+      <c r="F4" t="n" s="306">
         <v>5.0</v>
-      </c>
-      <c r="F4" t="n" s="306">
-        <v>6.0</v>
       </c>
       <c r="G4" t="n" s="307">
         <v>7.0</v>
@@ -8597,16 +8597,16 @@
         <v>3.0</v>
       </c>
       <c r="J4" t="n" s="310">
-        <v>0.9528634153365776</v>
+        <v>0.845181394514596</v>
       </c>
       <c r="K4" t="n" s="311">
-        <v>0.10023893045956206</v>
+        <v>-0.11622084441687328</v>
       </c>
       <c r="L4" t="n" s="312">
-        <v>1.1266663645161956</v>
+        <v>0.9844428702495992</v>
       </c>
       <c r="M4" t="n" s="313">
-        <v>0.4053493562243984</v>
+        <v>0.1458598035042783</v>
       </c>
     </row>
     <row r="5">
@@ -8620,10 +8620,10 @@
         <v>3.0</v>
       </c>
       <c r="D5" t="n" s="304">
+        <v>6.0</v>
+      </c>
+      <c r="E5" t="n" s="305">
         <v>5.0</v>
-      </c>
-      <c r="E5" t="n" s="305">
-        <v>6.0</v>
       </c>
       <c r="F5" t="n" s="306">
         <v>6.0</v>
@@ -8638,16 +8638,16 @@
         <v>4.0</v>
       </c>
       <c r="J5" t="n" s="310">
-        <v>0.7872034229085553</v>
+        <v>0.7565354223652836</v>
       </c>
       <c r="K5" t="n" s="311">
-        <v>-0.3027556229008538</v>
+        <v>-0.4010524775436952</v>
       </c>
       <c r="L5" t="n" s="312">
-        <v>0.8546437191747233</v>
+        <v>0.7902782465156697</v>
       </c>
       <c r="M5" t="n" s="313">
-        <v>-0.14146861306369565</v>
+        <v>-0.31536955041074444</v>
       </c>
     </row>
     <row r="6">
@@ -8661,13 +8661,13 @@
         <v>4.0</v>
       </c>
       <c r="D6" t="n" s="304">
+        <v>4.0</v>
+      </c>
+      <c r="E6" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="E6" t="n" s="305">
-        <v>4.0</v>
-      </c>
       <c r="F6" t="n" s="306">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="n" s="307">
         <v>5.0</v>
@@ -8679,16 +8679,16 @@
         <v>5.0</v>
       </c>
       <c r="J6" t="n" s="310">
-        <v>0.10419363441615634</v>
+        <v>0.0832504305591508</v>
       </c>
       <c r="K6" t="n" s="311">
-        <v>-3.1054429656583453</v>
+        <v>-3.4079746704435006</v>
       </c>
       <c r="L6" t="n" s="312">
-        <v>0.10583906781635194</v>
+        <v>0.08203631793021267</v>
       </c>
       <c r="M6" t="n" s="313">
-        <v>-3.069923941465595</v>
+        <v>-3.4124408004850535</v>
       </c>
     </row>
     <row r="7">
@@ -8720,16 +8720,16 @@
         <v>6.0</v>
       </c>
       <c r="J7" t="n" s="310">
-        <v>0.24340698824292503</v>
+        <v>0.3163167690113176</v>
       </c>
       <c r="K7" t="n" s="311">
-        <v>-0.6265714459030907</v>
+        <v>-0.3328359558049629</v>
       </c>
       <c r="L7" t="n" s="312">
-        <v>0.3289691951277326</v>
+        <v>0.4651789093014976</v>
       </c>
       <c r="M7" t="n" s="313">
-        <v>-0.4969209424142449</v>
+        <v>-0.12413335025747557</v>
       </c>
     </row>
     <row r="8">
@@ -8746,7 +8746,7 @@
         <v>7.0</v>
       </c>
       <c r="E8" t="n" s="305">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F8" t="n" s="306">
         <v>6.0</v>
@@ -8761,16 +8761,16 @@
         <v>7.0</v>
       </c>
       <c r="J8" t="n" s="310">
-        <v>0.9833353918802564</v>
+        <v>1.1272304961848352</v>
       </c>
       <c r="K8" t="n" s="311">
-        <v>0.13450934741349724</v>
+        <v>0.4117167227239118</v>
       </c>
       <c r="L8" t="n" s="312">
-        <v>1.0862980515394556</v>
+        <v>1.219193073513929</v>
       </c>
       <c r="M8" t="n" s="313">
-        <v>0.33454167057059503</v>
+        <v>0.5808844649743953</v>
       </c>
     </row>
     <row r="9">
@@ -8784,13 +8784,13 @@
         <v>5.0</v>
       </c>
       <c r="D9" t="n" s="304">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" t="n" s="305">
+        <v>7.0</v>
+      </c>
+      <c r="F9" t="n" s="306">
         <v>5.0</v>
-      </c>
-      <c r="F9" t="n" s="306">
-        <v>7.0</v>
       </c>
       <c r="G9" t="n" s="307">
         <v>5.0</v>
@@ -8802,16 +8802,16 @@
         <v>8.0</v>
       </c>
       <c r="J9" t="n" s="310">
-        <v>0.5670913065356966</v>
+        <v>0.41678192378849915</v>
       </c>
       <c r="K9" t="n" s="311">
-        <v>-0.8126883551434276</v>
+        <v>-1.3659241503931157</v>
       </c>
       <c r="L9" t="n" s="312">
-        <v>0.5086759031395357</v>
+        <v>0.378309345240435</v>
       </c>
       <c r="M9" t="n" s="313">
-        <v>-0.9895443800325567</v>
+        <v>-1.5269097396472622</v>
       </c>
     </row>
     <row r="10">
@@ -8825,13 +8825,13 @@
         <v>3.0</v>
       </c>
       <c r="D10" t="n" s="304">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" t="n" s="305">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="n" s="306">
         <v>3.0</v>
-      </c>
-      <c r="F10" t="n" s="306">
-        <v>4.0</v>
       </c>
       <c r="G10" t="n" s="307">
         <v>5.0</v>
@@ -8843,16 +8843,16 @@
         <v>9.0</v>
       </c>
       <c r="J10" t="n" s="310">
-        <v>0.24865033273532816</v>
+        <v>0.2085640214337042</v>
       </c>
       <c r="K10" t="n" s="311">
-        <v>-2.1028565684841114</v>
+        <v>-2.344644852542677</v>
       </c>
       <c r="L10" t="n" s="312">
-        <v>0.24125466391297734</v>
+        <v>0.2038063989848561</v>
       </c>
       <c r="M10" t="n" s="313">
-        <v>-2.127031053423828</v>
+        <v>-2.3648724860411128</v>
       </c>
     </row>
     <row r="11">
@@ -8866,10 +8866,10 @@
         <v>2.0</v>
       </c>
       <c r="D11" t="n" s="304">
+        <v>7.0</v>
+      </c>
+      <c r="E11" t="n" s="305">
         <v>5.0</v>
-      </c>
-      <c r="E11" t="n" s="305">
-        <v>6.0</v>
       </c>
       <c r="F11" t="n" s="306">
         <v>6.0</v>
@@ -8884,16 +8884,16 @@
         <v>10.0</v>
       </c>
       <c r="J11" t="n" s="310">
-        <v>1.1540787395708958</v>
+        <v>1.3050582916783673</v>
       </c>
       <c r="K11" t="n" s="311">
-        <v>0.46098238691685356</v>
+        <v>0.734482510580989</v>
       </c>
       <c r="L11" t="n" s="312">
-        <v>1.2478468130550107</v>
+        <v>1.3385016948984134</v>
       </c>
       <c r="M11" t="n" s="313">
-        <v>0.6249516504769584</v>
+        <v>0.7932525259485658</v>
       </c>
     </row>
     <row r="12">
@@ -8907,10 +8907,10 @@
         <v>5.0</v>
       </c>
       <c r="D12" t="n" s="304">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" t="n" s="305">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F12" t="n" s="306">
         <v>6.0</v>
@@ -8925,16 +8925,16 @@
         <v>11.0</v>
       </c>
       <c r="J12" t="n" s="310">
-        <v>0.5149841808723342</v>
+        <v>0.5025367750364884</v>
       </c>
       <c r="K12" t="n" s="311">
-        <v>-1.0148567413307528</v>
+        <v>-1.1017998645734448</v>
       </c>
       <c r="L12" t="n" s="312">
-        <v>0.5034254805564418</v>
+        <v>0.45614534629589415</v>
       </c>
       <c r="M12" t="n" s="313">
-        <v>-1.0399087755026912</v>
+        <v>-1.2632739851772978</v>
       </c>
     </row>
     <row r="13">
@@ -8951,10 +8951,10 @@
         <v>7.0</v>
       </c>
       <c r="E13" t="n" s="305">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F13" t="n" s="306">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G13" t="n" s="307">
         <v>6.0</v>
@@ -8966,16 +8966,16 @@
         <v>12.0</v>
       </c>
       <c r="J13" t="n" s="310">
-        <v>0.9413019575221374</v>
+        <v>0.9556062870171871</v>
       </c>
       <c r="K13" t="n" s="311">
-        <v>0.06012539917963226</v>
+        <v>0.08089981052730703</v>
       </c>
       <c r="L13" t="n" s="312">
-        <v>0.9716505504404921</v>
+        <v>0.97669019833911</v>
       </c>
       <c r="M13" t="n" s="313">
-        <v>0.11845888011409467</v>
+        <v>0.11959794942487897</v>
       </c>
     </row>
     <row r="14">
@@ -8992,7 +8992,7 @@
         <v>5.0</v>
       </c>
       <c r="E14" t="n" s="305">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F14" t="n" s="306">
         <v>4.0</v>
@@ -9007,16 +9007,16 @@
         <v>13.0</v>
       </c>
       <c r="J14" t="n" s="310">
-        <v>0.35863982593665905</v>
+        <v>0.21574014495401203</v>
       </c>
       <c r="K14" t="n" s="311">
-        <v>-1.6271487956371975</v>
+        <v>-2.375486180574992</v>
       </c>
       <c r="L14" t="n" s="312">
-        <v>0.3526666014738658</v>
+        <v>0.21989561117973827</v>
       </c>
       <c r="M14" t="n" s="313">
-        <v>-1.6446959110657933</v>
+        <v>-2.3448176485491765</v>
       </c>
     </row>
     <row r="15">
@@ -9030,7 +9030,7 @@
         <v>4.0</v>
       </c>
       <c r="D15" t="n" s="304">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E15" t="n" s="305">
         <v>7.0</v>
@@ -9048,16 +9048,16 @@
         <v>14.0</v>
       </c>
       <c r="J15" t="n" s="310">
-        <v>1.065984388946657</v>
+        <v>1.0640920396863758</v>
       </c>
       <c r="K15" t="n" s="311">
-        <v>0.31659749260309034</v>
+        <v>0.2971542147177881</v>
       </c>
       <c r="L15" t="n" s="312">
-        <v>1.0569415554002133</v>
+        <v>1.0480383471124468</v>
       </c>
       <c r="M15" t="n" s="313">
-        <v>0.2929259648269779</v>
+        <v>0.26534382705519133</v>
       </c>
     </row>
     <row r="16">
@@ -9071,13 +9071,13 @@
         <v>5.0</v>
       </c>
       <c r="D16" t="n" s="304">
+        <v>7.0</v>
+      </c>
+      <c r="E16" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="E16" t="n" s="305">
-        <v>4.0</v>
-      </c>
       <c r="F16" t="n" s="306">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G16" t="n" s="307">
         <v>7.0</v>
@@ -9089,16 +9089,16 @@
         <v>15.0</v>
       </c>
       <c r="J16" t="n" s="310">
-        <v>1.3464838645607984</v>
+        <v>1.266554949128783</v>
       </c>
       <c r="K16" t="n" s="311">
-        <v>0.7139072069902019</v>
+        <v>0.6062944511610451</v>
       </c>
       <c r="L16" t="n" s="312">
-        <v>1.4752152828492697</v>
+        <v>1.3083825684320878</v>
       </c>
       <c r="M16" t="n" s="313">
-        <v>0.9161095710683567</v>
+        <v>0.6817423955406808</v>
       </c>
     </row>
     <row r="17">
@@ -9130,16 +9130,16 @@
         <v>16.0</v>
       </c>
       <c r="J17" t="n" s="310">
-        <v>0.5430357724278048</v>
+        <v>0.46511348604835995</v>
       </c>
       <c r="K17" t="n" s="311">
-        <v>-0.9744678727274776</v>
+        <v>-1.2704722821887635</v>
       </c>
       <c r="L17" t="n" s="312">
-        <v>0.5571388176483868</v>
+        <v>0.46555512935861276</v>
       </c>
       <c r="M17" t="n" s="313">
-        <v>-0.9237802945798471</v>
+        <v>-1.2641619630515062</v>
       </c>
     </row>
     <row r="18">
@@ -9153,13 +9153,13 @@
         <v>5.0</v>
       </c>
       <c r="D18" t="n" s="304">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E18" t="n" s="305">
+        <v>7.0</v>
+      </c>
+      <c r="F18" t="n" s="306">
         <v>3.0</v>
-      </c>
-      <c r="F18" t="n" s="306">
-        <v>6.0</v>
       </c>
       <c r="G18" t="n" s="307">
         <v>7.0</v>
@@ -9171,16 +9171,16 @@
         <v>17.0</v>
       </c>
       <c r="J18" t="n" s="310">
-        <v>0.738276828710448</v>
+        <v>0.7517910971211382</v>
       </c>
       <c r="K18" t="n" s="311">
-        <v>-0.42177402267928155</v>
+        <v>-0.413082317481516</v>
       </c>
       <c r="L18" t="n" s="312">
-        <v>0.7308274467159556</v>
+        <v>0.7288026933522033</v>
       </c>
       <c r="M18" t="n" s="313">
-        <v>-0.4321741352621826</v>
+        <v>-0.47018188188184884</v>
       </c>
     </row>
     <row r="19">
@@ -9194,13 +9194,13 @@
         <v>7.0</v>
       </c>
       <c r="D19" t="n" s="304">
+        <v>7.0</v>
+      </c>
+      <c r="E19" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="E19" t="n" s="305">
-        <v>7.0</v>
-      </c>
       <c r="F19" t="n" s="306">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G19" t="n" s="307">
         <v>5.0</v>
@@ -9212,16 +9212,16 @@
         <v>18.0</v>
       </c>
       <c r="J19" t="n" s="310">
-        <v>1.0016539730059217</v>
+        <v>1.114798157158358</v>
       </c>
       <c r="K19" t="n" s="311">
-        <v>0.17766950527071604</v>
+        <v>0.3857537441871146</v>
       </c>
       <c r="L19" t="n" s="312">
-        <v>1.0796556053875581</v>
+        <v>1.0894085859677662</v>
       </c>
       <c r="M19" t="n" s="313">
-        <v>0.32263851657020476</v>
+        <v>0.3403315511428324</v>
       </c>
     </row>
     <row r="20">
@@ -9235,13 +9235,13 @@
         <v>6.0</v>
       </c>
       <c r="D20" t="n" s="304">
+        <v>6.0</v>
+      </c>
+      <c r="E20" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="E20" t="n" s="305">
+      <c r="F20" t="n" s="306">
         <v>2.0</v>
-      </c>
-      <c r="F20" t="n" s="306">
-        <v>7.0</v>
       </c>
       <c r="G20" t="n" s="307">
         <v>7.0</v>
@@ -9253,16 +9253,16 @@
         <v>19.0</v>
       </c>
       <c r="J20" t="n" s="310">
-        <v>1.008717108354023</v>
+        <v>0.8012004379188857</v>
       </c>
       <c r="K20" t="n" s="311">
-        <v>0.18764988541200897</v>
+        <v>-0.2770355154888752</v>
       </c>
       <c r="L20" t="n" s="312">
-        <v>1.0560316684077453</v>
+        <v>0.8323887265694427</v>
       </c>
       <c r="M20" t="n" s="313">
-        <v>0.2782913311316233</v>
+        <v>-0.20556302260217457</v>
       </c>
     </row>
     <row r="21">
@@ -9276,13 +9276,13 @@
         <v>7.0</v>
       </c>
       <c r="D21" t="n" s="304">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n" s="305">
+        <v>7.0</v>
+      </c>
+      <c r="F21" t="n" s="306">
         <v>1.0</v>
-      </c>
-      <c r="F21" t="n" s="306">
-        <v>7.0</v>
       </c>
       <c r="G21" t="n" s="307">
         <v>2.0</v>
@@ -9294,16 +9294,16 @@
         <v>20.0</v>
       </c>
       <c r="J21" t="n" s="310">
-        <v>2.921864483337707</v>
+        <v>2.9056288521899605</v>
       </c>
       <c r="K21" t="n" s="311">
-        <v>2.7809994500238835</v>
+        <v>2.844937377626196</v>
       </c>
       <c r="L21" t="n" s="312">
-        <v>2.8571977408986347</v>
+        <v>2.946394261122118</v>
       </c>
       <c r="M21" t="n" s="313">
-        <v>2.6909497460268788</v>
+        <v>2.882522243185825</v>
       </c>
     </row>
     <row r="22">
@@ -9317,13 +9317,13 @@
         <v>4.0</v>
       </c>
       <c r="D22" t="n" s="304">
+        <v>3.0</v>
+      </c>
+      <c r="E22" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="E22" t="n" s="305">
+      <c r="F22" t="n" s="306">
         <v>3.0</v>
-      </c>
-      <c r="F22" t="n" s="306">
-        <v>5.0</v>
       </c>
       <c r="G22" t="n" s="307">
         <v>6.0</v>
@@ -9335,16 +9335,16 @@
         <v>21.0</v>
       </c>
       <c r="J22" t="n" s="310">
-        <v>0.5797197077791106</v>
+        <v>0.663024705901692</v>
       </c>
       <c r="K22" t="n" s="311">
-        <v>-0.8480305101704825</v>
+        <v>-0.6544608759656417</v>
       </c>
       <c r="L22" t="n" s="312">
-        <v>0.6151414138056137</v>
+        <v>0.6849052212544432</v>
       </c>
       <c r="M22" t="n" s="313">
-        <v>-0.7351975873713741</v>
+        <v>-0.5911560246267861</v>
       </c>
     </row>
     <row r="23">
@@ -9358,10 +9358,10 @@
         <v>4.0</v>
       </c>
       <c r="D23" t="n" s="304">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n" s="305">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F23" t="n" s="306">
         <v>4.0</v>
@@ -9376,16 +9376,16 @@
         <v>22.0</v>
       </c>
       <c r="J23" t="n" s="310">
-        <v>0.6303820777667424</v>
+        <v>0.34280156744466234</v>
       </c>
       <c r="K23" t="n" s="311">
-        <v>-0.7108143431517006</v>
+        <v>-1.742663304728108</v>
       </c>
       <c r="L23" t="n" s="312">
-        <v>0.5684669644155482</v>
+        <v>0.32080649760600793</v>
       </c>
       <c r="M23" t="n" s="313">
-        <v>-0.877254947714767</v>
+        <v>-1.83232336084384</v>
       </c>
     </row>
     <row r="24">
@@ -9399,13 +9399,13 @@
         <v>2.0</v>
       </c>
       <c r="D24" t="n" s="304">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E24" t="n" s="305">
+        <v>4.0</v>
+      </c>
+      <c r="F24" t="n" s="306">
         <v>1.0</v>
-      </c>
-      <c r="F24" t="n" s="306">
-        <v>7.0</v>
       </c>
       <c r="G24" t="n" s="307">
         <v>4.0</v>
@@ -9417,16 +9417,16 @@
         <v>23.0</v>
       </c>
       <c r="J24" t="n" s="310">
-        <v>1.3252146859670055</v>
+        <v>1.5957635567102633</v>
       </c>
       <c r="K24" t="n" s="311">
-        <v>0.764669908531472</v>
+        <v>1.2052445293927345</v>
       </c>
       <c r="L24" t="n" s="312">
-        <v>1.2735491099087806</v>
+        <v>1.5810269673872892</v>
       </c>
       <c r="M24" t="n" s="313">
-        <v>0.6743329914074918</v>
+        <v>1.1805084839227393</v>
       </c>
     </row>
     <row r="25">
@@ -9440,7 +9440,7 @@
         <v>7.0</v>
       </c>
       <c r="D25" t="n" s="304">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E25" t="n" s="305">
         <v>7.0</v>
@@ -9458,16 +9458,16 @@
         <v>24.0</v>
       </c>
       <c r="J25" t="n" s="310">
-        <v>0.24340698824292503</v>
+        <v>0.3799455962469525</v>
       </c>
       <c r="K25" t="n" s="311">
-        <v>-0.6265714459030907</v>
+        <v>-0.5230324059249009</v>
       </c>
       <c r="L25" t="n" s="312">
-        <v>0.3289691951277326</v>
+        <v>0.3580743163548188</v>
       </c>
       <c r="M25" t="n" s="313">
-        <v>-0.4969209424142449</v>
+        <v>-0.6203374627668741</v>
       </c>
     </row>
     <row r="26">
@@ -9499,16 +9499,16 @@
         <v>25.0</v>
       </c>
       <c r="J26" t="n" s="310">
-        <v>0.07351160388766606</v>
+        <v>0.0751059221637235</v>
       </c>
       <c r="K26" t="n" s="311">
-        <v>-0.4807905267663757</v>
+        <v>-0.4954994128477359</v>
       </c>
       <c r="L26" t="n" s="312">
-        <v>0.0893327786946946</v>
+        <v>0.08390828321977128</v>
       </c>
       <c r="M26" t="n" s="313">
-        <v>-0.5137179371748952</v>
+        <v>-0.4982747345466946</v>
       </c>
     </row>
     <row r="27">
@@ -9540,16 +9540,16 @@
         <v>26.0</v>
       </c>
       <c r="J27" t="n" s="310">
-        <v>0.07351160388766606</v>
+        <v>0.0751059221637235</v>
       </c>
       <c r="K27" t="n" s="311">
-        <v>-0.4807905267663757</v>
+        <v>-0.4954994128477359</v>
       </c>
       <c r="L27" t="n" s="312">
-        <v>0.0893327786946946</v>
+        <v>0.08390828321977128</v>
       </c>
       <c r="M27" t="n" s="313">
-        <v>-0.5137179371748952</v>
+        <v>-0.4982747345466946</v>
       </c>
     </row>
     <row r="28">
@@ -9563,13 +9563,13 @@
         <v>5.0</v>
       </c>
       <c r="D28" t="n" s="304">
+        <v>6.0</v>
+      </c>
+      <c r="E28" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="E28" t="n" s="305">
-        <v>4.0</v>
-      </c>
       <c r="F28" t="n" s="306">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G28" t="n" s="307">
         <v>6.0</v>
@@ -9581,16 +9581,16 @@
         <v>27.0</v>
       </c>
       <c r="J28" t="n" s="310">
-        <v>0.18259414033333382</v>
+        <v>0.20632845506705144</v>
       </c>
       <c r="K28" t="n" s="311">
-        <v>-2.4107520126361424</v>
+        <v>-2.3606587610802547</v>
       </c>
       <c r="L28" t="n" s="312">
-        <v>0.18987268541895982</v>
+        <v>0.2030784346241892</v>
       </c>
       <c r="M28" t="n" s="313">
-        <v>-2.3450685361949253</v>
+        <v>-2.389652733764685</v>
       </c>
     </row>
     <row r="29">
@@ -9604,7 +9604,7 @@
         <v>7.0</v>
       </c>
       <c r="D29" t="n" s="304">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" t="n" s="305">
         <v>6.0</v>
@@ -9622,16 +9622,16 @@
         <v>28.0</v>
       </c>
       <c r="J29" t="n" s="310">
-        <v>0.5970977692452204</v>
+        <v>0.5548891211532596</v>
       </c>
       <c r="K29" t="n" s="311">
-        <v>-0.6183337260697421</v>
+        <v>-0.794143414536291</v>
       </c>
       <c r="L29" t="n" s="312">
-        <v>0.7017454149116841</v>
+        <v>0.6090803491787438</v>
       </c>
       <c r="M29" t="n" s="313">
-        <v>-0.419185143941617</v>
+        <v>-0.6921807621035614</v>
       </c>
     </row>
     <row r="30">
@@ -9645,10 +9645,10 @@
         <v>4.0</v>
       </c>
       <c r="D30" t="n" s="304">
+        <v>4.0</v>
+      </c>
+      <c r="E30" t="n" s="305">
         <v>3.0</v>
-      </c>
-      <c r="E30" t="n" s="305">
-        <v>4.0</v>
       </c>
       <c r="F30" t="n" s="306">
         <v>4.0</v>
@@ -9663,16 +9663,16 @@
         <v>29.0</v>
       </c>
       <c r="J30" t="n" s="310">
-        <v>0.7093735138161145</v>
+        <v>0.6285713483196194</v>
       </c>
       <c r="K30" t="n" s="311">
-        <v>-0.492618323452166</v>
+        <v>-0.7209526943948332</v>
       </c>
       <c r="L30" t="n" s="312">
-        <v>0.6906426057799018</v>
+        <v>0.6208994370636263</v>
       </c>
       <c r="M30" t="n" s="313">
-        <v>-0.5359078783905822</v>
+        <v>-0.7394365657028124</v>
       </c>
     </row>
     <row r="31">
@@ -9704,16 +9704,16 @@
         <v>30.0</v>
       </c>
       <c r="J31" t="n" s="310">
-        <v>2.17642409201711</v>
+        <v>2.0350783483838546</v>
       </c>
       <c r="K31" t="n" s="311">
-        <v>1.576955776781905</v>
+        <v>1.4448043576469387</v>
       </c>
       <c r="L31" t="n" s="312">
-        <v>3.275238208210317</v>
+        <v>2.9452969694355864</v>
       </c>
       <c r="M31" t="n" s="313">
-        <v>2.630177794619244</v>
+        <v>2.3417312524866176</v>
       </c>
     </row>
     <row r="32">
@@ -9727,7 +9727,7 @@
         <v>7.0</v>
       </c>
       <c r="D32" t="n" s="304">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E32" t="n" s="305">
         <v>7.0</v>
@@ -9745,16 +9745,16 @@
         <v>31.0</v>
       </c>
       <c r="J32" t="n" s="310">
-        <v>0.4955074401222238</v>
+        <v>1.5977146304046312</v>
       </c>
       <c r="K32" t="n" s="311">
-        <v>-0.18142268466831035</v>
+        <v>0.9134091412496259</v>
       </c>
       <c r="L32" t="n" s="312">
-        <v>0.5631314950844146</v>
+        <v>1.544976112987249</v>
       </c>
       <c r="M32" t="n" s="313">
-        <v>-0.12163489984312498</v>
+        <v>0.8913652241524849</v>
       </c>
     </row>
     <row r="33">
@@ -9768,13 +9768,13 @@
         <v>7.0</v>
       </c>
       <c r="D33" t="n" s="304">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E33" t="n" s="305">
         <v>6.0</v>
       </c>
       <c r="F33" t="n" s="306">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G33" t="n" s="307">
         <v>6.0</v>
@@ -9786,16 +9786,16 @@
         <v>32.0</v>
       </c>
       <c r="J33" t="n" s="310">
-        <v>0.6248472878993834</v>
+        <v>0.4652124264381066</v>
       </c>
       <c r="K33" t="n" s="311">
-        <v>-0.23995807274350817</v>
+        <v>-0.6151810086373277</v>
       </c>
       <c r="L33" t="n" s="312">
-        <v>0.41711904583017145</v>
+        <v>0.3413098900072718</v>
       </c>
       <c r="M33" t="n" s="313">
-        <v>-0.7307261734084944</v>
+        <v>-1.0191141236850605</v>
       </c>
     </row>
     <row r="34">
@@ -9809,13 +9809,13 @@
         <v>7.0</v>
       </c>
       <c r="D34" t="n" s="304">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E34" t="n" s="305">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F34" t="n" s="306">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G34" t="n" s="307">
         <v>6.0</v>
@@ -9827,16 +9827,16 @@
         <v>33.0</v>
       </c>
       <c r="J34" t="n" s="310">
-        <v>0.713751859291459</v>
+        <v>0.7651355381373621</v>
       </c>
       <c r="K34" t="n" s="311">
-        <v>-0.3145234121360425</v>
+        <v>-0.31211280610557335</v>
       </c>
       <c r="L34" t="n" s="312">
-        <v>0.7188294142852635</v>
+        <v>0.76314777223187</v>
       </c>
       <c r="M34" t="n" s="313">
-        <v>-0.35545374932210594</v>
+        <v>-0.334983440715216</v>
       </c>
     </row>
     <row r="35">
@@ -9853,10 +9853,10 @@
         <v>3.0</v>
       </c>
       <c r="E35" t="n" s="305">
+        <v>3.0</v>
+      </c>
+      <c r="F35" t="n" s="306">
         <v>2.0</v>
-      </c>
-      <c r="F35" t="n" s="306">
-        <v>4.0</v>
       </c>
       <c r="G35" t="n" s="307">
         <v>3.0</v>
@@ -9868,16 +9868,16 @@
         <v>34.0</v>
       </c>
       <c r="J35" t="n" s="310">
-        <v>0.06655942996160107</v>
+        <v>0.05709170544153611</v>
       </c>
       <c r="K35" t="n" s="311">
-        <v>-3.292443839041179</v>
+        <v>-3.3985154371707584</v>
       </c>
       <c r="L35" t="n" s="312">
-        <v>0.06742935544827935</v>
+        <v>0.05909584259648373</v>
       </c>
       <c r="M35" t="n" s="313">
-        <v>-3.3445234020715433</v>
+        <v>-3.420910797888709</v>
       </c>
     </row>
     <row r="36">
@@ -9891,13 +9891,13 @@
         <v>3.0</v>
       </c>
       <c r="D36" t="n" s="304">
+        <v>2.0</v>
+      </c>
+      <c r="E36" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="E36" t="n" s="305">
+      <c r="F36" t="n" s="306">
         <v>2.0</v>
-      </c>
-      <c r="F36" t="n" s="306">
-        <v>5.0</v>
       </c>
       <c r="G36" t="n" s="307">
         <v>6.0</v>
@@ -9909,16 +9909,16 @@
         <v>35.0</v>
       </c>
       <c r="J36" t="n" s="310">
-        <v>1.3322282091119326</v>
+        <v>1.426125590428537</v>
       </c>
       <c r="K36" t="n" s="311">
-        <v>0.7807081160568667</v>
+        <v>0.939198912238532</v>
       </c>
       <c r="L36" t="n" s="312">
-        <v>1.3041046791629936</v>
+        <v>1.3269273426008472</v>
       </c>
       <c r="M36" t="n" s="313">
-        <v>0.731166975628995</v>
+        <v>0.7724573016564064</v>
       </c>
     </row>
     <row r="37">
@@ -9932,13 +9932,13 @@
         <v>7.0</v>
       </c>
       <c r="D37" t="n" s="304">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E37" t="n" s="305">
         <v>7.0</v>
       </c>
       <c r="F37" t="n" s="306">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G37" t="n" s="307">
         <v>7.0</v>
@@ -9950,16 +9950,16 @@
         <v>36.0</v>
       </c>
       <c r="J37" t="n" s="310">
-        <v>0.772124544157311</v>
+        <v>0.7318565027904436</v>
       </c>
       <c r="K37" t="n" s="311">
-        <v>-0.16163970767285435</v>
+        <v>-0.2824139991820498</v>
       </c>
       <c r="L37" t="n" s="312">
-        <v>0.8600725508849703</v>
+        <v>0.769737071799965</v>
       </c>
       <c r="M37" t="n" s="313">
-        <v>-0.0459855080728955</v>
+        <v>-0.24635476102844997</v>
       </c>
     </row>
     <row r="38">
@@ -9973,13 +9973,13 @@
         <v>4.0</v>
       </c>
       <c r="D38" t="n" s="304">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E38" t="n" s="305">
+        <v>4.0</v>
+      </c>
+      <c r="F38" t="n" s="306">
         <v>1.0</v>
-      </c>
-      <c r="F38" t="n" s="306">
-        <v>7.0</v>
       </c>
       <c r="G38" t="n" s="307">
         <v>6.0</v>
@@ -9991,16 +9991,16 @@
         <v>37.0</v>
       </c>
       <c r="J38" t="n" s="310">
-        <v>0.9203070994877074</v>
+        <v>1.1437123068064763</v>
       </c>
       <c r="K38" t="n" s="311">
-        <v>-0.006597180622892801</v>
+        <v>0.4469350494596738</v>
       </c>
       <c r="L38" t="n" s="312">
-        <v>0.9130917150720015</v>
+        <v>1.1584858298416483</v>
       </c>
       <c r="M38" t="n" s="313">
-        <v>-0.02119732951081979</v>
+        <v>0.47488382783859956</v>
       </c>
     </row>
     <row r="39">
@@ -10017,10 +10017,10 @@
         <v>4.0</v>
       </c>
       <c r="E39" t="n" s="305">
+        <v>4.0</v>
+      </c>
+      <c r="F39" t="n" s="306">
         <v>3.0</v>
-      </c>
-      <c r="F39" t="n" s="306">
-        <v>4.0</v>
       </c>
       <c r="G39" t="n" s="307">
         <v>4.0</v>
@@ -10032,16 +10032,16 @@
         <v>38.0</v>
       </c>
       <c r="J39" t="n" s="310">
-        <v>0.11670024785089171</v>
+        <v>0.08661672804234492</v>
       </c>
       <c r="K39" t="n" s="311">
-        <v>-2.9714773489711117</v>
+        <v>-3.3064597184396325</v>
       </c>
       <c r="L39" t="n" s="312">
-        <v>0.11892248856482703</v>
+        <v>0.08486446120088495</v>
       </c>
       <c r="M39" t="n" s="313">
-        <v>-2.9354603789611566</v>
+        <v>-3.3164312148551174</v>
       </c>
     </row>
     <row r="40">
@@ -10073,16 +10073,16 @@
         <v>39.0</v>
       </c>
       <c r="J40" t="n" s="310">
-        <v>0.8523307702426892</v>
+        <v>0.6878319395120807</v>
       </c>
       <c r="K40" t="n" s="311">
-        <v>0.09370769002874585</v>
+        <v>-0.1968552486846411</v>
       </c>
       <c r="L40" t="n" s="312">
-        <v>1.3313810487903093</v>
+        <v>0.9226539696799774</v>
       </c>
       <c r="M40" t="n" s="313">
-        <v>0.6469388276982861</v>
+        <v>0.12866991596073124</v>
       </c>
     </row>
     <row r="41">
@@ -10099,10 +10099,10 @@
         <v>7.0</v>
       </c>
       <c r="E41" t="n" s="305">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F41" t="n" s="306">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G41" t="n" s="307">
         <v>5.0</v>
@@ -10114,16 +10114,16 @@
         <v>40.0</v>
       </c>
       <c r="J41" t="n" s="310">
-        <v>1.66495920644543</v>
+        <v>1.5542479852265714</v>
       </c>
       <c r="K41" t="n" s="311">
-        <v>1.0259930448143282</v>
+        <v>0.9076831666140617</v>
       </c>
       <c r="L41" t="n" s="312">
-        <v>1.687807040379466</v>
+        <v>1.4884329209767688</v>
       </c>
       <c r="M41" t="n" s="313">
-        <v>1.110825354285239</v>
+        <v>0.8679624756001695</v>
       </c>
     </row>
     <row r="42">
@@ -10155,16 +10155,16 @@
         <v>41.0</v>
       </c>
       <c r="J42" t="n" s="310">
-        <v>0.9088297481480009</v>
+        <v>0.8911398353018273</v>
       </c>
       <c r="K42" t="n" s="311">
-        <v>0.03294535765211987</v>
+        <v>-0.004686003379400339</v>
       </c>
       <c r="L42" t="n" s="312">
-        <v>0.9752063870411556</v>
+        <v>0.9158144331245587</v>
       </c>
       <c r="M42" t="n" s="313">
-        <v>0.13929675898317329</v>
+        <v>0.023703117478567542</v>
       </c>
     </row>
     <row r="43">
@@ -10178,10 +10178,10 @@
         <v>5.0</v>
       </c>
       <c r="D43" t="n" s="304">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E43" t="n" s="305">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F43" t="n" s="306">
         <v>5.0</v>
@@ -10196,16 +10196,16 @@
         <v>42.0</v>
       </c>
       <c r="J43" t="n" s="310">
-        <v>0.4890041842216864</v>
+        <v>0.41794093814097083</v>
       </c>
       <c r="K43" t="n" s="311">
-        <v>-1.07240066052939</v>
+        <v>-1.3939805134667334</v>
       </c>
       <c r="L43" t="n" s="312">
-        <v>0.450712151293374</v>
+        <v>0.4096875579716306</v>
       </c>
       <c r="M43" t="n" s="313">
-        <v>-1.192129327459393</v>
+        <v>-1.4308437019396436</v>
       </c>
     </row>
     <row r="44">
@@ -10219,10 +10219,10 @@
         <v>1.0</v>
       </c>
       <c r="D44" t="n" s="304">
+        <v>4.0</v>
+      </c>
+      <c r="E44" t="n" s="305">
         <v>5.0</v>
-      </c>
-      <c r="E44" t="n" s="305">
-        <v>4.0</v>
       </c>
       <c r="F44" t="n" s="306">
         <v>4.0</v>
@@ -10237,16 +10237,16 @@
         <v>43.0</v>
       </c>
       <c r="J44" t="n" s="310">
-        <v>1.4374413137831008</v>
+        <v>1.239179917751294</v>
       </c>
       <c r="K44" t="n" s="311">
-        <v>0.9532634505036721</v>
+        <v>0.6228287043011359</v>
       </c>
       <c r="L44" t="n" s="312">
-        <v>1.4621221377040632</v>
+        <v>1.237933200776661</v>
       </c>
       <c r="M44" t="n" s="313">
-        <v>0.9898448906816699</v>
+        <v>0.6199950092269425</v>
       </c>
     </row>
     <row r="45">
@@ -10260,7 +10260,7 @@
         <v>7.0</v>
       </c>
       <c r="D45" t="n" s="304">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E45" t="n" s="305">
         <v>7.0</v>
@@ -10278,16 +10278,16 @@
         <v>44.0</v>
       </c>
       <c r="J45" t="n" s="310">
-        <v>0.07351160388766606</v>
+        <v>2.0588189047023517</v>
       </c>
       <c r="K45" t="n" s="311">
-        <v>-0.4807905267663757</v>
+        <v>1.2366032370588689</v>
       </c>
       <c r="L45" t="n" s="312">
-        <v>0.0893327786946946</v>
+        <v>1.8999051307792914</v>
       </c>
       <c r="M45" t="n" s="313">
-        <v>-0.5137179371748952</v>
+        <v>1.1564122806028867</v>
       </c>
     </row>
     <row r="46">
@@ -10301,13 +10301,13 @@
         <v>6.0</v>
       </c>
       <c r="D46" t="n" s="304">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E46" t="n" s="305">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F46" t="n" s="306">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G46" t="n" s="307">
         <v>4.0</v>
@@ -10319,16 +10319,16 @@
         <v>45.0</v>
       </c>
       <c r="J46" t="n" s="310">
-        <v>1.2402608198967544</v>
+        <v>0.930474209190316</v>
       </c>
       <c r="K46" t="n" s="311">
-        <v>0.6174247935468541</v>
+        <v>0.007177515788697575</v>
       </c>
       <c r="L46" t="n" s="312">
-        <v>1.2313248748671415</v>
+        <v>0.9055941147974668</v>
       </c>
       <c r="M46" t="n" s="313">
-        <v>0.5987873485478199</v>
+        <v>-0.04740971038176023</v>
       </c>
     </row>
     <row r="47">
@@ -10342,13 +10342,13 @@
         <v>6.0</v>
       </c>
       <c r="D47" t="n" s="304">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E47" t="n" s="305">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F47" t="n" s="306">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G47" t="n" s="307">
         <v>5.0</v>
@@ -10360,16 +10360,16 @@
         <v>46.0</v>
       </c>
       <c r="J47" t="n" s="310">
-        <v>0.7248450698499334</v>
+        <v>0.524500267697661</v>
       </c>
       <c r="K47" t="n" s="311">
-        <v>-0.2494647082785849</v>
+        <v>-0.74803823603786</v>
       </c>
       <c r="L47" t="n" s="312">
-        <v>0.5018159596352821</v>
+        <v>0.37591809745142385</v>
       </c>
       <c r="M47" t="n" s="313">
-        <v>-0.8293519004946245</v>
+        <v>-1.2659470238719428</v>
       </c>
     </row>
     <row r="48">
@@ -10383,7 +10383,7 @@
         <v>7.0</v>
       </c>
       <c r="D48" t="n" s="304">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E48" t="n" s="305">
         <v>1.0</v>
@@ -10401,16 +10401,16 @@
         <v>47.0</v>
       </c>
       <c r="J48" t="n" s="310">
-        <v>2.9984356565290864</v>
+        <v>1.875912683621505</v>
       </c>
       <c r="K48" t="n" s="311">
-        <v>2.8131232643187034</v>
+        <v>1.606037263136526</v>
       </c>
       <c r="L48" t="n" s="312">
-        <v>3.2517672770369903</v>
+        <v>1.9565725589786964</v>
       </c>
       <c r="M48" t="n" s="313">
-        <v>3.049404803665919</v>
+        <v>1.7100748305146352</v>
       </c>
     </row>
     <row r="49">
@@ -10424,13 +10424,13 @@
         <v>2.0</v>
       </c>
       <c r="D49" t="n" s="304">
+        <v>4.0</v>
+      </c>
+      <c r="E49" t="n" s="305">
         <v>3.0</v>
       </c>
-      <c r="E49" t="n" s="305">
+      <c r="F49" t="n" s="306">
         <v>2.0</v>
-      </c>
-      <c r="F49" t="n" s="306">
-        <v>4.0</v>
       </c>
       <c r="G49" t="n" s="307">
         <v>6.0</v>
@@ -10442,16 +10442,16 @@
         <v>48.0</v>
       </c>
       <c r="J49" t="n" s="310">
-        <v>0.6433039989721265</v>
+        <v>0.706198643065056</v>
       </c>
       <c r="K49" t="n" s="311">
-        <v>-0.6402157151178063</v>
+        <v>-0.49114658831272495</v>
       </c>
       <c r="L49" t="n" s="312">
-        <v>0.6867376939412506</v>
+        <v>0.7446448793666052</v>
       </c>
       <c r="M49" t="n" s="313">
-        <v>-0.533512488366642</v>
+        <v>-0.3972713106282685</v>
       </c>
     </row>
     <row r="50">
@@ -10465,13 +10465,13 @@
         <v>6.0</v>
       </c>
       <c r="D50" t="n" s="304">
+        <v>4.0</v>
+      </c>
+      <c r="E50" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="E50" t="n" s="305">
+      <c r="F50" t="n" s="306">
         <v>3.0</v>
-      </c>
-      <c r="F50" t="n" s="306">
-        <v>4.0</v>
       </c>
       <c r="G50" t="n" s="307">
         <v>6.0</v>
@@ -10483,16 +10483,16 @@
         <v>49.0</v>
       </c>
       <c r="J50" t="n" s="310">
-        <v>0.5352010914708919</v>
+        <v>0.2839111717898553</v>
       </c>
       <c r="K50" t="n" s="311">
-        <v>-0.9954785368359674</v>
+        <v>-2.016744719204687</v>
       </c>
       <c r="L50" t="n" s="312">
-        <v>0.5154952008438507</v>
+        <v>0.2908893423322253</v>
       </c>
       <c r="M50" t="n" s="313">
-        <v>-1.0468114503415036</v>
+        <v>-1.9750027091618685</v>
       </c>
     </row>
     <row r="51">
@@ -10506,10 +10506,10 @@
         <v>4.0</v>
       </c>
       <c r="D51" t="n" s="304">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E51" t="n" s="305">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F51" t="n" s="306">
         <v>5.0</v>
@@ -10524,16 +10524,16 @@
         <v>50.0</v>
       </c>
       <c r="J51" t="n" s="310">
-        <v>0.33075800117549575</v>
+        <v>0.2888165546245876</v>
       </c>
       <c r="K51" t="n" s="311">
-        <v>-1.7414527286032895</v>
+        <v>-1.9920500139964938</v>
       </c>
       <c r="L51" t="n" s="312">
-        <v>0.34191129450272517</v>
+        <v>0.29583761077475784</v>
       </c>
       <c r="M51" t="n" s="313">
-        <v>-1.6820005397728817</v>
+        <v>-1.9515295227626002</v>
       </c>
     </row>
     <row r="52">
@@ -10547,13 +10547,13 @@
         <v>5.0</v>
       </c>
       <c r="D52" t="n" s="304">
+        <v>7.0</v>
+      </c>
+      <c r="E52" t="n" s="305">
         <v>3.0</v>
       </c>
-      <c r="E52" t="n" s="305">
-        <v>4.0</v>
-      </c>
       <c r="F52" t="n" s="306">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G52" t="n" s="307">
         <v>3.0</v>
@@ -10565,16 +10565,16 @@
         <v>51.0</v>
       </c>
       <c r="J52" t="n" s="310">
-        <v>1.4066497209277462</v>
+        <v>1.4503019769463634</v>
       </c>
       <c r="K52" t="n" s="311">
-        <v>0.9039846038938145</v>
+        <v>0.9945736757138587</v>
       </c>
       <c r="L52" t="n" s="312">
-        <v>1.3383545077499455</v>
+        <v>1.3761618065335606</v>
       </c>
       <c r="M52" t="n" s="313">
-        <v>0.7868803909578257</v>
+        <v>0.8681709562445957</v>
       </c>
     </row>
     <row r="53">
@@ -10591,10 +10591,10 @@
         <v>7.0</v>
       </c>
       <c r="E53" t="n" s="305">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F53" t="n" s="306">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G53" t="n" s="307">
         <v>7.0</v>
@@ -10606,16 +10606,16 @@
         <v>52.0</v>
       </c>
       <c r="J53" t="n" s="310">
-        <v>0.5732489126439709</v>
+        <v>0.4446498407991603</v>
       </c>
       <c r="K53" t="n" s="311">
-        <v>-0.14517273123670416</v>
+        <v>-0.40313020464608684</v>
       </c>
       <c r="L53" t="n" s="312">
-        <v>0.6383259217254633</v>
+        <v>0.4766659148846013</v>
       </c>
       <c r="M53" t="n" s="313">
-        <v>-0.09270938342541585</v>
+        <v>-0.39203110458479046</v>
       </c>
     </row>
     <row r="54">
@@ -10629,13 +10629,13 @@
         <v>5.0</v>
       </c>
       <c r="D54" t="n" s="304">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E54" t="n" s="305">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F54" t="n" s="306">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G54" t="n" s="307">
         <v>7.0</v>
@@ -10647,16 +10647,16 @@
         <v>53.0</v>
       </c>
       <c r="J54" t="n" s="310">
-        <v>0.25877457388206426</v>
+        <v>0.35492660347191035</v>
       </c>
       <c r="K54" t="n" s="311">
-        <v>-1.904163699805425</v>
+        <v>-1.6384371047126247</v>
       </c>
       <c r="L54" t="n" s="312">
-        <v>0.25060951890947386</v>
+        <v>0.33380402920567065</v>
       </c>
       <c r="M54" t="n" s="313">
-        <v>-1.9568719116598141</v>
+        <v>-1.734232351823537</v>
       </c>
     </row>
     <row r="55">
@@ -10673,10 +10673,10 @@
         <v>5.0</v>
       </c>
       <c r="E55" t="n" s="305">
+        <v>5.0</v>
+      </c>
+      <c r="F55" t="n" s="306">
         <v>2.0</v>
-      </c>
-      <c r="F55" t="n" s="306">
-        <v>5.0</v>
       </c>
       <c r="G55" t="n" s="307">
         <v>3.0</v>
@@ -10688,16 +10688,16 @@
         <v>54.0</v>
       </c>
       <c r="J55" t="n" s="310">
-        <v>1.1504979201486452</v>
+        <v>1.1421152529518748</v>
       </c>
       <c r="K55" t="n" s="311">
-        <v>0.4564042912331703</v>
+        <v>0.442449570420579</v>
       </c>
       <c r="L55" t="n" s="312">
-        <v>1.1914625422845089</v>
+        <v>1.1750771646995868</v>
       </c>
       <c r="M55" t="n" s="313">
-        <v>0.5306890331382113</v>
+        <v>0.5039568646706052</v>
       </c>
     </row>
     <row r="56">
@@ -10711,13 +10711,13 @@
         <v>2.0</v>
       </c>
       <c r="D56" t="n" s="304">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E56" t="n" s="305">
+        <v>4.0</v>
+      </c>
+      <c r="F56" t="n" s="306">
         <v>2.0</v>
-      </c>
-      <c r="F56" t="n" s="306">
-        <v>4.0</v>
       </c>
       <c r="G56" t="n" s="307">
         <v>5.0</v>
@@ -10729,16 +10729,16 @@
         <v>55.0</v>
       </c>
       <c r="J56" t="n" s="310">
-        <v>1.0910680339516379</v>
+        <v>0.944834434232246</v>
       </c>
       <c r="K56" t="n" s="311">
-        <v>0.3439373456536704</v>
+        <v>0.04316330663948685</v>
       </c>
       <c r="L56" t="n" s="312">
-        <v>1.1045938867212939</v>
+        <v>0.9409930681540265</v>
       </c>
       <c r="M56" t="n" s="313">
-        <v>0.3698886334600327</v>
+        <v>0.035405033952882387</v>
       </c>
     </row>
     <row r="57">
@@ -10752,13 +10752,13 @@
         <v>7.0</v>
       </c>
       <c r="D57" t="n" s="304">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E57" t="n" s="305">
         <v>6.0</v>
       </c>
       <c r="F57" t="n" s="306">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G57" t="n" s="307">
         <v>6.0</v>
@@ -10770,16 +10770,16 @@
         <v>56.0</v>
       </c>
       <c r="J57" t="n" s="310">
-        <v>0.3924086326507354</v>
+        <v>0.774095777213059</v>
       </c>
       <c r="K57" t="n" s="311">
-        <v>-1.184137619822414</v>
+        <v>-0.3298217818519882</v>
       </c>
       <c r="L57" t="n" s="312">
-        <v>0.40463973737209097</v>
+        <v>0.8009617256998662</v>
       </c>
       <c r="M57" t="n" s="313">
-        <v>-1.226876196357292</v>
+        <v>-0.27190184300224685</v>
       </c>
     </row>
     <row r="58">
@@ -10793,13 +10793,13 @@
         <v>3.0</v>
       </c>
       <c r="D58" t="n" s="304">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E58" t="n" s="305">
+        <v>4.0</v>
+      </c>
+      <c r="F58" t="n" s="306">
         <v>1.0</v>
-      </c>
-      <c r="F58" t="n" s="306">
-        <v>3.0</v>
       </c>
       <c r="G58" t="n" s="307">
         <v>6.0</v>
@@ -10811,16 +10811,16 @@
         <v>57.0</v>
       </c>
       <c r="J58" t="n" s="310">
-        <v>0.8000451650023616</v>
+        <v>0.5646765097055637</v>
       </c>
       <c r="K58" t="n" s="311">
-        <v>-0.2738696912682026</v>
+        <v>-0.9124445492446579</v>
       </c>
       <c r="L58" t="n" s="312">
-        <v>0.7998252418148235</v>
+        <v>0.5582826484622871</v>
       </c>
       <c r="M58" t="n" s="313">
-        <v>-0.2709034226306706</v>
+        <v>-0.928335415494903</v>
       </c>
     </row>
   </sheetData>
@@ -10912,7 +10912,7 @@
         <v>6.0</v>
       </c>
       <c r="D2" t="n" s="323">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="n" s="324">
         <v>6.0</v>
@@ -10927,25 +10927,25 @@
         <v>6.0</v>
       </c>
       <c r="I2" t="n" s="328">
-        <v>1.0</v>
+        <v>10169.0</v>
       </c>
       <c r="J2" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K2" t="n" s="330">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="L2" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M2" t="n" s="332">
-        <v>0.19906040175306347</v>
+        <v>-0.030134652851286192</v>
       </c>
       <c r="N2" t="n" s="333">
-        <v>0.3354194480998605</v>
+        <v>0.27830827755994264</v>
       </c>
       <c r="O2" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="3">
@@ -10959,13 +10959,13 @@
         <v>7.0</v>
       </c>
       <c r="D3" t="n" s="323">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E3" t="n" s="324">
         <v>6.0</v>
       </c>
       <c r="F3" t="n" s="325">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G3" t="n" s="326">
         <v>6.0</v>
@@ -10974,7 +10974,7 @@
         <v>7.0</v>
       </c>
       <c r="I3" t="n" s="328">
-        <v>2.0</v>
+        <v>10170.0</v>
       </c>
       <c r="J3" t="n" s="329">
         <v>7.0</v>
@@ -10986,13 +10986,13 @@
         <v>49.0</v>
       </c>
       <c r="M3" t="n" s="332">
-        <v>1.1097608234636356</v>
+        <v>0.8943229165850428</v>
       </c>
       <c r="N3" t="n" s="333">
-        <v>0.5024427743178256</v>
+        <v>0.4194463130048942</v>
       </c>
       <c r="O3" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="4">
@@ -11006,13 +11006,13 @@
         <v>7.0</v>
       </c>
       <c r="D4" t="n" s="323">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="n" s="324">
+        <v>7.0</v>
+      </c>
+      <c r="F4" t="n" s="325">
         <v>5.0</v>
-      </c>
-      <c r="F4" t="n" s="325">
-        <v>6.0</v>
       </c>
       <c r="G4" t="n" s="326">
         <v>7.0</v>
@@ -11021,7 +11021,7 @@
         <v>2.0</v>
       </c>
       <c r="I4" t="n" s="328">
-        <v>3.0</v>
+        <v>10171.0</v>
       </c>
       <c r="J4" t="n" s="329">
         <v>7.0</v>
@@ -11033,13 +11033,13 @@
         <v>49.0</v>
       </c>
       <c r="M4" t="n" s="332">
-        <v>0.19906040175306347</v>
+        <v>0.29679621060207495</v>
       </c>
       <c r="N4" t="n" s="333">
-        <v>0.3354194480998605</v>
+        <v>0.30875086550777675</v>
       </c>
       <c r="O4" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="5">
@@ -11053,10 +11053,10 @@
         <v>3.0</v>
       </c>
       <c r="D5" t="n" s="323">
+        <v>6.0</v>
+      </c>
+      <c r="E5" t="n" s="324">
         <v>5.0</v>
-      </c>
-      <c r="E5" t="n" s="324">
-        <v>6.0</v>
       </c>
       <c r="F5" t="n" s="325">
         <v>6.0</v>
@@ -11068,7 +11068,7 @@
         <v>5.0</v>
       </c>
       <c r="I5" t="n" s="328">
-        <v>4.0</v>
+        <v>10172.0</v>
       </c>
       <c r="J5" t="n" s="329">
         <v>7.0</v>
@@ -11080,13 +11080,13 @@
         <v>49.0</v>
       </c>
       <c r="M5" t="n" s="332">
-        <v>-0.3652218632470007</v>
+        <v>-0.17501744571855538</v>
       </c>
       <c r="N5" t="n" s="333">
-        <v>0.2935010858348632</v>
+        <v>0.27021175099773365</v>
       </c>
       <c r="O5" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="6">
@@ -11100,13 +11100,13 @@
         <v>4.0</v>
       </c>
       <c r="D6" t="n" s="323">
+        <v>4.0</v>
+      </c>
+      <c r="E6" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="E6" t="n" s="324">
-        <v>4.0</v>
-      </c>
       <c r="F6" t="n" s="325">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="G6" t="n" s="326">
         <v>5.0</v>
@@ -11115,25 +11115,25 @@
         <v>4.0</v>
       </c>
       <c r="I6" t="n" s="328">
-        <v>5.0</v>
+        <v>10174.0</v>
       </c>
       <c r="J6" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K6" t="n" s="330">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="L6" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M6" t="n" s="332">
-        <v>-0.6093423353637321</v>
+        <v>-0.4482465434111011</v>
       </c>
       <c r="N6" t="n" s="333">
-        <v>0.285113988309875</v>
+        <v>0.26256753375520664</v>
       </c>
       <c r="O6" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="7">
@@ -11162,7 +11162,7 @@
         <v>6.0</v>
       </c>
       <c r="I7" t="n" s="328">
-        <v>6.0</v>
+        <v>10175.0</v>
       </c>
       <c r="J7" t="n" s="329">
         <v>7.0</v>
@@ -11174,13 +11174,13 @@
         <v>49.0</v>
       </c>
       <c r="M7" t="n" s="332">
-        <v>1.8531126557363564</v>
+        <v>2.0054504926416876</v>
       </c>
       <c r="N7" t="n" s="333">
-        <v>0.767290229949281</v>
+        <v>0.8528449155057629</v>
       </c>
       <c r="O7" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="8">
@@ -11197,7 +11197,7 @@
         <v>7.0</v>
       </c>
       <c r="E8" t="n" s="324">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F8" t="n" s="325">
         <v>6.0</v>
@@ -11209,25 +11209,25 @@
         <v>2.0</v>
       </c>
       <c r="I8" t="n" s="328">
-        <v>7.0</v>
+        <v>10176.0</v>
       </c>
       <c r="J8" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K8" t="n" s="330">
-        <v>36.0</v>
+        <v>37.0</v>
       </c>
       <c r="L8" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M8" t="n" s="332">
-        <v>-0.19220442866067328</v>
+        <v>0.04589615724245862</v>
       </c>
       <c r="N8" t="n" s="333">
-        <v>0.30280829417972954</v>
+        <v>0.28380551974698776</v>
       </c>
       <c r="O8" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="9">
@@ -11241,13 +11241,13 @@
         <v>5.0</v>
       </c>
       <c r="D9" t="n" s="323">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E9" t="n" s="324">
+        <v>7.0</v>
+      </c>
+      <c r="F9" t="n" s="325">
         <v>5.0</v>
-      </c>
-      <c r="F9" t="n" s="325">
-        <v>7.0</v>
       </c>
       <c r="G9" t="n" s="326">
         <v>5.0</v>
@@ -11256,25 +11256,25 @@
         <v>5.0</v>
       </c>
       <c r="I9" t="n" s="328">
-        <v>8.0</v>
+        <v>10178.0</v>
       </c>
       <c r="J9" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K9" t="n" s="330">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
       <c r="L9" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M9" t="n" s="332">
-        <v>-0.006184121442619049</v>
+        <v>0.04589615724245862</v>
       </c>
       <c r="N9" t="n" s="333">
-        <v>0.31615882871908274</v>
+        <v>0.28380551974698776</v>
       </c>
       <c r="O9" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="10">
@@ -11288,13 +11288,13 @@
         <v>3.0</v>
       </c>
       <c r="D10" t="n" s="323">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E10" t="n" s="324">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="n" s="325">
         <v>3.0</v>
-      </c>
-      <c r="F10" t="n" s="325">
-        <v>4.0</v>
       </c>
       <c r="G10" t="n" s="326">
         <v>5.0</v>
@@ -11303,25 +11303,25 @@
         <v>3.0</v>
       </c>
       <c r="I10" t="n" s="328">
-        <v>9.0</v>
+        <v>10179.0</v>
       </c>
       <c r="J10" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K10" t="n" s="330">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="L10" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M10" t="n" s="332">
-        <v>-1.157208106894782</v>
+        <v>-0.9227598848005457</v>
       </c>
       <c r="N10" t="n" s="333">
-        <v>0.28539861943432493</v>
+        <v>0.2698144036735994</v>
       </c>
       <c r="O10" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="11">
@@ -11335,11 +11335,11 @@
         <v>2.0</v>
       </c>
       <c r="D11" t="n" s="323">
+        <v>7.0</v>
+      </c>
+      <c r="E11" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="E11" t="n" s="324">
-        <v>6.0</v>
-      </c>
       <c r="F11" t="n" s="325">
         <v>6.0</v>
       </c>
@@ -11350,25 +11350,25 @@
         <v>4.0</v>
       </c>
       <c r="I11" t="n" s="328">
-        <v>10.0</v>
+        <v>10181.0</v>
       </c>
       <c r="J11" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K11" t="n" s="330">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="L11" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M11" t="n" s="332">
-        <v>-0.28004314207336306</v>
+        <v>-0.030134652851286192</v>
       </c>
       <c r="N11" t="n" s="333">
-        <v>0.29772421744152633</v>
+        <v>0.27830827755994264</v>
       </c>
       <c r="O11" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="12">
@@ -11382,10 +11382,10 @@
         <v>5.0</v>
       </c>
       <c r="D12" t="n" s="323">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E12" t="n" s="324">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="F12" t="n" s="325">
         <v>6.0</v>
@@ -11397,7 +11397,7 @@
         <v>4.0</v>
       </c>
       <c r="I12" t="n" s="328">
-        <v>11.0</v>
+        <v>10183.0</v>
       </c>
       <c r="J12" t="n" s="329">
         <v>7.0</v>
@@ -11409,13 +11409,13 @@
         <v>49.0</v>
       </c>
       <c r="M12" t="n" s="332">
-        <v>-0.19220442866067328</v>
+        <v>-0.030134652851286192</v>
       </c>
       <c r="N12" t="n" s="333">
-        <v>0.30280829417972954</v>
+        <v>0.27830827755994264</v>
       </c>
       <c r="O12" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="13">
@@ -11432,10 +11432,10 @@
         <v>7.0</v>
       </c>
       <c r="E13" t="n" s="324">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F13" t="n" s="325">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G13" t="n" s="326">
         <v>6.0</v>
@@ -11444,7 +11444,7 @@
         <v>4.0</v>
       </c>
       <c r="I13" t="n" s="328">
-        <v>12.0</v>
+        <v>10184.0</v>
       </c>
       <c r="J13" t="n" s="329">
         <v>7.0</v>
@@ -11456,13 +11456,13 @@
         <v>49.0</v>
       </c>
       <c r="M13" t="n" s="332">
-        <v>-0.006184121442619049</v>
+        <v>0.12514384361559897</v>
       </c>
       <c r="N13" t="n" s="333">
-        <v>0.31615882871908274</v>
+        <v>0.2905154401851064</v>
       </c>
       <c r="O13" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="14">
@@ -11479,7 +11479,7 @@
         <v>5.0</v>
       </c>
       <c r="E14" t="n" s="324">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="F14" t="n" s="325">
         <v>4.0</v>
@@ -11491,25 +11491,25 @@
         <v>4.0</v>
       </c>
       <c r="I14" t="n" s="328">
-        <v>13.0</v>
+        <v>10185.0</v>
       </c>
       <c r="J14" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K14" t="n" s="330">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="L14" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M14" t="n" s="332">
-        <v>-0.7663577677319084</v>
+        <v>-0.4482465434111011</v>
       </c>
       <c r="N14" t="n" s="333">
-        <v>0.28255225426818664</v>
+        <v>0.26256753375520664</v>
       </c>
       <c r="O14" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="15">
@@ -11523,7 +11523,7 @@
         <v>4.0</v>
       </c>
       <c r="D15" t="n" s="323">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E15" t="n" s="324">
         <v>7.0</v>
@@ -11538,25 +11538,25 @@
         <v>5.0</v>
       </c>
       <c r="I15" t="n" s="328">
-        <v>14.0</v>
+        <v>10186.0</v>
       </c>
       <c r="J15" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K15" t="n" s="330">
-        <v>43.0</v>
+        <v>40.0</v>
       </c>
       <c r="L15" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M15" t="n" s="332">
-        <v>0.5687785510330149</v>
+        <v>0.29679621060207495</v>
       </c>
       <c r="N15" t="n" s="333">
-        <v>0.38493365215914266</v>
+        <v>0.30875086550777675</v>
       </c>
       <c r="O15" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="16">
@@ -11570,13 +11570,13 @@
         <v>5.0</v>
       </c>
       <c r="D16" t="n" s="323">
+        <v>7.0</v>
+      </c>
+      <c r="E16" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="E16" t="n" s="324">
-        <v>4.0</v>
-      </c>
       <c r="F16" t="n" s="325">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G16" t="n" s="326">
         <v>7.0</v>
@@ -11585,7 +11585,7 @@
         <v>7.0</v>
       </c>
       <c r="I16" t="n" s="328">
-        <v>15.0</v>
+        <v>10187.0</v>
       </c>
       <c r="J16" t="n" s="329">
         <v>7.0</v>
@@ -11597,13 +11597,13 @@
         <v>49.0</v>
       </c>
       <c r="M16" t="n" s="332">
-        <v>0.4341358874662202</v>
+        <v>0.4950446217326467</v>
       </c>
       <c r="N16" t="n" s="333">
-        <v>0.364412310682387</v>
+        <v>0.3367836138386369</v>
       </c>
       <c r="O16" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="17">
@@ -11632,7 +11632,7 @@
         <v>4.0</v>
       </c>
       <c r="I17" t="n" s="328">
-        <v>16.0</v>
+        <v>10188.0</v>
       </c>
       <c r="J17" t="n" s="329">
         <v>7.0</v>
@@ -11644,13 +11644,13 @@
         <v>49.0</v>
       </c>
       <c r="M17" t="n" s="332">
-        <v>-0.6093423353637321</v>
+        <v>-0.38114058227050224</v>
       </c>
       <c r="N17" t="n" s="333">
-        <v>0.285113988309875</v>
+        <v>0.2635865062093852</v>
       </c>
       <c r="O17" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="18">
@@ -11664,13 +11664,13 @@
         <v>5.0</v>
       </c>
       <c r="D18" t="n" s="323">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E18" t="n" s="324">
+        <v>7.0</v>
+      </c>
+      <c r="F18" t="n" s="325">
         <v>3.0</v>
-      </c>
-      <c r="F18" t="n" s="325">
-        <v>6.0</v>
       </c>
       <c r="G18" t="n" s="326">
         <v>7.0</v>
@@ -11679,7 +11679,7 @@
         <v>2.0</v>
       </c>
       <c r="I18" t="n" s="328">
-        <v>17.0</v>
+        <v>10189.0</v>
       </c>
       <c r="J18" t="n" s="329">
         <v>7.0</v>
@@ -11691,13 +11691,13 @@
         <v>49.0</v>
       </c>
       <c r="M18" t="n" s="332">
-        <v>-0.3652218632470007</v>
+        <v>-0.17501744571855538</v>
       </c>
       <c r="N18" t="n" s="333">
-        <v>0.2935010858348632</v>
+        <v>0.27021175099773365</v>
       </c>
       <c r="O18" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="19">
@@ -11711,13 +11711,13 @@
         <v>7.0</v>
       </c>
       <c r="D19" t="n" s="323">
+        <v>7.0</v>
+      </c>
+      <c r="E19" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="E19" t="n" s="324">
-        <v>7.0</v>
-      </c>
       <c r="F19" t="n" s="325">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G19" t="n" s="326">
         <v>5.0</v>
@@ -11726,25 +11726,25 @@
         <v>4.0</v>
       </c>
       <c r="I19" t="n" s="328">
-        <v>18.0</v>
+        <v>10190.0</v>
       </c>
       <c r="J19" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K19" t="n" s="330">
-        <v>38.0</v>
+        <v>39.0</v>
       </c>
       <c r="L19" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M19" t="n" s="332">
-        <v>-0.006184121442619049</v>
+        <v>0.20842448364859056</v>
       </c>
       <c r="N19" t="n" s="333">
-        <v>0.31615882871908274</v>
+        <v>0.2987063559002963</v>
       </c>
       <c r="O19" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="20">
@@ -11758,14 +11758,14 @@
         <v>6.0</v>
       </c>
       <c r="D20" t="n" s="323">
+        <v>6.0</v>
+      </c>
+      <c r="E20" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="E20" t="n" s="324">
+      <c r="F20" t="n" s="325">
         <v>2.0</v>
       </c>
-      <c r="F20" t="n" s="325">
-        <v>7.0</v>
-      </c>
       <c r="G20" t="n" s="326">
         <v>7.0</v>
       </c>
@@ -11773,25 +11773,25 @@
         <v>4.0</v>
       </c>
       <c r="I20" t="n" s="328">
-        <v>19.0</v>
+        <v>10191.0</v>
       </c>
       <c r="J20" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K20" t="n" s="330">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="L20" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M20" t="n" s="332">
-        <v>-0.10114378974006533</v>
+        <v>-0.030134652851286192</v>
       </c>
       <c r="N20" t="n" s="333">
-        <v>0.3088902806737149</v>
+        <v>0.27830827755994264</v>
       </c>
       <c r="O20" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="21">
@@ -11805,13 +11805,13 @@
         <v>7.0</v>
       </c>
       <c r="D21" t="n" s="323">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n" s="324">
+        <v>7.0</v>
+      </c>
+      <c r="F21" t="n" s="325">
         <v>1.0</v>
-      </c>
-      <c r="F21" t="n" s="325">
-        <v>7.0</v>
       </c>
       <c r="G21" t="n" s="326">
         <v>2.0</v>
@@ -11820,25 +11820,25 @@
         <v>4.0</v>
       </c>
       <c r="I21" t="n" s="328">
-        <v>20.0</v>
+        <v>10192.0</v>
       </c>
       <c r="J21" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K21" t="n" s="330">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="L21" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M21" t="n" s="332">
-        <v>-0.3652218632470007</v>
+        <v>-0.5817287332334116</v>
       </c>
       <c r="N21" t="n" s="333">
-        <v>0.2935010858348632</v>
+        <v>0.2620907084035711</v>
       </c>
       <c r="O21" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="22">
@@ -11852,13 +11852,13 @@
         <v>4.0</v>
       </c>
       <c r="D22" t="n" s="323">
+        <v>3.0</v>
+      </c>
+      <c r="E22" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="E22" t="n" s="324">
+      <c r="F22" t="n" s="325">
         <v>3.0</v>
-      </c>
-      <c r="F22" t="n" s="325">
-        <v>5.0</v>
       </c>
       <c r="G22" t="n" s="326">
         <v>6.0</v>
@@ -11867,25 +11867,25 @@
         <v>5.0</v>
       </c>
       <c r="I22" t="n" s="328">
-        <v>21.0</v>
+        <v>10193.0</v>
       </c>
       <c r="J22" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K22" t="n" s="330">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
       <c r="L22" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M22" t="n" s="332">
-        <v>-0.3652218632470007</v>
+        <v>-0.3134362243049981</v>
       </c>
       <c r="N22" t="n" s="333">
-        <v>0.2935010858348632</v>
+        <v>0.2651660422645224</v>
       </c>
       <c r="O22" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="23">
@@ -11899,10 +11899,10 @@
         <v>4.0</v>
       </c>
       <c r="D23" t="n" s="323">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E23" t="n" s="324">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F23" t="n" s="325">
         <v>4.0</v>
@@ -11914,7 +11914,7 @@
         <v>4.0</v>
       </c>
       <c r="I23" t="n" s="328">
-        <v>22.0</v>
+        <v>10195.0</v>
       </c>
       <c r="J23" t="n" s="329">
         <v>7.0</v>
@@ -11926,13 +11926,13 @@
         <v>49.0</v>
       </c>
       <c r="M23" t="n" s="332">
-        <v>-0.4482220877250118</v>
+        <v>-0.24483839124293222</v>
       </c>
       <c r="N23" t="n" s="333">
-        <v>0.2900383038251237</v>
+        <v>0.26735321034886234</v>
       </c>
       <c r="O23" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="24">
@@ -11946,14 +11946,14 @@
         <v>2.0</v>
       </c>
       <c r="D24" t="n" s="323">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E24" t="n" s="324">
+        <v>4.0</v>
+      </c>
+      <c r="F24" t="n" s="325">
         <v>1.0</v>
       </c>
-      <c r="F24" t="n" s="325">
-        <v>7.0</v>
-      </c>
       <c r="G24" t="n" s="326">
         <v>4.0</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>4.0</v>
       </c>
       <c r="I24" t="n" s="328">
-        <v>23.0</v>
+        <v>10196.0</v>
       </c>
       <c r="J24" t="n" s="329">
         <v>7.0</v>
@@ -11973,13 +11973,13 @@
         <v>49.0</v>
       </c>
       <c r="M24" t="n" s="332">
-        <v>-1.157208106894782</v>
+        <v>-0.8527022915588499</v>
       </c>
       <c r="N24" t="n" s="333">
-        <v>0.28539861943432493</v>
+        <v>0.2671847031339451</v>
       </c>
       <c r="O24" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="25">
@@ -11993,7 +11993,7 @@
         <v>7.0</v>
       </c>
       <c r="D25" t="n" s="323">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E25" t="n" s="324">
         <v>7.0</v>
@@ -12008,25 +12008,25 @@
         <v>6.0</v>
       </c>
       <c r="I25" t="n" s="328">
-        <v>24.0</v>
+        <v>10197.0</v>
       </c>
       <c r="J25" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K25" t="n" s="330">
-        <v>48.0</v>
+        <v>47.0</v>
       </c>
       <c r="L25" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M25" t="n" s="332">
-        <v>1.8531126557363564</v>
+        <v>1.3443366272682065</v>
       </c>
       <c r="N25" t="n" s="333">
-        <v>0.767290229949281</v>
+        <v>0.5591024679315759</v>
       </c>
       <c r="O25" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="26">
@@ -12055,7 +12055,7 @@
         <v>7.0</v>
       </c>
       <c r="I26" t="n" s="328">
-        <v>25.0</v>
+        <v>10198.0</v>
       </c>
       <c r="J26" t="n" s="329">
         <v>7.0</v>
@@ -12067,13 +12067,13 @@
         <v>49.0</v>
       </c>
       <c r="M26" t="n" s="332">
-        <v>2.8916963559076314</v>
+        <v>2.7505208186856596</v>
       </c>
       <c r="N26" t="n" s="333">
-        <v>1.357767267161017</v>
+        <v>1.31352033501373</v>
       </c>
       <c r="O26" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="27">
@@ -12102,7 +12102,7 @@
         <v>7.0</v>
       </c>
       <c r="I27" t="n" s="328">
-        <v>26.0</v>
+        <v>10199.0</v>
       </c>
       <c r="J27" t="n" s="329">
         <v>7.0</v>
@@ -12114,13 +12114,13 @@
         <v>49.0</v>
       </c>
       <c r="M27" t="n" s="332">
-        <v>2.8916963559076314</v>
+        <v>2.7505208186856596</v>
       </c>
       <c r="N27" t="n" s="333">
-        <v>1.357767267161017</v>
+        <v>1.31352033501373</v>
       </c>
       <c r="O27" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="28">
@@ -12134,13 +12134,13 @@
         <v>5.0</v>
       </c>
       <c r="D28" t="n" s="323">
+        <v>6.0</v>
+      </c>
+      <c r="E28" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="E28" t="n" s="324">
-        <v>4.0</v>
-      </c>
       <c r="F28" t="n" s="325">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G28" t="n" s="326">
         <v>6.0</v>
@@ -12149,7 +12149,7 @@
         <v>4.0</v>
       </c>
       <c r="I28" t="n" s="328">
-        <v>27.0</v>
+        <v>10200.0</v>
       </c>
       <c r="J28" t="n" s="329">
         <v>7.0</v>
@@ -12161,13 +12161,13 @@
         <v>49.0</v>
       </c>
       <c r="M28" t="n" s="332">
-        <v>-0.19220442866067328</v>
+        <v>-0.030134652851286192</v>
       </c>
       <c r="N28" t="n" s="333">
-        <v>0.30280829417972954</v>
+        <v>0.27830827755994264</v>
       </c>
       <c r="O28" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="29">
@@ -12181,7 +12181,7 @@
         <v>7.0</v>
       </c>
       <c r="D29" t="n" s="323">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E29" t="n" s="324">
         <v>6.0</v>
@@ -12196,25 +12196,25 @@
         <v>3.0</v>
       </c>
       <c r="I29" t="n" s="328">
-        <v>28.0</v>
+        <v>10201.0</v>
       </c>
       <c r="J29" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K29" t="n" s="330">
-        <v>41.0</v>
+        <v>40.0</v>
       </c>
       <c r="L29" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M29" t="n" s="332">
-        <v>0.3119106368252439</v>
+        <v>0.29679621060207495</v>
       </c>
       <c r="N29" t="n" s="333">
-        <v>0.34832765410694705</v>
+        <v>0.30875086550777675</v>
       </c>
       <c r="O29" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="30">
@@ -12228,10 +12228,10 @@
         <v>4.0</v>
       </c>
       <c r="D30" t="n" s="323">
+        <v>4.0</v>
+      </c>
+      <c r="E30" t="n" s="324">
         <v>3.0</v>
-      </c>
-      <c r="E30" t="n" s="324">
-        <v>4.0</v>
       </c>
       <c r="F30" t="n" s="325">
         <v>4.0</v>
@@ -12243,7 +12243,7 @@
         <v>3.0</v>
       </c>
       <c r="I30" t="n" s="328">
-        <v>29.0</v>
+        <v>10202.0</v>
       </c>
       <c r="J30" t="n" s="329">
         <v>7.0</v>
@@ -12255,13 +12255,13 @@
         <v>49.0</v>
       </c>
       <c r="M30" t="n" s="332">
-        <v>-1.237380384967674</v>
+        <v>-0.9227598848005457</v>
       </c>
       <c r="N30" t="n" s="333">
-        <v>0.2875659858235739</v>
+        <v>0.2698144036735994</v>
       </c>
       <c r="O30" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="31">
@@ -12290,7 +12290,7 @@
         <v>1.0</v>
       </c>
       <c r="I31" t="n" s="328">
-        <v>30.0</v>
+        <v>10203.0</v>
       </c>
       <c r="J31" t="n" s="329">
         <v>7.0</v>
@@ -12302,13 +12302,13 @@
         <v>49.0</v>
       </c>
       <c r="M31" t="n" s="332">
-        <v>0.5687785510330149</v>
+        <v>0.60978673787075</v>
       </c>
       <c r="N31" t="n" s="333">
-        <v>0.38493365215914266</v>
+        <v>0.3567757206868551</v>
       </c>
       <c r="O31" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="32">
@@ -12322,7 +12322,7 @@
         <v>7.0</v>
       </c>
       <c r="D32" t="n" s="323">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E32" t="n" s="324">
         <v>7.0</v>
@@ -12337,25 +12337,25 @@
         <v>7.0</v>
       </c>
       <c r="I32" t="n" s="328">
-        <v>31.0</v>
+        <v>10204.0</v>
       </c>
       <c r="J32" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K32" t="n" s="330">
-        <v>48.0</v>
+        <v>45.0</v>
       </c>
       <c r="L32" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M32" t="n" s="332">
-        <v>1.8531126557363564</v>
+        <v>0.8943229165850428</v>
       </c>
       <c r="N32" t="n" s="333">
-        <v>0.767290229949281</v>
+        <v>0.4194463130048942</v>
       </c>
       <c r="O32" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="33">
@@ -12369,13 +12369,13 @@
         <v>7.0</v>
       </c>
       <c r="D33" t="n" s="323">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="E33" t="n" s="324">
         <v>6.0</v>
       </c>
       <c r="F33" t="n" s="325">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G33" t="n" s="326">
         <v>6.0</v>
@@ -12384,7 +12384,7 @@
         <v>6.0</v>
       </c>
       <c r="I33" t="n" s="328">
-        <v>32.0</v>
+        <v>10206.0</v>
       </c>
       <c r="J33" t="n" s="329">
         <v>7.0</v>
@@ -12396,13 +12396,13 @@
         <v>49.0</v>
       </c>
       <c r="M33" t="n" s="332">
-        <v>1.1097608234636356</v>
+        <v>0.8943229165850428</v>
       </c>
       <c r="N33" t="n" s="333">
-        <v>0.5024427743178256</v>
+        <v>0.4194463130048942</v>
       </c>
       <c r="O33" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="34">
@@ -12416,13 +12416,13 @@
         <v>7.0</v>
       </c>
       <c r="D34" t="n" s="323">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E34" t="n" s="324">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F34" t="n" s="325">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G34" t="n" s="326">
         <v>6.0</v>
@@ -12431,25 +12431,25 @@
         <v>5.0</v>
       </c>
       <c r="I34" t="n" s="328">
-        <v>33.0</v>
+        <v>10208.0</v>
       </c>
       <c r="J34" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K34" t="n" s="330">
-        <v>42.0</v>
+        <v>39.0</v>
       </c>
       <c r="L34" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M34" t="n" s="332">
-        <v>0.4341358874662202</v>
+        <v>0.20842448364859056</v>
       </c>
       <c r="N34" t="n" s="333">
-        <v>0.364412310682387</v>
+        <v>0.2987063559002963</v>
       </c>
       <c r="O34" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="35">
@@ -12466,10 +12466,10 @@
         <v>3.0</v>
       </c>
       <c r="E35" t="n" s="324">
+        <v>3.0</v>
+      </c>
+      <c r="F35" t="n" s="325">
         <v>2.0</v>
-      </c>
-      <c r="F35" t="n" s="325">
-        <v>4.0</v>
       </c>
       <c r="G35" t="n" s="326">
         <v>3.0</v>
@@ -12478,25 +12478,25 @@
         <v>2.0</v>
       </c>
       <c r="I35" t="n" s="328">
-        <v>34.0</v>
+        <v>10210.0</v>
       </c>
       <c r="J35" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K35" t="n" s="330">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="L35" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M35" t="n" s="332">
-        <v>-1.57510530009543</v>
+        <v>-1.3036913410126048</v>
       </c>
       <c r="N35" t="n" s="333">
-        <v>0.30301196160226895</v>
+        <v>0.29450607327850836</v>
       </c>
       <c r="O35" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="36">
@@ -12510,13 +12510,13 @@
         <v>3.0</v>
       </c>
       <c r="D36" t="n" s="323">
+        <v>2.0</v>
+      </c>
+      <c r="E36" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="E36" t="n" s="324">
+      <c r="F36" t="n" s="325">
         <v>2.0</v>
-      </c>
-      <c r="F36" t="n" s="325">
-        <v>5.0</v>
       </c>
       <c r="G36" t="n" s="326">
         <v>6.0</v>
@@ -12525,25 +12525,25 @@
         <v>5.0</v>
       </c>
       <c r="I36" t="n" s="328">
-        <v>35.0</v>
+        <v>10211.0</v>
       </c>
       <c r="J36" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K36" t="n" s="330">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="L36" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M36" t="n" s="332">
-        <v>-0.921826385780218</v>
+        <v>-0.8527022915588499</v>
       </c>
       <c r="N36" t="n" s="333">
-        <v>0.2821368508324268</v>
+        <v>0.2671847031339451</v>
       </c>
       <c r="O36" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="37">
@@ -12557,13 +12557,13 @@
         <v>7.0</v>
       </c>
       <c r="D37" t="n" s="323">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E37" t="n" s="324">
         <v>7.0</v>
       </c>
       <c r="F37" t="n" s="325">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="G37" t="n" s="326">
         <v>7.0</v>
@@ -12572,25 +12572,25 @@
         <v>4.0</v>
       </c>
       <c r="I37" t="n" s="328">
-        <v>36.0</v>
+        <v>10212.0</v>
       </c>
       <c r="J37" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K37" t="n" s="330">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="L37" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M37" t="n" s="332">
-        <v>0.5687785510330149</v>
+        <v>0.4950446217326467</v>
       </c>
       <c r="N37" t="n" s="333">
-        <v>0.38493365215914266</v>
+        <v>0.3367836138386369</v>
       </c>
       <c r="O37" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="38">
@@ -12604,13 +12604,13 @@
         <v>4.0</v>
       </c>
       <c r="D38" t="n" s="323">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E38" t="n" s="324">
+        <v>4.0</v>
+      </c>
+      <c r="F38" t="n" s="325">
         <v>1.0</v>
-      </c>
-      <c r="F38" t="n" s="325">
-        <v>7.0</v>
       </c>
       <c r="G38" t="n" s="326">
         <v>6.0</v>
@@ -12619,7 +12619,7 @@
         <v>2.0</v>
       </c>
       <c r="I38" t="n" s="328">
-        <v>37.0</v>
+        <v>10213.0</v>
       </c>
       <c r="J38" t="n" s="329">
         <v>7.0</v>
@@ -12631,13 +12631,13 @@
         <v>49.0</v>
       </c>
       <c r="M38" t="n" s="332">
-        <v>-0.8441359477715114</v>
+        <v>-0.5817287332334116</v>
       </c>
       <c r="N38" t="n" s="333">
-        <v>0.28208438839027183</v>
+        <v>0.2620907084035711</v>
       </c>
       <c r="O38" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="39">
@@ -12654,10 +12654,10 @@
         <v>4.0</v>
       </c>
       <c r="E39" t="n" s="324">
+        <v>4.0</v>
+      </c>
+      <c r="F39" t="n" s="325">
         <v>3.0</v>
-      </c>
-      <c r="F39" t="n" s="325">
-        <v>4.0</v>
       </c>
       <c r="G39" t="n" s="326">
         <v>4.0</v>
@@ -12666,7 +12666,7 @@
         <v>2.0</v>
       </c>
       <c r="I39" t="n" s="328">
-        <v>38.0</v>
+        <v>10214.0</v>
       </c>
       <c r="J39" t="n" s="329">
         <v>7.0</v>
@@ -12678,13 +12678,13 @@
         <v>49.0</v>
       </c>
       <c r="M39" t="n" s="332">
-        <v>-1.0780819608483414</v>
+        <v>-0.7838387007366574</v>
       </c>
       <c r="N39" t="n" s="333">
-        <v>0.28378632905424817</v>
+        <v>0.26513011225862426</v>
       </c>
       <c r="O39" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="40">
@@ -12713,7 +12713,7 @@
         <v>4.0</v>
       </c>
       <c r="I40" t="n" s="328">
-        <v>39.0</v>
+        <v>10215.0</v>
       </c>
       <c r="J40" t="n" s="329">
         <v>7.0</v>
@@ -12725,13 +12725,13 @@
         <v>49.0</v>
       </c>
       <c r="M40" t="n" s="332">
-        <v>1.1097608234636356</v>
+        <v>0.8943229165850428</v>
       </c>
       <c r="N40" t="n" s="333">
-        <v>0.5024427743178256</v>
+        <v>0.4194463130048942</v>
       </c>
       <c r="O40" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="41">
@@ -12748,10 +12748,10 @@
         <v>7.0</v>
       </c>
       <c r="E41" t="n" s="324">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F41" t="n" s="325">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G41" t="n" s="326">
         <v>5.0</v>
@@ -12760,7 +12760,7 @@
         <v>7.0</v>
       </c>
       <c r="I41" t="n" s="328">
-        <v>40.0</v>
+        <v>10216.0</v>
       </c>
       <c r="J41" t="n" s="329">
         <v>7.0</v>
@@ -12772,13 +12772,13 @@
         <v>49.0</v>
       </c>
       <c r="M41" t="n" s="332">
-        <v>0.7205873731043659</v>
+        <v>0.7403813920192386</v>
       </c>
       <c r="N41" t="n" s="333">
-        <v>0.41196059123563467</v>
+        <v>0.38315196130494245</v>
       </c>
       <c r="O41" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="42">
@@ -12807,7 +12807,7 @@
         <v>4.0</v>
       </c>
       <c r="I42" t="n" s="328">
-        <v>41.0</v>
+        <v>10217.0</v>
       </c>
       <c r="J42" t="n" s="329">
         <v>7.0</v>
@@ -12819,13 +12819,13 @@
         <v>49.0</v>
       </c>
       <c r="M42" t="n" s="332">
-        <v>0.3119106368252439</v>
+        <v>0.3916773225310279</v>
       </c>
       <c r="N42" t="n" s="333">
-        <v>0.34832765410694705</v>
+        <v>0.32118099454755084</v>
       </c>
       <c r="O42" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="43">
@@ -12839,10 +12839,10 @@
         <v>5.0</v>
       </c>
       <c r="D43" t="n" s="323">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E43" t="n" s="324">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F43" t="n" s="325">
         <v>5.0</v>
@@ -12854,25 +12854,25 @@
         <v>3.0</v>
       </c>
       <c r="I43" t="n" s="328">
-        <v>42.0</v>
+        <v>10218.0</v>
       </c>
       <c r="J43" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K43" t="n" s="330">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="L43" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M43" t="n" s="332">
-        <v>-0.10114378974006533</v>
+        <v>-0.030134652851286192</v>
       </c>
       <c r="N43" t="n" s="333">
-        <v>0.3088902806737149</v>
+        <v>0.27830827755994264</v>
       </c>
       <c r="O43" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="44">
@@ -12886,10 +12886,10 @@
         <v>1.0</v>
       </c>
       <c r="D44" t="n" s="323">
+        <v>4.0</v>
+      </c>
+      <c r="E44" t="n" s="324">
         <v>5.0</v>
-      </c>
-      <c r="E44" t="n" s="324">
-        <v>4.0</v>
       </c>
       <c r="F44" t="n" s="325">
         <v>4.0</v>
@@ -12901,7 +12901,7 @@
         <v>1.0</v>
       </c>
       <c r="I44" t="n" s="328">
-        <v>43.0</v>
+        <v>10219.0</v>
       </c>
       <c r="J44" t="n" s="329">
         <v>7.0</v>
@@ -12913,13 +12913,13 @@
         <v>49.0</v>
       </c>
       <c r="M44" t="n" s="332">
-        <v>-0.999714881002238</v>
+        <v>-0.7158916877103274</v>
       </c>
       <c r="N44" t="n" s="333">
-        <v>0.2827033468396114</v>
+        <v>0.2636109267237675</v>
       </c>
       <c r="O44" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="45">
@@ -12933,7 +12933,7 @@
         <v>7.0</v>
       </c>
       <c r="D45" t="n" s="323">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E45" t="n" s="324">
         <v>7.0</v>
@@ -12948,25 +12948,25 @@
         <v>7.0</v>
       </c>
       <c r="I45" t="n" s="328">
-        <v>44.0</v>
+        <v>10220.0</v>
       </c>
       <c r="J45" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K45" t="n" s="330">
-        <v>49.0</v>
+        <v>46.0</v>
       </c>
       <c r="L45" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M45" t="n" s="332">
-        <v>2.8916963559076314</v>
+        <v>1.0855463517252937</v>
       </c>
       <c r="N45" t="n" s="333">
-        <v>1.357767267161017</v>
+        <v>0.47264789709391186</v>
       </c>
       <c r="O45" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="46">
@@ -12980,13 +12980,13 @@
         <v>6.0</v>
       </c>
       <c r="D46" t="n" s="323">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E46" t="n" s="324">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F46" t="n" s="325">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G46" t="n" s="326">
         <v>4.0</v>
@@ -12995,25 +12995,25 @@
         <v>1.0</v>
       </c>
       <c r="I46" t="n" s="328">
-        <v>45.0</v>
+        <v>10221.0</v>
       </c>
       <c r="J46" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K46" t="n" s="330">
-        <v>34.0</v>
+        <v>31.0</v>
       </c>
       <c r="L46" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M46" t="n" s="332">
-        <v>-0.3652218632470007</v>
+        <v>-0.38114058227050224</v>
       </c>
       <c r="N46" t="n" s="333">
-        <v>0.2935010858348632</v>
+        <v>0.2635865062093852</v>
       </c>
       <c r="O46" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="47">
@@ -13027,13 +13027,13 @@
         <v>6.0</v>
       </c>
       <c r="D47" t="n" s="323">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="E47" t="n" s="324">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F47" t="n" s="325">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G47" t="n" s="326">
         <v>5.0</v>
@@ -13042,25 +13042,25 @@
         <v>6.0</v>
       </c>
       <c r="I47" t="n" s="328">
-        <v>46.0</v>
+        <v>10223.0</v>
       </c>
       <c r="J47" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K47" t="n" s="330">
-        <v>43.0</v>
+        <v>42.0</v>
       </c>
       <c r="L47" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M47" t="n" s="332">
-        <v>0.5687785510330149</v>
+        <v>0.4950446217326467</v>
       </c>
       <c r="N47" t="n" s="333">
-        <v>0.38493365215914266</v>
+        <v>0.3367836138386369</v>
       </c>
       <c r="O47" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="48">
@@ -13074,7 +13074,7 @@
         <v>7.0</v>
       </c>
       <c r="D48" t="n" s="323">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="E48" t="n" s="324">
         <v>1.0</v>
@@ -13089,25 +13089,25 @@
         <v>2.0</v>
       </c>
       <c r="I48" t="n" s="328">
-        <v>47.0</v>
+        <v>10224.0</v>
       </c>
       <c r="J48" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K48" t="n" s="330">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="L48" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M48" t="n" s="332">
-        <v>-1.4021008589932498</v>
+        <v>-0.8527022915588499</v>
       </c>
       <c r="N48" t="n" s="333">
-        <v>0.2937577733000111</v>
+        <v>0.2671847031339451</v>
       </c>
       <c r="O48" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="49">
@@ -13121,13 +13121,13 @@
         <v>2.0</v>
       </c>
       <c r="D49" t="n" s="323">
+        <v>4.0</v>
+      </c>
+      <c r="E49" t="n" s="324">
         <v>3.0</v>
       </c>
-      <c r="E49" t="n" s="324">
+      <c r="F49" t="n" s="325">
         <v>2.0</v>
-      </c>
-      <c r="F49" t="n" s="325">
-        <v>4.0</v>
       </c>
       <c r="G49" t="n" s="326">
         <v>6.0</v>
@@ -13136,7 +13136,7 @@
         <v>1.0</v>
       </c>
       <c r="I49" t="n" s="328">
-        <v>48.0</v>
+        <v>10226.0</v>
       </c>
       <c r="J49" t="n" s="329">
         <v>7.0</v>
@@ -13148,13 +13148,13 @@
         <v>49.0</v>
       </c>
       <c r="M49" t="n" s="332">
-        <v>-1.487354028109244</v>
+        <v>-1.1434122935279403</v>
       </c>
       <c r="N49" t="n" s="333">
-        <v>0.29794036848187</v>
+        <v>0.28184149961701355</v>
       </c>
       <c r="O49" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="50">
@@ -13168,13 +13168,13 @@
         <v>6.0</v>
       </c>
       <c r="D50" t="n" s="323">
+        <v>4.0</v>
+      </c>
+      <c r="E50" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="E50" t="n" s="324">
+      <c r="F50" t="n" s="325">
         <v>3.0</v>
-      </c>
-      <c r="F50" t="n" s="325">
-        <v>4.0</v>
       </c>
       <c r="G50" t="n" s="326">
         <v>6.0</v>
@@ -13183,7 +13183,7 @@
         <v>3.0</v>
       </c>
       <c r="I50" t="n" s="328">
-        <v>49.0</v>
+        <v>10227.0</v>
       </c>
       <c r="J50" t="n" s="329">
         <v>7.0</v>
@@ -13195,13 +13195,13 @@
         <v>49.0</v>
       </c>
       <c r="M50" t="n" s="332">
-        <v>-0.5294680591286002</v>
+        <v>-0.3134362243049981</v>
       </c>
       <c r="N50" t="n" s="333">
-        <v>0.28726122135734744</v>
+        <v>0.2651660422645224</v>
       </c>
       <c r="O50" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="51">
@@ -13215,10 +13215,10 @@
         <v>4.0</v>
       </c>
       <c r="D51" t="n" s="323">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E51" t="n" s="324">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="F51" t="n" s="325">
         <v>5.0</v>
@@ -13230,7 +13230,7 @@
         <v>3.0</v>
       </c>
       <c r="I51" t="n" s="328">
-        <v>50.0</v>
+        <v>10228.0</v>
       </c>
       <c r="J51" t="n" s="329">
         <v>7.0</v>
@@ -13242,13 +13242,13 @@
         <v>49.0</v>
       </c>
       <c r="M51" t="n" s="332">
-        <v>-0.6093423353637321</v>
+        <v>-0.38114058227050224</v>
       </c>
       <c r="N51" t="n" s="333">
-        <v>0.285113988309875</v>
+        <v>0.2635865062093852</v>
       </c>
       <c r="O51" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="52">
@@ -13262,13 +13262,13 @@
         <v>5.0</v>
       </c>
       <c r="D52" t="n" s="323">
+        <v>7.0</v>
+      </c>
+      <c r="E52" t="n" s="324">
         <v>3.0</v>
       </c>
-      <c r="E52" t="n" s="324">
-        <v>4.0</v>
-      </c>
       <c r="F52" t="n" s="325">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G52" t="n" s="326">
         <v>3.0</v>
@@ -13277,7 +13277,7 @@
         <v>4.0</v>
       </c>
       <c r="I52" t="n" s="328">
-        <v>51.0</v>
+        <v>10230.0</v>
       </c>
       <c r="J52" t="n" s="329">
         <v>7.0</v>
@@ -13289,13 +13289,13 @@
         <v>49.0</v>
       </c>
       <c r="M52" t="n" s="332">
-        <v>-0.5294680591286002</v>
+        <v>-0.3134362243049981</v>
       </c>
       <c r="N52" t="n" s="333">
-        <v>0.28726122135734744</v>
+        <v>0.2651660422645224</v>
       </c>
       <c r="O52" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="53">
@@ -13312,10 +13312,10 @@
         <v>7.0</v>
       </c>
       <c r="E53" t="n" s="324">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="F53" t="n" s="325">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G53" t="n" s="326">
         <v>7.0</v>
@@ -13324,7 +13324,7 @@
         <v>7.0</v>
       </c>
       <c r="I53" t="n" s="328">
-        <v>52.0</v>
+        <v>10231.0</v>
       </c>
       <c r="J53" t="n" s="329">
         <v>7.0</v>
@@ -13336,13 +13336,13 @@
         <v>49.0</v>
       </c>
       <c r="M53" t="n" s="332">
-        <v>1.6320818774592367</v>
+        <v>1.3443366272682065</v>
       </c>
       <c r="N53" t="n" s="333">
-        <v>0.6757533834675971</v>
+        <v>0.5591024679315759</v>
       </c>
       <c r="O53" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="54">
@@ -13356,13 +13356,13 @@
         <v>5.0</v>
       </c>
       <c r="D54" t="n" s="323">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E54" t="n" s="324">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F54" t="n" s="325">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G54" t="n" s="326">
         <v>7.0</v>
@@ -13371,25 +13371,25 @@
         <v>4.0</v>
       </c>
       <c r="I54" t="n" s="328">
-        <v>53.0</v>
+        <v>10232.0</v>
       </c>
       <c r="J54" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K54" t="n" s="330">
-        <v>38.0</v>
+        <v>36.0</v>
       </c>
       <c r="L54" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M54" t="n" s="332">
-        <v>-0.006184121442619049</v>
+        <v>-0.030134652851286192</v>
       </c>
       <c r="N54" t="n" s="333">
-        <v>0.31615882871908274</v>
+        <v>0.27830827755994264</v>
       </c>
       <c r="O54" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="55">
@@ -13406,10 +13406,10 @@
         <v>5.0</v>
       </c>
       <c r="E55" t="n" s="324">
+        <v>5.0</v>
+      </c>
+      <c r="F55" t="n" s="325">
         <v>2.0</v>
-      </c>
-      <c r="F55" t="n" s="325">
-        <v>5.0</v>
       </c>
       <c r="G55" t="n" s="326">
         <v>3.0</v>
@@ -13418,7 +13418,7 @@
         <v>3.0</v>
       </c>
       <c r="I55" t="n" s="328">
-        <v>54.0</v>
+        <v>10233.0</v>
       </c>
       <c r="J55" t="n" s="329">
         <v>7.0</v>
@@ -13430,13 +13430,13 @@
         <v>49.0</v>
       </c>
       <c r="M55" t="n" s="332">
-        <v>-1.0780819608483414</v>
+        <v>-0.7838387007366574</v>
       </c>
       <c r="N55" t="n" s="333">
-        <v>0.28378632905424817</v>
+        <v>0.26513011225862426</v>
       </c>
       <c r="O55" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="56">
@@ -13450,13 +13450,13 @@
         <v>2.0</v>
       </c>
       <c r="D56" t="n" s="323">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E56" t="n" s="324">
+        <v>4.0</v>
+      </c>
+      <c r="F56" t="n" s="325">
         <v>2.0</v>
-      </c>
-      <c r="F56" t="n" s="325">
-        <v>4.0</v>
       </c>
       <c r="G56" t="n" s="326">
         <v>5.0</v>
@@ -13465,25 +13465,25 @@
         <v>4.0</v>
       </c>
       <c r="I56" t="n" s="328">
-        <v>55.0</v>
+        <v>10234.0</v>
       </c>
       <c r="J56" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K56" t="n" s="330">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="L56" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M56" t="n" s="332">
-        <v>-0.921826385780218</v>
+        <v>-0.7158916877103274</v>
       </c>
       <c r="N56" t="n" s="333">
-        <v>0.2821368508324268</v>
+        <v>0.2636109267237675</v>
       </c>
       <c r="O56" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="57">
@@ -13497,13 +13497,13 @@
         <v>7.0</v>
       </c>
       <c r="D57" t="n" s="323">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E57" t="n" s="324">
         <v>6.0</v>
       </c>
       <c r="F57" t="n" s="325">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="G57" t="n" s="326">
         <v>6.0</v>
@@ -13512,25 +13512,25 @@
         <v>4.0</v>
       </c>
       <c r="I57" t="n" s="328">
-        <v>56.0</v>
+        <v>10237.0</v>
       </c>
       <c r="J57" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K57" t="n" s="330">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="L57" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M57" t="n" s="332">
-        <v>0.3119106368252439</v>
+        <v>0.04589615724245862</v>
       </c>
       <c r="N57" t="n" s="333">
-        <v>0.34832765410694705</v>
+        <v>0.28380551974698776</v>
       </c>
       <c r="O57" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
     <row r="58">
@@ -13544,13 +13544,13 @@
         <v>3.0</v>
       </c>
       <c r="D58" t="n" s="323">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="E58" t="n" s="324">
+        <v>4.0</v>
+      </c>
+      <c r="F58" t="n" s="325">
         <v>1.0</v>
-      </c>
-      <c r="F58" t="n" s="325">
-        <v>3.0</v>
       </c>
       <c r="G58" t="n" s="326">
         <v>6.0</v>
@@ -13559,7 +13559,7 @@
         <v>3.0</v>
       </c>
       <c r="I58" t="n" s="328">
-        <v>57.0</v>
+        <v>10238.0</v>
       </c>
       <c r="J58" t="n" s="329">
         <v>7.0</v>
@@ -13571,13 +13571,13 @@
         <v>49.0</v>
       </c>
       <c r="M58" t="n" s="332">
-        <v>-1.157208106894782</v>
+        <v>-0.8527022915588499</v>
       </c>
       <c r="N58" t="n" s="333">
-        <v>0.28539861943432493</v>
+        <v>0.2671847031339451</v>
       </c>
       <c r="O58" t="n" s="334">
-        <v>0.8025948959290747</v>
+        <v>0.7698733951652705</v>
       </c>
     </row>
   </sheetData>

--- a/exp2/case01/report/motivation/perceived-choice/MeasurementModel.xlsx
+++ b/exp2/case01/report/motivation/perceived-choice/MeasurementModel.xlsx
@@ -1962,13 +1962,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>322263</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2603,16 +2603,16 @@
         <v>7.0</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>1277.4271346565763</v>
+        <v>1354.1518605481208</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>-638.7135673282881</v>
+        <v>-677.0759302740604</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>0.8197266039030631</v>
+        <v>0.8541913151869388</v>
       </c>
       <c r="F6" t="n" s="36">
         <v>21.0</v>
@@ -2649,13 +2649,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="56">
-        <v>0.07835107900389048</v>
+        <v>0.09625414349657929</v>
       </c>
       <c r="B11" t="n" s="57">
-        <v>0.30286516818598475</v>
+        <v>0.31053730423724624</v>
       </c>
       <c r="C11" t="n" s="58">
-        <v>0.5468672305133152</v>
+        <v>0.40009920647258135</v>
       </c>
     </row>
     <row r="12">
@@ -2686,13 +2686,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n" s="77">
-        <v>78.94610683158325</v>
+        <v>63.85848304865997</v>
       </c>
       <c r="B16" t="n" s="78">
         <v>21.0</v>
       </c>
       <c r="C16" t="n" s="79">
-        <v>0.08996159873764309</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -2723,13 +2723,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n" s="98">
-        <v>26.732784799824543</v>
+        <v>32.01089008492363</v>
       </c>
       <c r="B21" t="n" s="99">
-        <v>0.08588540642370934</v>
+        <v>0.08701102327461384</v>
       </c>
       <c r="C21" t="n" s="100">
-        <v>0.10618578799006476</v>
+        <v>0.11018138485727647</v>
       </c>
     </row>
     <row r="22">
@@ -2790,10 +2790,10 @@
         <v>49.0</v>
       </c>
       <c r="F26" t="n" s="124">
-        <v>55.50515531558435</v>
+        <v>54.4788104448871</v>
       </c>
       <c r="G26" t="n" s="125">
-        <v>0.24296426276213978</v>
+        <v>0.27396347882338523</v>
       </c>
       <c r="H26" t="n" s="126">
         <v>1.0</v>
@@ -2816,10 +2816,10 @@
         <v>49.0</v>
       </c>
       <c r="F27" t="n" s="124">
-        <v>47.47931780617811</v>
+        <v>44.56966350684476</v>
       </c>
       <c r="G27" t="n" s="125">
-        <v>0.5349214355998985</v>
+        <v>0.6531543515853196</v>
       </c>
       <c r="H27" t="n" s="126">
         <v>1.0</v>
@@ -2842,10 +2842,10 @@
         <v>49.0</v>
       </c>
       <c r="F28" t="n" s="124">
-        <v>50.82584632375195</v>
+        <v>52.492160442347966</v>
       </c>
       <c r="G28" t="n" s="125">
-        <v>0.40152623277784516</v>
+        <v>0.3402679406187896</v>
       </c>
       <c r="H28" t="n" s="126">
         <v>1.0</v>
@@ -2868,10 +2868,10 @@
         <v>49.0</v>
       </c>
       <c r="F29" t="n" s="124">
-        <v>38.70428481348334</v>
+        <v>30.995374680840953</v>
       </c>
       <c r="G29" t="n" s="125">
-        <v>0.8542148566099853</v>
+        <v>0.9791529253157556</v>
       </c>
       <c r="H29" t="n" s="126">
         <v>1.0</v>
@@ -2894,10 +2894,10 @@
         <v>49.0</v>
       </c>
       <c r="F30" t="n" s="124">
-        <v>48.37162827540772</v>
+        <v>49.50084709263433</v>
       </c>
       <c r="G30" t="n" s="125">
-        <v>0.49851123051071045</v>
+        <v>0.4531236394085163</v>
       </c>
       <c r="H30" t="n" s="126">
         <v>1.0</v>
@@ -2920,10 +2920,10 @@
         <v>49.0</v>
       </c>
       <c r="F31" t="n" s="124">
-        <v>49.599703700187646</v>
+        <v>45.630739546267506</v>
       </c>
       <c r="G31" t="n" s="125">
-        <v>0.44920344065289686</v>
+        <v>0.6105202549087274</v>
       </c>
       <c r="H31" t="n" s="126">
         <v>1.0</v>
@@ -2946,10 +2946,10 @@
         <v>49.0</v>
       </c>
       <c r="F32" t="n" s="124">
-        <v>60.76231820884559</v>
+        <v>63.85848304865997</v>
       </c>
       <c r="G32" t="n" s="125">
-        <v>0.12086182303310444</v>
+        <v>0.07531573524247903</v>
       </c>
       <c r="H32" t="n" s="126">
         <v>1.0</v>
@@ -2972,13 +2972,13 @@
         <v>49.0</v>
       </c>
       <c r="F33" t="n" s="124">
-        <v>78.94610683158325</v>
+        <v>63.56229010301661</v>
       </c>
       <c r="G33" t="n" s="125">
-        <v>0.0042838856541734804</v>
+        <v>0.07895007602136261</v>
       </c>
       <c r="H33" t="n" s="126">
-        <v>0.08996159873764309</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="34">
@@ -2998,10 +2998,10 @@
         <v>49.0</v>
       </c>
       <c r="F34" t="n" s="124">
-        <v>52.86033153196022</v>
+        <v>48.099741125290244</v>
       </c>
       <c r="G34" t="n" s="125">
-        <v>0.3273881265258254</v>
+        <v>0.5095702062974016</v>
       </c>
       <c r="H34" t="n" s="126">
         <v>1.0</v>
@@ -3024,10 +3024,10 @@
         <v>49.0</v>
       </c>
       <c r="F35" t="n" s="124">
-        <v>42.74750761410253</v>
+        <v>55.34833603597812</v>
       </c>
       <c r="G35" t="n" s="125">
-        <v>0.7232443019224732</v>
+        <v>0.24755060016943842</v>
       </c>
       <c r="H35" t="n" s="126">
         <v>1.0</v>
@@ -3050,10 +3050,10 @@
         <v>49.0</v>
       </c>
       <c r="F36" t="n" s="124">
-        <v>36.42030405500616</v>
+        <v>36.274782887235375</v>
       </c>
       <c r="G36" t="n" s="125">
-        <v>0.9083104792855424</v>
+        <v>0.9112329466216921</v>
       </c>
       <c r="H36" t="n" s="126">
         <v>1.0</v>
@@ -3076,10 +3076,10 @@
         <v>49.0</v>
       </c>
       <c r="F37" t="n" s="124">
-        <v>42.826049374063146</v>
+        <v>42.10489936169263</v>
       </c>
       <c r="G37" t="n" s="125">
-        <v>0.7203317696436727</v>
+        <v>0.7466309123777497</v>
       </c>
       <c r="H37" t="n" s="126">
         <v>1.0</v>
@@ -3102,10 +3102,10 @@
         <v>49.0</v>
       </c>
       <c r="F38" t="n" s="124">
-        <v>48.37732860755251</v>
+        <v>46.62324427894971</v>
       </c>
       <c r="G38" t="n" s="125">
-        <v>0.49827979743831174</v>
+        <v>0.5700103896519884</v>
       </c>
       <c r="H38" t="n" s="126">
         <v>1.0</v>
@@ -3128,10 +3128,10 @@
         <v>49.0</v>
       </c>
       <c r="F39" t="n" s="124">
-        <v>40.47266210608516</v>
+        <v>38.11863017072194</v>
       </c>
       <c r="G39" t="n" s="125">
-        <v>0.8019767586414503</v>
+        <v>0.8695586809555611</v>
       </c>
       <c r="H39" t="n" s="126">
         <v>1.0</v>
@@ -3154,10 +3154,10 @@
         <v>49.0</v>
       </c>
       <c r="F40" t="n" s="124">
-        <v>50.969323318552384</v>
+        <v>55.11050477841366</v>
       </c>
       <c r="G40" t="n" s="125">
-        <v>0.39607719554959964</v>
+        <v>0.2546102591598707</v>
       </c>
       <c r="H40" t="n" s="126">
         <v>1.0</v>
@@ -3180,10 +3180,10 @@
         <v>49.0</v>
       </c>
       <c r="F41" t="n" s="124">
-        <v>50.02684524174547</v>
+        <v>48.15156730360417</v>
       </c>
       <c r="G41" t="n" s="125">
-        <v>0.43238582032619344</v>
+        <v>0.5074592769452018</v>
       </c>
       <c r="H41" t="n" s="126">
         <v>1.0</v>
@@ -3206,10 +3206,10 @@
         <v>49.0</v>
       </c>
       <c r="F42" t="n" s="124">
-        <v>53.68830284603063</v>
+        <v>53.162200777214494</v>
       </c>
       <c r="G42" t="n" s="125">
-        <v>0.2993865875767199</v>
+        <v>0.3170214581429345</v>
       </c>
       <c r="H42" t="n" s="126">
         <v>1.0</v>
@@ -3232,10 +3232,10 @@
         <v>49.0</v>
       </c>
       <c r="F43" t="n" s="124">
-        <v>39.243677915262886</v>
+        <v>45.465057420779836</v>
       </c>
       <c r="G43" t="n" s="125">
-        <v>0.8392034549248144</v>
+        <v>0.617236129821645</v>
       </c>
       <c r="H43" t="n" s="126">
         <v>1.0</v>
@@ -3258,10 +3258,10 @@
         <v>49.0</v>
       </c>
       <c r="F44" t="n" s="124">
-        <v>43.06947418995664</v>
+        <v>40.10093720034646</v>
       </c>
       <c r="G44" t="n" s="125">
-        <v>0.7112348359595484</v>
+        <v>0.8136660271113039</v>
       </c>
       <c r="H44" t="n" s="126">
         <v>1.0</v>
@@ -3284,10 +3284,10 @@
         <v>49.0</v>
       </c>
       <c r="F45" t="n" s="124">
-        <v>35.22121354446256</v>
+        <v>38.58499000989662</v>
       </c>
       <c r="G45" t="n" s="125">
-        <v>0.9305550475148521</v>
+        <v>0.8574216280089482</v>
       </c>
       <c r="H45" t="n" s="126">
         <v>1.0</v>
@@ -3310,10 +3310,10 @@
         <v>49.0</v>
       </c>
       <c r="F46" t="n" s="124">
-        <v>21.379150456661318</v>
+        <v>27.492872066554863</v>
       </c>
       <c r="G46" t="n" s="125">
-        <v>0.9997976586960589</v>
+        <v>0.9944455251800992</v>
       </c>
       <c r="H46" t="n" s="126">
         <v>1.0</v>
@@ -3359,1328 +3359,1382 @@
     </row>
     <row r="51">
       <c r="A51" t="n" s="145">
-        <v>-1.0625492125790048</v>
+        <v>-0.986472512036336</v>
       </c>
       <c r="B51" t="n" s="146">
-        <v>0.6996033932461918</v>
+        <v>0.6327979484288564</v>
       </c>
       <c r="C51" t="n" s="147">
-        <v>-3.300396606753808</v>
+        <v>-3.217064260508704</v>
       </c>
       <c r="D51" t="n" s="148">
-        <v>0.17182141023877495</v>
+        <v>0.25639300424038325</v>
       </c>
       <c r="E51" t="n" s="149">
-        <v>1.3422434276676283</v>
+        <v>1.4280711350825683</v>
       </c>
       <c r="F51" t="n" s="150">
-        <v>0.1183674282635927</v>
+        <v>0.18813752213607504</v>
       </c>
       <c r="G51" t="n" s="151">
-        <v>1.894936315413151</v>
+        <v>1.8932570491743714</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="145">
-        <v>-0.15901860922515176</v>
+        <v>-0.1742703780997834</v>
       </c>
       <c r="B52" t="n" s="146">
-        <v>0.7192140461548604</v>
+        <v>0.6451053284500885</v>
       </c>
       <c r="C52" t="n" s="147">
-        <v>0.7192140461548604</v>
+        <v>0.7136715830223617</v>
       </c>
       <c r="D52" t="n" s="148">
-        <v>-0.5204237436487213</v>
+        <v>-0.5138550096192844</v>
       </c>
       <c r="E52" t="n" s="149">
-        <v>0.07298021502400154</v>
+        <v>0.05059649410439526</v>
       </c>
       <c r="F52" t="n" s="150">
-        <v>-0.5428143391851572</v>
+        <v>-0.5410034554736667</v>
       </c>
       <c r="G52" t="n" s="151">
-        <v>1.448762822268975</v>
+        <v>1.3440935468498063</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="145">
-        <v>0.4732060095384485</v>
+        <v>0.46219260366853465</v>
       </c>
       <c r="B53" t="n" s="146">
-        <v>1.2786385692173674</v>
+        <v>1.1646327983329439</v>
       </c>
       <c r="C53" t="n" s="147">
-        <v>0.2786385692173674</v>
+        <v>0.2800636714073512</v>
       </c>
       <c r="D53" t="n" s="148">
-        <v>0.8658603884745855</v>
+        <v>0.8850681723669629</v>
       </c>
       <c r="E53" t="n" s="149">
-        <v>-0.1817809724316266</v>
+        <v>-0.1944858638356184</v>
       </c>
       <c r="F53" t="n" s="150">
-        <v>0.8253559622843989</v>
+        <v>0.8357215911652167</v>
       </c>
       <c r="G53" t="n" s="151">
-        <v>-2.680150109406691</v>
+        <v>-2.7834536595516104</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="145">
-        <v>-0.8679527442765762</v>
+        <v>-0.8049524157162669</v>
       </c>
       <c r="B54" t="n" s="146">
-        <v>-2.114497686167395</v>
+        <v>-2.2027173323330462</v>
       </c>
       <c r="C54" t="n" s="147">
-        <v>0.885502313832605</v>
+        <v>0.9549312788416149</v>
       </c>
       <c r="D54" t="n" s="148">
-        <v>-0.6745079723749292</v>
+        <v>-0.6031033016942438</v>
       </c>
       <c r="E54" t="n" s="149">
-        <v>1.5454022436046877</v>
+        <v>1.6210766487813038</v>
       </c>
       <c r="F54" t="n" s="150">
-        <v>-0.7324752282422935</v>
+        <v>-0.6765977011536775</v>
       </c>
       <c r="G54" t="n" s="151">
-        <v>1.099118992931392</v>
+        <v>1.0910530499702915</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="145">
-        <v>-0.17228705785934384</v>
+        <v>-0.14150483640331224</v>
       </c>
       <c r="B55" t="n" s="146">
-        <v>-0.4369149052475487</v>
+        <v>-0.571106913354952</v>
       </c>
       <c r="C55" t="n" s="147">
-        <v>-0.4369149052475487</v>
+        <v>-0.3975799100301307</v>
       </c>
       <c r="D55" t="n" s="148">
-        <v>-0.08970460720563977</v>
+        <v>-0.03548906275375607</v>
       </c>
       <c r="E55" t="n" s="149">
-        <v>0.24916257109832385</v>
+        <v>0.29191337831186637</v>
       </c>
       <c r="F55" t="n" s="150">
-        <v>-0.16246742019079186</v>
+        <v>-0.1251249925098783</v>
       </c>
       <c r="G55" t="n" s="151">
-        <v>0.7790765707545564</v>
+        <v>0.7424279591773213</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="145">
-        <v>0.5272681890283186</v>
+        <v>0.48440344420500203</v>
       </c>
       <c r="B56" t="n" s="146">
-        <v>0.4513988316446387</v>
+        <v>0.3799961340094278</v>
       </c>
       <c r="C56" t="n" s="147">
-        <v>0.4513988316446387</v>
+        <v>0.4194139716404175</v>
       </c>
       <c r="D56" t="n" s="148">
-        <v>0.3041726712106856</v>
+        <v>0.28915594103302045</v>
       </c>
       <c r="E56" t="n" s="149">
-        <v>0.6750989541141603</v>
+        <v>0.6177975051520965</v>
       </c>
       <c r="F56" t="n" s="150">
-        <v>0.29046874664715183</v>
+        <v>0.2736542441851899</v>
       </c>
       <c r="G56" t="n" s="151">
-        <v>-0.07346016132780964</v>
+        <v>-0.20020485214677386</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="145">
-        <v>-2.148110790435598</v>
+        <v>-2.0879999949540213</v>
       </c>
       <c r="B57" t="n" s="146">
-        <v>0.6203490124649829</v>
+        <v>0.5448909680831875</v>
       </c>
       <c r="C57" t="n" s="147">
-        <v>1.6203490124649829</v>
+        <v>1.6892734001188563</v>
       </c>
       <c r="D57" t="n" s="148">
-        <v>1.110959320193623</v>
+        <v>1.1850607753086848</v>
       </c>
       <c r="E57" t="n" s="149">
-        <v>1.2486020790730699</v>
+        <v>1.3154484168726643</v>
       </c>
       <c r="F57" t="n" s="150">
-        <v>0.05973297491742713</v>
+        <v>0.12013397819828509</v>
       </c>
       <c r="G57" t="n" s="151">
-        <v>-2.204435931423088</v>
+        <v>-2.2270597905279486</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="145">
-        <v>-1.1481107904355987</v>
+        <v>-1.0879999949540213</v>
       </c>
       <c r="B58" t="n" s="146">
-        <v>-0.37965098753501625</v>
+        <v>-0.4551090319168125</v>
       </c>
       <c r="C58" t="n" s="147">
-        <v>0.6203490124649838</v>
+        <v>0.6892734001188563</v>
       </c>
       <c r="D58" t="n" s="148">
-        <v>1.1109593201936239</v>
+        <v>1.1850607753086848</v>
       </c>
       <c r="E58" t="n" s="149">
-        <v>0.24860207907306986</v>
+        <v>0.31544841687266434</v>
       </c>
       <c r="F58" t="n" s="150">
-        <v>-0.9402670250825729</v>
+        <v>-0.8798660218017158</v>
       </c>
       <c r="G58" t="n" s="151">
-        <v>0.7955640685769119</v>
+        <v>0.7729402094720514</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n" s="145">
-        <v>-1.449490464092889</v>
+        <v>-1.3574970759247735</v>
       </c>
       <c r="B59" t="n" s="146">
-        <v>-0.7097273158446149</v>
+        <v>-0.7917172243848629</v>
       </c>
       <c r="C59" t="n" s="147">
-        <v>-0.7097273158446149</v>
+        <v>-0.6127188271482749</v>
       </c>
       <c r="D59" t="n" s="148">
-        <v>-0.39731755579820227</v>
+        <v>-0.2971103980932863</v>
       </c>
       <c r="E59" t="n" s="149">
-        <v>-0.05444626706339717</v>
+        <v>0.05185638679995819</v>
       </c>
       <c r="F59" t="n" s="150">
-        <v>0.5215410940283176</v>
+        <v>0.6005531528139629</v>
       </c>
       <c r="G59" t="n" s="151">
-        <v>0.4110759448755035</v>
+        <v>0.4485023671295294</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n" s="145">
-        <v>0.9374507874209952</v>
+        <v>1.013527487963664</v>
       </c>
       <c r="B60" t="n" s="146">
-        <v>-3.300396606753809</v>
+        <v>-3.3672020515711436</v>
       </c>
       <c r="C60" t="n" s="147">
-        <v>1.699603393246191</v>
+        <v>1.782935739491295</v>
       </c>
       <c r="D60" t="n" s="148">
-        <v>-0.828178589761225</v>
+        <v>-0.7436069957596168</v>
       </c>
       <c r="E60" t="n" s="149">
-        <v>1.3422434276676283</v>
+        <v>1.4280711350825683</v>
       </c>
       <c r="F60" t="n" s="150">
-        <v>0.1183674282635927</v>
+        <v>0.18813752213607593</v>
       </c>
       <c r="G60" t="n" s="151">
-        <v>-0.105063684586848</v>
+        <v>-0.10674295082562857</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n" s="145">
-        <v>-0.06254921257900481</v>
+        <v>0.013527487963663098</v>
       </c>
       <c r="B61" t="n" s="146">
-        <v>-0.3003966067538091</v>
+        <v>-0.3672020515711436</v>
       </c>
       <c r="C61" t="n" s="147">
-        <v>0.6996033932461909</v>
+        <v>0.782935739491295</v>
       </c>
       <c r="D61" t="n" s="148">
-        <v>-1.828178589761225</v>
+        <v>-1.7436069957596176</v>
       </c>
       <c r="E61" t="n" s="149">
-        <v>1.3422434276676283</v>
+        <v>1.4280711350825674</v>
       </c>
       <c r="F61" t="n" s="150">
-        <v>0.11836742826359181</v>
+        <v>0.18813752213607593</v>
       </c>
       <c r="G61" t="n" s="151">
-        <v>-0.1050636845868489</v>
+        <v>-0.10674295082562857</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n" s="145">
-        <v>-2.2492019639378187</v>
+        <v>-2.2159483375798104</v>
       </c>
       <c r="B62" t="n" s="146">
-        <v>1.5283317596677577</v>
+        <v>1.435919797138598</v>
       </c>
       <c r="C62" t="n" s="147">
-        <v>1.5283317596677577</v>
+        <v>1.5723634345996773</v>
       </c>
       <c r="D62" t="n" s="148">
-        <v>1.0434196490155987</v>
+        <v>1.098360747362353</v>
       </c>
       <c r="E62" t="n" s="149">
-        <v>-0.8648646219028908</v>
+        <v>-0.8285790718153248</v>
       </c>
       <c r="F62" t="n" s="150">
-        <v>-0.0050173168945395474</v>
+        <v>0.03780143404266223</v>
       </c>
       <c r="G62" t="n" s="151">
-        <v>-0.32816029970358773</v>
+        <v>-0.3830702978266345</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n" s="145">
-        <v>-0.17228705785934384</v>
+        <v>-0.14150483640331402</v>
       </c>
       <c r="B63" t="n" s="146">
-        <v>-1.4369149052475487</v>
+        <v>-1.571106913354952</v>
       </c>
       <c r="C63" t="n" s="147">
-        <v>0.5630850947524513</v>
+        <v>0.6024200899698675</v>
       </c>
       <c r="D63" t="n" s="148">
-        <v>-0.08970460720563977</v>
+        <v>-0.03548906275375696</v>
       </c>
       <c r="E63" t="n" s="149">
-        <v>0.2491625710983243</v>
+        <v>0.29191337831186503</v>
       </c>
       <c r="F63" t="n" s="150">
-        <v>-0.16246742019079186</v>
+        <v>-0.1251249925098783</v>
       </c>
       <c r="G63" t="n" s="151">
-        <v>0.7790765707545564</v>
+        <v>0.7424279591773209</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n" s="145">
-        <v>0.4732060095384467</v>
+        <v>0.46219260366853376</v>
       </c>
       <c r="B64" t="n" s="146">
-        <v>-1.7213614307826326</v>
+        <v>-1.8353672016670552</v>
       </c>
       <c r="C64" t="n" s="147">
-        <v>-1.7213614307826326</v>
+        <v>-1.7199363285926488</v>
       </c>
       <c r="D64" t="n" s="148">
-        <v>0.8658603884745864</v>
+        <v>0.8850681723669629</v>
       </c>
       <c r="E64" t="n" s="149">
-        <v>1.8182190275683734</v>
+        <v>1.8055141361643807</v>
       </c>
       <c r="F64" t="n" s="150">
-        <v>0.8253559622843989</v>
+        <v>0.8357215911652194</v>
       </c>
       <c r="G64" t="n" s="151">
-        <v>0.3198498905933089</v>
+        <v>0.2165463404483905</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n" s="145">
-        <v>1.1717691713983402</v>
+        <v>1.1688916624149739</v>
       </c>
       <c r="B65" t="n" s="146">
-        <v>-0.9906838202006449</v>
+        <v>-1.07972158669957</v>
       </c>
       <c r="C65" t="n" s="147">
-        <v>1.009316179799355</v>
+        <v>1.0156294414977234</v>
       </c>
       <c r="D65" t="n" s="148">
-        <v>-1.3228336196641992</v>
+        <v>-1.3052238002808716</v>
       </c>
       <c r="E65" t="n" s="149">
-        <v>-1.5299272676629423</v>
+        <v>-1.5328562352028055</v>
       </c>
       <c r="F65" t="n" s="150">
-        <v>0.6453548091876566</v>
+        <v>0.6556997823719533</v>
       </c>
       <c r="G65" t="n" s="151">
-        <v>1.926741883598889</v>
+        <v>1.839324813188088</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n" s="145">
-        <v>0.6452094246307478</v>
+        <v>0.6565766216637439</v>
       </c>
       <c r="B66" t="n" s="146">
-        <v>-1.615077315829054</v>
+        <v>-1.7643347585106666</v>
       </c>
       <c r="C66" t="n" s="147">
-        <v>0.3849226841709461</v>
+        <v>0.40474192190562075</v>
       </c>
       <c r="D66" t="n" s="148">
-        <v>-0.24431408165689117</v>
+        <v>-0.2100436891951416</v>
       </c>
       <c r="E66" t="n" s="149">
-        <v>1.0652098177983662</v>
+        <v>1.0888665691647161</v>
       </c>
       <c r="F66" t="n" s="150">
-        <v>-1.3132565345413916</v>
+        <v>-1.2948751336672544</v>
       </c>
       <c r="G66" t="n" s="151">
-        <v>0.602178501296172</v>
+        <v>0.546488512733367</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n" s="145">
-        <v>-0.8679527442765762</v>
+        <v>-0.8049524157162677</v>
       </c>
       <c r="B67" t="n" s="146">
-        <v>-0.11449768616739497</v>
+        <v>-0.20271733233304712</v>
       </c>
       <c r="C67" t="n" s="147">
-        <v>0.885502313832605</v>
+        <v>0.954931278841614</v>
       </c>
       <c r="D67" t="n" s="148">
-        <v>1.3254920276250717</v>
+        <v>1.3968966983057554</v>
       </c>
       <c r="E67" t="n" s="149">
-        <v>-1.4545977563953123</v>
+        <v>-1.3789233512186971</v>
       </c>
       <c r="F67" t="n" s="150">
-        <v>1.2675247717577065</v>
+        <v>1.3234022988463217</v>
       </c>
       <c r="G67" t="n" s="151">
-        <v>-1.9008810070686075</v>
+        <v>-1.9089469500297098</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n" s="145">
-        <v>-1.3763031777325798</v>
+        <v>-1.3708753605290882</v>
       </c>
       <c r="B68" t="n" s="146">
-        <v>1.4137234867585864</v>
+        <v>1.305014904949024</v>
       </c>
       <c r="C68" t="n" s="147">
-        <v>1.4137234867585864</v>
+        <v>1.4314571164021173</v>
       </c>
       <c r="D68" t="n" s="148">
-        <v>-1.0386016254030963</v>
+        <v>-1.0048201127688756</v>
       </c>
       <c r="E68" t="n" s="149">
-        <v>1.9905564339461437</v>
+        <v>1.9957512449310375</v>
       </c>
       <c r="F68" t="n" s="150">
-        <v>-1.0834294157710875</v>
+        <v>-1.060000642440107</v>
       </c>
       <c r="G68" t="n" s="151">
-        <v>-0.4880613637894715</v>
+        <v>-0.5747215905126897</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n" s="145">
-        <v>0.9374507874209952</v>
+        <v>1.013527487963663</v>
       </c>
       <c r="B69" t="n" s="146">
-        <v>0.6996033932461918</v>
+        <v>0.6327979484288555</v>
       </c>
       <c r="C69" t="n" s="147">
-        <v>0.6996033932461918</v>
+        <v>0.7829357394912941</v>
       </c>
       <c r="D69" t="n" s="148">
-        <v>-0.8281785897612242</v>
+        <v>-0.7436069957596176</v>
       </c>
       <c r="E69" t="n" s="149">
-        <v>-2.6577565723323735</v>
+        <v>-2.5719288649174334</v>
       </c>
       <c r="F69" t="n" s="150">
-        <v>1.1183674282635918</v>
+        <v>1.1881375221360742</v>
       </c>
       <c r="G69" t="n" s="151">
-        <v>-0.10506368458684978</v>
+        <v>-0.10674295082562857</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n" s="145">
-        <v>2.0853264490875345</v>
+        <v>2.187758768930961</v>
       </c>
       <c r="B70" t="n" s="146">
-        <v>2.815423831401982</v>
+        <v>2.7451244737070617</v>
       </c>
       <c r="C70" t="n" s="147">
-        <v>-3.184576168598018</v>
+        <v>-3.0745473320425782</v>
       </c>
       <c r="D70" t="n" s="148">
-        <v>2.1316329746955143</v>
+        <v>2.251450140351423</v>
       </c>
       <c r="E70" t="n" s="149">
-        <v>-2.4924649042294202</v>
+        <v>-2.3781352305333985</v>
       </c>
       <c r="F70" t="n" s="150">
-        <v>-2.946269707158587</v>
+        <v>-2.8458132269663245</v>
       </c>
       <c r="G70" t="n" s="151">
-        <v>1.0260213956548272</v>
+        <v>1.0596852753267387</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n" s="145">
-        <v>1.4506499371889623</v>
+        <v>1.467270504137602</v>
       </c>
       <c r="B71" t="n" s="146">
-        <v>-0.8047936808190395</v>
+        <v>-0.9450935035640837</v>
       </c>
       <c r="C71" t="n" s="147">
-        <v>-1.8047936808190395</v>
+        <v>-1.7803435812845452</v>
       </c>
       <c r="D71" t="n" s="148">
-        <v>-0.4084434284135545</v>
+        <v>-0.3729554533973918</v>
       </c>
       <c r="E71" t="n" s="149">
-        <v>-1.13124090032455</v>
+        <v>-1.1019357523356454</v>
       </c>
       <c r="F71" t="n" s="150">
-        <v>0.5267318022813106</v>
+        <v>0.5467672162751382</v>
       </c>
       <c r="G71" t="n" s="151">
-        <v>1.4128400957191816</v>
+        <v>1.3618951147767455</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n" s="145">
-        <v>-0.7263652228057378</v>
+        <v>-0.6873554955418779</v>
       </c>
       <c r="B72" t="n" s="146">
-        <v>-0.9771299310292862</v>
+        <v>-1.0920863353611692</v>
       </c>
       <c r="C72" t="n" s="147">
-        <v>-0.9771299310292862</v>
+        <v>-0.9311192010934342</v>
       </c>
       <c r="D72" t="n" s="148">
-        <v>1.4430064730360428</v>
+        <v>1.4951453050782844</v>
       </c>
       <c r="E72" t="n" s="149">
-        <v>-0.3104392983632307</v>
+        <v>-0.25851925489349004</v>
       </c>
       <c r="F72" t="n" s="150">
-        <v>0.3819638926165867</v>
+        <v>0.4186554517832981</v>
       </c>
       <c r="G72" t="n" s="151">
-        <v>0.23955352729108315</v>
+        <v>0.20960207740016257</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n" s="145">
-        <v>-1.5846580254610445</v>
+        <v>-1.4676287328781172</v>
       </c>
       <c r="B73" t="n" s="146">
-        <v>-1.8499289098232472</v>
+        <v>-1.908905564356012</v>
       </c>
       <c r="C73" t="n" s="147">
-        <v>3.150071090176753</v>
+        <v>3.2724536035241325</v>
       </c>
       <c r="D73" t="n" s="148">
-        <v>-0.5424760234150101</v>
+        <v>-0.4169338559922071</v>
       </c>
       <c r="E73" t="n" s="149">
-        <v>-2.178415948022867</v>
+        <v>-2.047405040719757</v>
       </c>
       <c r="F73" t="n" s="150">
-        <v>-0.6233790796833265</v>
+        <v>-0.5190836592506347</v>
       </c>
       <c r="G73" t="n" s="151">
-        <v>1.306232815678122</v>
+        <v>1.3636893342259788</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n" s="145">
-        <v>0.6294072380843616</v>
+        <v>0.5915678756674803</v>
       </c>
       <c r="B74" t="n" s="146">
-        <v>0.5382573181690198</v>
+        <v>0.46292701134862035</v>
       </c>
       <c r="C74" t="n" s="147">
-        <v>-0.4617426818309802</v>
+        <v>-0.48844173091563103</v>
       </c>
       <c r="D74" t="n" s="148">
-        <v>0.36083918501827306</v>
+        <v>0.35077416437543185</v>
       </c>
       <c r="E74" t="n" s="149">
-        <v>0.8058085196488243</v>
+        <v>0.7547387172513131</v>
       </c>
       <c r="F74" t="n" s="150">
-        <v>0.3443315394391355</v>
+        <v>0.3316533915105415</v>
       </c>
       <c r="G74" t="n" s="151">
-        <v>0.10093213523187128</v>
+        <v>-0.025677565561094795</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n" s="145">
-        <v>0.4343846684289314</v>
+        <v>0.38709927204638994</v>
       </c>
       <c r="B75" t="n" s="146">
-        <v>0.3725170721634612</v>
+        <v>0.3047438019126494</v>
       </c>
       <c r="C75" t="n" s="147">
-        <v>0.3725170721634612</v>
+        <v>0.3358229476156387</v>
       </c>
       <c r="D75" t="n" s="148">
-        <v>0.2525925288562796</v>
+        <v>0.23304356335647913</v>
       </c>
       <c r="E75" t="n" s="149">
-        <v>0.5555586094369476</v>
+        <v>0.4927474009515018</v>
       </c>
       <c r="F75" t="n" s="150">
-        <v>0.24140828559735894</v>
+        <v>0.22077948542902792</v>
       </c>
       <c r="G75" t="n" s="151">
-        <v>0.7646071943528296</v>
+        <v>0.6383402495218453</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n" s="145">
-        <v>0.4343846684289314</v>
+        <v>0.38709927204638994</v>
       </c>
       <c r="B76" t="n" s="146">
-        <v>0.3725170721634612</v>
+        <v>0.3047438019126494</v>
       </c>
       <c r="C76" t="n" s="147">
-        <v>0.3725170721634612</v>
+        <v>0.3358229476156387</v>
       </c>
       <c r="D76" t="n" s="148">
-        <v>0.2525925288562796</v>
+        <v>0.23304356335647913</v>
       </c>
       <c r="E76" t="n" s="149">
-        <v>0.5555586094369476</v>
+        <v>0.4927474009515018</v>
       </c>
       <c r="F76" t="n" s="150">
-        <v>0.24140828559735894</v>
+        <v>0.22077948542902792</v>
       </c>
       <c r="G76" t="n" s="151">
-        <v>0.7646071943528296</v>
+        <v>0.6383402495218453</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n" s="145">
-        <v>0.9374507874209952</v>
+        <v>1.013527487963663</v>
       </c>
       <c r="B77" t="n" s="146">
-        <v>-0.3003966067538091</v>
+        <v>-0.3672020515711436</v>
       </c>
       <c r="C77" t="n" s="147">
-        <v>0.6996033932461909</v>
+        <v>0.782935739491295</v>
       </c>
       <c r="D77" t="n" s="148">
-        <v>-0.8281785897612233</v>
+        <v>-0.7436069957596185</v>
       </c>
       <c r="E77" t="n" s="149">
-        <v>-0.6577565723323708</v>
+        <v>-0.5719288649174317</v>
       </c>
       <c r="F77" t="n" s="150">
-        <v>0.1183674282635927</v>
+        <v>0.18813752213607593</v>
       </c>
       <c r="G77" t="n" s="151">
-        <v>-0.105063684586848</v>
+        <v>-0.10674295082562857</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n" s="145">
-        <v>0.4732060095384458</v>
+        <v>0.46219260366853465</v>
       </c>
       <c r="B78" t="n" s="146">
-        <v>1.2786385692173674</v>
+        <v>1.1646327983329448</v>
       </c>
       <c r="C78" t="n" s="147">
-        <v>-0.7213614307826326</v>
+        <v>-0.7199363285926488</v>
       </c>
       <c r="D78" t="n" s="148">
-        <v>-0.13413961152541454</v>
+        <v>-0.11493182763303622</v>
       </c>
       <c r="E78" t="n" s="149">
-        <v>0.8182190275683743</v>
+        <v>0.8055141361643816</v>
       </c>
       <c r="F78" t="n" s="150">
-        <v>0.8253559622843989</v>
+        <v>0.8357215911652185</v>
       </c>
       <c r="G78" t="n" s="151">
-        <v>-1.6801501094066902</v>
+        <v>-1.7834536595516086</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n" s="145">
-        <v>-2.449490464092889</v>
+        <v>-2.3574970759247735</v>
       </c>
       <c r="B79" t="n" s="146">
-        <v>0.2902726841553842</v>
+        <v>0.20828277561513797</v>
       </c>
       <c r="C79" t="n" s="147">
-        <v>0.2902726841553842</v>
+        <v>0.3872811728517256</v>
       </c>
       <c r="D79" t="n" s="148">
-        <v>-1.3973175557982023</v>
+        <v>-1.2971103980932854</v>
       </c>
       <c r="E79" t="n" s="149">
-        <v>0.9455537329366019</v>
+        <v>1.0518563867999582</v>
       </c>
       <c r="F79" t="n" s="150">
-        <v>-0.4784589059716833</v>
+        <v>-0.39944684718603796</v>
       </c>
       <c r="G79" t="n" s="151">
-        <v>0.41107594487550214</v>
+        <v>0.44850236712952896</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n" s="145">
-        <v>1.0491742413749172</v>
+        <v>1.0513860891041231</v>
       </c>
       <c r="B80" t="n" s="146">
-        <v>0.9006808614979995</v>
+        <v>0.8243353513473384</v>
       </c>
       <c r="C80" t="n" s="147">
-        <v>0.9006808614979995</v>
+        <v>0.911038966376065</v>
       </c>
       <c r="D80" t="n" s="148">
-        <v>0.6020291789901027</v>
+        <v>0.6211102941782549</v>
       </c>
       <c r="E80" t="n" s="149">
-        <v>1.3260433610782085</v>
+        <v>1.327861890889185</v>
       </c>
       <c r="F80" t="n" s="150">
-        <v>0.5737385308424079</v>
+        <v>0.5861365023022778</v>
       </c>
       <c r="G80" t="n" s="151">
-        <v>-4.240603958916903</v>
+        <v>-4.321447010134163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n" s="145">
-        <v>-0.15901860922515088</v>
+        <v>-0.17427037809978252</v>
       </c>
       <c r="B81" t="n" s="146">
-        <v>0.7192140461548604</v>
+        <v>0.6451053284500885</v>
       </c>
       <c r="C81" t="n" s="147">
-        <v>-2.2807859538451396</v>
+        <v>-2.2863284169776374</v>
       </c>
       <c r="D81" t="n" s="148">
-        <v>0.47957625635127776</v>
+        <v>0.4861449903807147</v>
       </c>
       <c r="E81" t="n" s="149">
-        <v>1.0729802150240024</v>
+        <v>1.050596494104397</v>
       </c>
       <c r="F81" t="n" s="150">
-        <v>0.4571856608148437</v>
+        <v>0.45899654452633243</v>
       </c>
       <c r="G81" t="n" s="151">
-        <v>1.4487628222689768</v>
+        <v>1.344093546849809</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n" s="145">
-        <v>0.8409813907748465</v>
+        <v>0.8257296219002175</v>
       </c>
       <c r="B82" t="n" s="146">
-        <v>0.7192140461548586</v>
+        <v>0.6451053284500894</v>
       </c>
       <c r="C82" t="n" s="147">
-        <v>0.7192140461548586</v>
+        <v>0.7136715830223626</v>
       </c>
       <c r="D82" t="n" s="148">
-        <v>-0.5204237436487231</v>
+        <v>-0.5138550096192853</v>
       </c>
       <c r="E82" t="n" s="149">
-        <v>0.07298021502399976</v>
+        <v>0.05059649410439526</v>
       </c>
       <c r="F82" t="n" s="150">
-        <v>-0.5428143391851581</v>
+        <v>-0.5410034554736685</v>
       </c>
       <c r="G82" t="n" s="151">
-        <v>0.44876282226897324</v>
+        <v>0.3440935468498063</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n" s="145">
-        <v>-1.376303177732578</v>
+        <v>-1.370875360529089</v>
       </c>
       <c r="B83" t="n" s="146">
-        <v>1.4137234867585873</v>
+        <v>1.305014904949024</v>
       </c>
       <c r="C83" t="n" s="147">
-        <v>-1.5862765132414127</v>
+        <v>-1.5685428835978827</v>
       </c>
       <c r="D83" t="n" s="148">
-        <v>0.9613983745969046</v>
+        <v>0.9951798872311235</v>
       </c>
       <c r="E83" t="n" s="149">
-        <v>0.9905564339461446</v>
+        <v>0.9957512449310384</v>
       </c>
       <c r="F83" t="n" s="150">
-        <v>-0.08342941577108576</v>
+        <v>-0.060000642440106944</v>
       </c>
       <c r="G83" t="n" s="151">
-        <v>0.5119386362105294</v>
+        <v>0.4252784094873103</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n" s="145">
-        <v>-0.6929054375937809</v>
+        <v>-0.9410309952352536</v>
       </c>
       <c r="B84" t="n" s="146">
-        <v>0.07929935774398222</v>
+        <v>1.7996619480529779</v>
       </c>
       <c r="C84" t="n" s="147">
-        <v>0.07929935774398222</v>
+        <v>-1.0884433520056818</v>
       </c>
       <c r="D84" t="n" s="148">
-        <v>-0.5684479266843177</v>
+        <v>-1.5585840603486916</v>
       </c>
       <c r="E84" t="n" s="149">
-        <v>-0.36632400932566256</v>
+        <v>-0.731613326377619</v>
       </c>
       <c r="F84" t="n" s="150">
-        <v>-0.6494809929292891</v>
+        <v>0.3604272052289432</v>
       </c>
       <c r="G84" t="n" s="151">
-        <v>-0.013076597218668162</v>
+        <v>-0.5561518276542612</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="145">
-        <v>-2.5846580254610436</v>
+        <v>-0.5589650831000079</v>
       </c>
       <c r="B85" t="n" s="146">
-        <v>-0.8499289098232463</v>
+        <v>0.06937934385107081</v>
       </c>
       <c r="C85" t="n" s="147">
-        <v>-1.8499289098232463</v>
+        <v>0.22651294293304192</v>
       </c>
       <c r="D85" t="n" s="148">
-        <v>0.4575239765849908</v>
+        <v>-0.4035103235406927</v>
       </c>
       <c r="E85" t="n" s="149">
-        <v>-1.1784159480228666</v>
+        <v>-0.2384975442097108</v>
       </c>
       <c r="F85" t="n" s="150">
-        <v>1.3766209203166735</v>
+        <v>-0.504555555269933</v>
       </c>
       <c r="G85" t="n" s="151">
-        <v>2.3062328156781216</v>
+        <v>0.0450766581454185</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n" s="145">
-        <v>-0.8282308286016598</v>
+        <v>-2.4676287328781172</v>
       </c>
       <c r="B86" t="n" s="146">
-        <v>1.0093161797993542</v>
+        <v>-0.9089055643560116</v>
       </c>
       <c r="C86" t="n" s="147">
-        <v>-0.9906838202006458</v>
+        <v>-1.7275463964758675</v>
       </c>
       <c r="D86" t="n" s="148">
-        <v>0.6771663803357999</v>
+        <v>0.5830661440077929</v>
       </c>
       <c r="E86" t="n" s="149">
-        <v>1.4700727323370577</v>
+        <v>-1.0474050407197568</v>
       </c>
       <c r="F86" t="n" s="150">
-        <v>0.6453548091876549</v>
+        <v>1.4809163407493653</v>
       </c>
       <c r="G86" t="n" s="151">
-        <v>-1.0732581164011128</v>
+        <v>2.363689334225979</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n" s="145">
-        <v>0.0853264490875345</v>
+        <v>-0.8311083375850261</v>
       </c>
       <c r="B87" t="n" s="146">
-        <v>-0.18457616859801806</v>
+        <v>0.9202784133004283</v>
       </c>
       <c r="C87" t="n" s="147">
-        <v>2.815423831401982</v>
+        <v>-0.9843705585022775</v>
       </c>
       <c r="D87" t="n" s="148">
-        <v>-0.8683670253044848</v>
+        <v>0.6947761997191284</v>
       </c>
       <c r="E87" t="n" s="149">
-        <v>-2.4924649042294194</v>
+        <v>1.4671437647971945</v>
       </c>
       <c r="F87" t="n" s="150">
-        <v>1.0537302928414132</v>
+        <v>0.6556997823719515</v>
       </c>
       <c r="G87" t="n" s="151">
-        <v>-0.9739786043451719</v>
+        <v>-1.160675186811913</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n" s="145">
-        <v>0.31478813781749926</v>
+        <v>0.18775876893096122</v>
       </c>
       <c r="B88" t="n" s="146">
-        <v>0.04624431047269395</v>
+        <v>-0.2548755262929392</v>
       </c>
       <c r="C88" t="n" s="147">
-        <v>0.04624431047269395</v>
+        <v>2.9254526679574226</v>
       </c>
       <c r="D88" t="n" s="148">
-        <v>-0.6487030990693183</v>
+        <v>-0.7485498596485769</v>
       </c>
       <c r="E88" t="n" s="149">
-        <v>-0.2713384634665821</v>
+        <v>-2.3781352305333985</v>
       </c>
       <c r="F88" t="n" s="150">
-        <v>-0.7292794756301832</v>
+        <v>1.1541867730336746</v>
       </c>
       <c r="G88" t="n" s="151">
-        <v>-0.7732470946866656</v>
+        <v>-0.9403147246732617</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n" s="145">
-        <v>0.8409813907748491</v>
+        <v>0.44892374240590405</v>
       </c>
       <c r="B89" t="n" s="146">
-        <v>-0.2807859538451396</v>
+        <v>0.003681596183626734</v>
       </c>
       <c r="C89" t="n" s="147">
-        <v>0.7192140461548604</v>
+        <v>0.1862680365159588</v>
       </c>
       <c r="D89" t="n" s="148">
-        <v>0.47957625635127776</v>
+        <v>-0.5048341890227732</v>
       </c>
       <c r="E89" t="n" s="149">
-        <v>1.0729802150240006</v>
+        <v>-0.1239558014627975</v>
       </c>
       <c r="F89" t="n" s="150">
-        <v>0.4571856608148428</v>
+        <v>-0.6065549991990906</v>
       </c>
       <c r="G89" t="n" s="151">
-        <v>-1.551237177731024</v>
+        <v>-0.7031415455861563</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n" s="145">
-        <v>0.9427523689133697</v>
+        <v>0.8257296219002184</v>
       </c>
       <c r="B90" t="n" s="146">
-        <v>0.8073600555552476</v>
+        <v>-0.3548946715499106</v>
       </c>
       <c r="C90" t="n" s="147">
-        <v>0.8073600555552476</v>
+        <v>0.7136715830223634</v>
       </c>
       <c r="D90" t="n" s="148">
-        <v>0.5384867812465641</v>
+        <v>0.48614499038071646</v>
       </c>
       <c r="E90" t="n" s="149">
-        <v>-1.8017328687413032</v>
+        <v>1.050596494104398</v>
       </c>
       <c r="F90" t="n" s="150">
-        <v>-1.486772379756446</v>
+        <v>0.4589965445263342</v>
       </c>
       <c r="G90" t="n" s="151">
-        <v>1.6055745261149772</v>
+        <v>-1.6559064531501901</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n" s="145">
-        <v>0.3159867937922005</v>
+        <v>0.9402306349862615</v>
       </c>
       <c r="B91" t="n" s="146">
-        <v>-1.8620722450854572</v>
+        <v>0.7353179313901688</v>
       </c>
       <c r="C91" t="n" s="147">
-        <v>1.1379277549145428</v>
+        <v>0.8133088062683322</v>
       </c>
       <c r="D91" t="n" s="148">
-        <v>0.7669853609139006</v>
+        <v>0.5536891841590137</v>
       </c>
       <c r="E91" t="n" s="149">
-        <v>1.6372631016771209</v>
+        <v>-1.8072664417318185</v>
       </c>
       <c r="F91" t="n" s="150">
-        <v>-0.2689847002454684</v>
+        <v>-1.4774204576747012</v>
       </c>
       <c r="G91" t="n" s="151">
-        <v>-0.8833110767322898</v>
+        <v>1.5176495867503137</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n" s="145">
-        <v>0.9374507874209952</v>
+        <v>0.30472004697950617</v>
       </c>
       <c r="B92" t="n" s="146">
-        <v>-0.3003966067538091</v>
+        <v>-1.9671057288099316</v>
       </c>
       <c r="C92" t="n" s="147">
-        <v>-1.300396606753809</v>
+        <v>1.1377141849645724</v>
       </c>
       <c r="D92" t="n" s="148">
-        <v>1.171821410238775</v>
+        <v>0.7821732082378432</v>
       </c>
       <c r="E92" t="n" s="149">
-        <v>0.3422434276676283</v>
+        <v>1.6248651153723195</v>
       </c>
       <c r="F92" t="n" s="150">
-        <v>0.1183674282635927</v>
+        <v>-0.26165823817968104</v>
       </c>
       <c r="G92" t="n" s="151">
-        <v>-1.105063684586848</v>
+        <v>-0.983351239522114</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n" s="145">
-        <v>2.237570860061496</v>
+        <v>1.013527487963663</v>
       </c>
       <c r="B93" t="n" s="146">
-        <v>-3.0326897681632072</v>
+        <v>-0.3672020515711436</v>
       </c>
       <c r="C93" t="n" s="147">
-        <v>-0.03268976816320723</v>
+        <v>-1.217064260508704</v>
       </c>
       <c r="D93" t="n" s="148">
-        <v>0.2726889812614832</v>
+        <v>1.2563930042403832</v>
       </c>
       <c r="E93" t="n" s="149">
-        <v>0.6561214167366995</v>
+        <v>0.42807113508256744</v>
       </c>
       <c r="F93" t="n" s="150">
-        <v>0.19261501985501361</v>
+        <v>0.18813752213607504</v>
       </c>
       <c r="G93" t="n" s="151">
-        <v>-1.836802821880839</v>
+        <v>-1.1067429508256286</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n" s="145">
-        <v>0.7361660485388626</v>
+        <v>2.3758152764038614</v>
       </c>
       <c r="B94" t="n" s="146">
-        <v>0.6293095924445513</v>
+        <v>-3.0708212577544023</v>
       </c>
       <c r="C94" t="n" s="147">
-        <v>-2.3706904075554487</v>
+        <v>0.11199569599690173</v>
       </c>
       <c r="D94" t="n" s="148">
-        <v>0.4203582437543263</v>
+        <v>0.42250337352961154</v>
       </c>
       <c r="E94" t="n" s="149">
-        <v>0.9414149936002971</v>
+        <v>0.8069572137007301</v>
       </c>
       <c r="F94" t="n" s="150">
-        <v>0.4008939734767907</v>
+        <v>0.3215900679615151</v>
       </c>
       <c r="G94" t="n" s="151">
-        <v>1.2791553142784045</v>
+        <v>-1.7655688447244562</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="145">
-        <v>0.6452094246307469</v>
+        <v>0.7073051339114533</v>
       </c>
       <c r="B95" t="n" s="146">
-        <v>1.384922684170946</v>
+        <v>0.5527290823725437</v>
       </c>
       <c r="C95" t="n" s="147">
-        <v>-0.6150773158290539</v>
+        <v>-2.3887241127733185</v>
       </c>
       <c r="D95" t="n" s="148">
-        <v>1.755685918343108</v>
+        <v>0.417429469952177</v>
       </c>
       <c r="E95" t="n" s="149">
-        <v>0.06520981779836532</v>
+        <v>0.9016122448965271</v>
       </c>
       <c r="F95" t="n" s="150">
-        <v>-1.3132565345413933</v>
+        <v>0.39435592707906775</v>
       </c>
       <c r="G95" t="n" s="151">
-        <v>-2.397821498703829</v>
+        <v>1.1590897775284494</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n" s="145">
-        <v>0.17176917139834025</v>
+        <v>0.656576621663743</v>
       </c>
       <c r="B96" t="n" s="146">
-        <v>0.009316179799355062</v>
+        <v>1.2356652414893325</v>
       </c>
       <c r="C96" t="n" s="147">
-        <v>0.009316179799355062</v>
+        <v>-0.5952580780943801</v>
       </c>
       <c r="D96" t="n" s="148">
-        <v>0.6771663803357999</v>
+        <v>1.7899563108048584</v>
       </c>
       <c r="E96" t="n" s="149">
-        <v>0.4700727323370577</v>
+        <v>0.08886656916471569</v>
       </c>
       <c r="F96" t="n" s="150">
-        <v>-1.3546451908123451</v>
+        <v>-1.2948751336672553</v>
       </c>
       <c r="G96" t="n" s="151">
-        <v>0.9267418835988872</v>
+        <v>-2.4535114872666335</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n" s="145">
-        <v>0.4153419745389564</v>
+        <v>-0.8202254297187899</v>
       </c>
       <c r="B97" t="n" s="146">
-        <v>3.1500710901767537</v>
+        <v>-0.051552116913121004</v>
       </c>
       <c r="C97" t="n" s="147">
-        <v>0.15007109017675369</v>
+        <v>0.048766919960062216</v>
       </c>
       <c r="D97" t="n" s="148">
-        <v>-3.5424760234150092</v>
+        <v>-1.3780153861175108</v>
       </c>
       <c r="E97" t="n" s="149">
-        <v>-2.178415948022867</v>
+        <v>-0.6361667875761197</v>
       </c>
       <c r="F97" t="n" s="150">
-        <v>0.3766209203166735</v>
+        <v>-0.45292578834528685</v>
       </c>
       <c r="G97" t="n" s="151">
-        <v>-0.6937671843218784</v>
+        <v>0.5165808794342219</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n" s="145">
-        <v>-0.9318642160387167</v>
+        <v>0.1688916624149739</v>
       </c>
       <c r="B98" t="n" s="146">
-        <v>-1.171116555703498</v>
+        <v>-0.07972158669957174</v>
       </c>
       <c r="C98" t="n" s="147">
-        <v>0.8288834442965021</v>
+        <v>0.015629441497723384</v>
       </c>
       <c r="D98" t="n" s="148">
-        <v>-0.8349780909072506</v>
+        <v>0.6947761997191284</v>
       </c>
       <c r="E98" t="n" s="149">
-        <v>-0.5821254147430266</v>
+        <v>0.46714376479719455</v>
       </c>
       <c r="F98" t="n" s="150">
-        <v>2.0835263578579664</v>
+        <v>-1.3443002176280476</v>
       </c>
       <c r="G98" t="n" s="151">
-        <v>-1.1923196801254048</v>
+        <v>0.839324813188087</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n" s="145">
-        <v>0.4506499371889614</v>
+        <v>0.5323712671218828</v>
       </c>
       <c r="B99" t="n" s="146">
-        <v>1.1952063191809605</v>
+        <v>3.091094435643988</v>
       </c>
       <c r="C99" t="n" s="147">
-        <v>-0.8047936808190395</v>
+        <v>0.2724536035241325</v>
       </c>
       <c r="D99" t="n" s="148">
-        <v>-0.4084434284135545</v>
+        <v>-3.416933855992207</v>
       </c>
       <c r="E99" t="n" s="149">
-        <v>-1.13124090032455</v>
+        <v>-2.047405040719757</v>
       </c>
       <c r="F99" t="n" s="150">
-        <v>0.5267318022813106</v>
+        <v>0.4809163407493653</v>
       </c>
       <c r="G99" t="n" s="151">
-        <v>-0.5871599042808193</v>
+        <v>-0.6363106657740212</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n" s="145">
-        <v>-1.354790575369253</v>
+        <v>-0.8523574520444166</v>
       </c>
       <c r="B100" t="n" s="146">
-        <v>-0.6150773158290539</v>
+        <v>-1.248836139813037</v>
       </c>
       <c r="C100" t="n" s="147">
-        <v>0.3849226841709461</v>
+        <v>0.9171292905292265</v>
       </c>
       <c r="D100" t="n" s="148">
-        <v>0.7556859183431088</v>
+        <v>-0.7361032967065628</v>
       </c>
       <c r="E100" t="n" s="149">
-        <v>1.0652098177983662</v>
+        <v>-0.49789856134712407</v>
       </c>
       <c r="F100" t="n" s="150">
-        <v>-0.3132565345413916</v>
+        <v>2.1618713498816646</v>
       </c>
       <c r="G100" t="n" s="151">
-        <v>-0.39782149870382755</v>
+        <v>-1.1719747496832382</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n" s="145">
-        <v>1.4506499371889623</v>
+        <v>0.4672705041376011</v>
       </c>
       <c r="B101" t="n" s="146">
-        <v>0.19520631918096143</v>
+        <v>1.0549064964359154</v>
       </c>
       <c r="C101" t="n" s="147">
-        <v>2.1952063191809614</v>
+        <v>-0.7803435812845461</v>
       </c>
       <c r="D101" t="n" s="148">
-        <v>-2.4084434284135527</v>
+        <v>-0.37295545339739267</v>
       </c>
       <c r="E101" t="n" s="149">
-        <v>-0.13124090032454827</v>
+        <v>-1.1019357523356463</v>
       </c>
       <c r="F101" t="n" s="150">
-        <v>-2.4732681977186886</v>
+        <v>0.5467672162751374</v>
       </c>
       <c r="G101" t="n" s="151">
-        <v>0.412840095719182</v>
+        <v>-0.6381048852232554</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n" s="145">
-        <v>0.6294072380843625</v>
+        <v>-1.343423378336257</v>
       </c>
       <c r="B102" t="n" s="146">
-        <v>-0.46174268183097933</v>
+        <v>-0.7643347585106675</v>
       </c>
       <c r="C102" t="n" s="147">
-        <v>0.5382573181690207</v>
+        <v>0.40474192190562164</v>
       </c>
       <c r="D102" t="n" s="148">
-        <v>0.36083918501827394</v>
+        <v>0.7899563108048593</v>
       </c>
       <c r="E102" t="n" s="149">
-        <v>-0.19419148035117484</v>
+        <v>1.0888665691647157</v>
       </c>
       <c r="F102" t="n" s="150">
-        <v>0.3443315394391364</v>
+        <v>-0.29487513366725526</v>
       </c>
       <c r="G102" t="n" s="151">
-        <v>1.1009321352318704</v>
+        <v>-0.45351148726663304</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n" s="145">
-        <v>0.9374507874209952</v>
+        <v>1.4672705041376002</v>
       </c>
       <c r="B103" t="n" s="146">
-        <v>-0.3003966067538091</v>
+        <v>0.054906496435915386</v>
       </c>
       <c r="C103" t="n" s="147">
-        <v>-1.300396606753809</v>
+        <v>2.219656418715452</v>
       </c>
       <c r="D103" t="n" s="148">
-        <v>0.17182141023877673</v>
+        <v>-2.3729554533973944</v>
       </c>
       <c r="E103" t="n" s="149">
-        <v>-0.6577565723323708</v>
+        <v>-0.10193575233564722</v>
       </c>
       <c r="F103" t="n" s="150">
-        <v>1.1183674282635927</v>
+        <v>-2.4532327837248635</v>
       </c>
       <c r="G103" t="n" s="151">
-        <v>-0.105063684586848</v>
+        <v>0.3618951147767442</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n" s="145">
-        <v>-2.6852118621825007</v>
+        <v>0.5915678756674794</v>
       </c>
       <c r="B104" t="n" s="146">
-        <v>2.046244310472694</v>
+        <v>-0.5370729886513805</v>
       </c>
       <c r="C104" t="n" s="147">
-        <v>1.046244310472694</v>
+        <v>0.511558269084369</v>
       </c>
       <c r="D104" t="n" s="148">
-        <v>0.35129690093068167</v>
+        <v>0.3507741643754301</v>
       </c>
       <c r="E104" t="n" s="149">
-        <v>-1.271338463466582</v>
+        <v>-0.24526128274868686</v>
       </c>
       <c r="F104" t="n" s="150">
-        <v>-1.7292794756301832</v>
+        <v>0.3316533915105424</v>
       </c>
       <c r="G104" t="n" s="151">
-        <v>0.22675290531333436</v>
+        <v>0.9743224344389043</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n" s="145">
-        <v>2.237570860061496</v>
+        <v>1.013527487963663</v>
       </c>
       <c r="B105" t="n" s="146">
-        <v>-2.0326897681632072</v>
+        <v>-0.3672020515711427</v>
       </c>
       <c r="C105" t="n" s="147">
-        <v>-1.0326897681632072</v>
+        <v>-1.217064260508704</v>
       </c>
       <c r="D105" t="n" s="148">
-        <v>-0.7273110187385177</v>
+        <v>0.25639300424038325</v>
       </c>
       <c r="E105" t="n" s="149">
-        <v>-1.3438785832633</v>
+        <v>-0.5719288649174317</v>
       </c>
       <c r="F105" t="n" s="150">
-        <v>0.1926150198550145</v>
+        <v>1.188137522136076</v>
       </c>
       <c r="G105" t="n" s="151">
-        <v>1.163197178119161</v>
+        <v>-0.10674295082562857</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n" s="145">
-        <v>-0.14811079043559783</v>
+        <v>-2.5510762575940964</v>
       </c>
       <c r="B106" t="n" s="146">
-        <v>1.6203490124649829</v>
+        <v>2.0036815961836263</v>
       </c>
       <c r="C106" t="n" s="147">
-        <v>-2.379650987535017</v>
+        <v>1.1862680365159584</v>
       </c>
       <c r="D106" t="n" s="148">
-        <v>0.11095932019362387</v>
+        <v>0.4951658109772259</v>
       </c>
       <c r="E106" t="n" s="149">
-        <v>1.2486020790730699</v>
+        <v>-1.1239558014627975</v>
       </c>
       <c r="F106" t="n" s="150">
-        <v>0.05973297491742802</v>
+        <v>-1.6065549991990906</v>
       </c>
       <c r="G106" t="n" s="151">
-        <v>-0.20443593142308725</v>
+        <v>0.29685845441384373</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n" s="145">
-        <v>0.4153419745389555</v>
+        <v>2.3758152764038614</v>
       </c>
       <c r="B107" t="n" s="146">
-        <v>-0.8499289098232472</v>
+        <v>-2.0708212577544023</v>
       </c>
       <c r="C107" t="n" s="147">
-        <v>-0.8499289098232472</v>
+        <v>-0.8880043040030987</v>
       </c>
       <c r="D107" t="n" s="148">
-        <v>-0.5424760234150101</v>
+        <v>-0.5774966264703885</v>
       </c>
       <c r="E107" t="n" s="149">
-        <v>-2.178415948022868</v>
+        <v>-1.1930427862992707</v>
       </c>
       <c r="F107" t="n" s="150">
-        <v>1.3766209203166735</v>
+        <v>0.3215900679615151</v>
       </c>
       <c r="G107" t="n" s="151">
-        <v>0.30623281567812155</v>
+        <v>1.234431155275543</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s">
-        <v>1</v>
+      <c r="A108" t="n" s="145">
+        <v>-0.08799999495401956</v>
+      </c>
+      <c r="B108" t="n" s="146">
+        <v>1.5448909680831893</v>
+      </c>
+      <c r="C108" t="n" s="147">
+        <v>-2.3107265998811437</v>
+      </c>
+      <c r="D108" t="n" s="148">
+        <v>0.1850607753086848</v>
+      </c>
+      <c r="E108" t="n" s="149">
+        <v>1.3154484168726652</v>
+      </c>
+      <c r="F108" t="n" s="150">
+        <v>0.12013397819828597</v>
+      </c>
+      <c r="G108" t="n" s="151">
+        <v>-0.22705979052794856</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s">
-        <v>1</v>
+      <c r="A109" t="n" s="145">
+        <v>0.5323712671218819</v>
+      </c>
+      <c r="B109" t="n" s="146">
+        <v>-0.9089055643560124</v>
+      </c>
+      <c r="C109" t="n" s="147">
+        <v>-0.7275463964758675</v>
+      </c>
+      <c r="D109" t="n" s="148">
+        <v>-0.4169338559922071</v>
+      </c>
+      <c r="E109" t="n" s="149">
+        <v>-2.047405040719756</v>
+      </c>
+      <c r="F109" t="n" s="150">
+        <v>1.4809163407493644</v>
+      </c>
+      <c r="G109" t="n" s="151">
+        <v>0.3636893342259784</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="155">
-        <v>38</v>
+      <c r="A110" t="n" s="145">
+        <v>-0.5589650831000084</v>
+      </c>
+      <c r="B110" t="n" s="146">
+        <v>3.0693793438510704</v>
+      </c>
+      <c r="C110" t="n" s="147">
+        <v>-1.773487057066958</v>
+      </c>
+      <c r="D110" t="n" s="148">
+        <v>-0.4035103235406927</v>
+      </c>
+      <c r="E110" t="n" s="149">
+        <v>-1.2384975442097108</v>
+      </c>
+      <c r="F110" t="n" s="150">
+        <v>-2.504555555269934</v>
+      </c>
+      <c r="G110" t="n" s="151">
+        <v>2.045076658145418</v>
       </c>
     </row>
     <row r="111">
@@ -4694,8 +4748,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s">
-        <v>1</v>
+      <c r="A113" t="s" s="155">
+        <v>38</v>
       </c>
     </row>
     <row r="114">
@@ -4865,6 +4919,21 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
         <v>1</v>
       </c>
     </row>
@@ -4984,34 +5053,34 @@
         <v>31</v>
       </c>
       <c r="B6" t="n" s="195">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C6" t="n" s="196">
-        <v>4.9298245614035086</v>
+        <v>4.75</v>
       </c>
       <c r="D6" t="n" s="197">
-        <v>-1.3871633809762685</v>
+        <v>-1.4030548757089627</v>
       </c>
       <c r="E6" t="n" s="198">
-        <v>-6.606864529325685</v>
+        <v>-7.35342165122244</v>
       </c>
       <c r="F6" t="n" s="199">
-        <v>-7.878959901779574</v>
+        <v>-8.371936769299678</v>
       </c>
       <c r="G6" t="n" s="200">
-        <v>-8.866783687895849</v>
+        <v>-9.249520453852533</v>
       </c>
       <c r="H6" t="n" s="201">
-        <v>-10.016634487622461</v>
+        <v>-10.349862203065518</v>
       </c>
       <c r="I6" t="n" s="202">
-        <v>-9.776329718145222</v>
+        <v>-10.041039531740765</v>
       </c>
       <c r="J6" t="n" s="203">
-        <v>-9.90165983940908</v>
+        <v>-10.117187451548451</v>
       </c>
       <c r="K6" t="n" s="204">
-        <v>-9.71014366683388</v>
+        <v>-9.82138412996274</v>
       </c>
       <c r="L6" t="n" s="205">
         <v>1.0</v>
@@ -5040,34 +5109,34 @@
         <v>32</v>
       </c>
       <c r="B7" t="n" s="195">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C7" t="n" s="196">
-        <v>5.140350877192983</v>
+        <v>5.083333333333333</v>
       </c>
       <c r="D7" t="n" s="197">
-        <v>-1.5142150062855688</v>
+        <v>-1.6055497611075367</v>
       </c>
       <c r="E7" t="n" s="198">
-        <v>-6.7339161546349855</v>
+        <v>-7.555916536621015</v>
       </c>
       <c r="F7" t="n" s="199">
-        <v>-8.133063152398174</v>
+        <v>-8.776926540096825</v>
       </c>
       <c r="G7" t="n" s="200">
-        <v>-9.247938563823748</v>
+        <v>-9.857005110048254</v>
       </c>
       <c r="H7" t="n" s="201">
-        <v>-10.524840988859662</v>
+        <v>-11.159841744659813</v>
       </c>
       <c r="I7" t="n" s="202">
-        <v>-10.411587844691724</v>
+        <v>-11.053513958733635</v>
       </c>
       <c r="J7" t="n" s="203">
-        <v>-10.66396959126488</v>
+        <v>-11.332156763939894</v>
       </c>
       <c r="K7" t="n" s="204">
-        <v>-10.599505043998981</v>
+        <v>-11.238848327752757</v>
       </c>
       <c r="L7" t="n" s="205">
         <v>1.0</v>
@@ -5096,34 +5165,34 @@
         <v>33</v>
       </c>
       <c r="B8" t="n" s="195">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C8" t="n" s="196">
-        <v>5.140350877192983</v>
+        <v>4.95</v>
       </c>
       <c r="D8" t="n" s="197">
-        <v>-1.5142150062855688</v>
+        <v>-1.5228981432955653</v>
       </c>
       <c r="E8" t="n" s="198">
-        <v>-6.7339161546349855</v>
+        <v>-7.473264918809043</v>
       </c>
       <c r="F8" t="n" s="199">
-        <v>-8.133063152398174</v>
+        <v>-8.611623304472882</v>
       </c>
       <c r="G8" t="n" s="200">
-        <v>-9.247938563823748</v>
+        <v>-9.60905025661234</v>
       </c>
       <c r="H8" t="n" s="201">
-        <v>-10.524840988859662</v>
+        <v>-10.829235273411928</v>
       </c>
       <c r="I8" t="n" s="202">
-        <v>-10.411587844691724</v>
+        <v>-10.640255869673778</v>
       </c>
       <c r="J8" t="n" s="203">
-        <v>-10.66396959126488</v>
+        <v>-10.836247057068066</v>
       </c>
       <c r="K8" t="n" s="204">
-        <v>-10.599505043998981</v>
+        <v>-10.660287003068957</v>
       </c>
       <c r="L8" t="n" s="205">
         <v>1.0</v>
@@ -5152,34 +5221,34 @@
         <v>34</v>
       </c>
       <c r="B9" t="n" s="195">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C9" t="n" s="196">
-        <v>5.631578947368421</v>
+        <v>5.433333333333334</v>
       </c>
       <c r="D9" t="n" s="197">
-        <v>-1.8423924306289619</v>
+        <v>-1.83756145604095</v>
       </c>
       <c r="E9" t="n" s="198">
-        <v>-7.062093578978379</v>
+        <v>-7.787928231554428</v>
       </c>
       <c r="F9" t="n" s="199">
-        <v>-8.789418001084961</v>
+        <v>-9.240949929963651</v>
       </c>
       <c r="G9" t="n" s="200">
-        <v>-10.232470836853928</v>
+        <v>-10.553040194848494</v>
       </c>
       <c r="H9" t="n" s="201">
-        <v>-11.837550686233234</v>
+        <v>-12.087888524393467</v>
       </c>
       <c r="I9" t="n" s="202">
-        <v>-12.052474966408688</v>
+        <v>-12.213572433400701</v>
       </c>
       <c r="J9" t="n" s="203">
-        <v>-12.633034137325238</v>
+        <v>-12.72422693354037</v>
       </c>
       <c r="K9" t="n" s="204">
-        <v>-12.896747014402733</v>
+        <v>-12.86293019228665</v>
       </c>
       <c r="L9" t="n" s="205">
         <v>1.0</v>
@@ -5208,34 +5277,34 @@
         <v>35</v>
       </c>
       <c r="B10" t="n" s="195">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C10" t="n" s="196">
-        <v>4.578947368421052</v>
+        <v>4.4</v>
       </c>
       <c r="D10" t="n" s="197">
-        <v>-1.185494016324085</v>
+        <v>-1.2017575026777505</v>
       </c>
       <c r="E10" t="n" s="198">
-        <v>-6.405195164673502</v>
+        <v>-7.152124278191229</v>
       </c>
       <c r="F10" t="n" s="199">
-        <v>-7.475621172475207</v>
+        <v>-7.969342023237252</v>
       </c>
       <c r="G10" t="n" s="200">
-        <v>-8.261775593939298</v>
+        <v>-8.645628334758895</v>
       </c>
       <c r="H10" t="n" s="201">
-        <v>-9.209957029013728</v>
+        <v>-9.544672710940668</v>
       </c>
       <c r="I10" t="n" s="202">
-        <v>-8.767982894884305</v>
+        <v>-9.034552666584704</v>
       </c>
       <c r="J10" t="n" s="203">
-        <v>-8.69164365149598</v>
+        <v>-8.909403213361177</v>
       </c>
       <c r="K10" t="n" s="204">
-        <v>-8.298458114268595</v>
+        <v>-8.412302518744253</v>
       </c>
       <c r="L10" t="n" s="205">
         <v>1.0</v>
@@ -5264,34 +5333,34 @@
         <v>36</v>
       </c>
       <c r="B11" t="n" s="195">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C11" t="n" s="196">
-        <v>5.684210526315789</v>
+        <v>5.5</v>
       </c>
       <c r="D11" t="n" s="197">
-        <v>-1.8814321525669815</v>
+        <v>-1.885030714868985</v>
       </c>
       <c r="E11" t="n" s="198">
-        <v>-7.101133300916398</v>
+        <v>-7.835397490382463</v>
       </c>
       <c r="F11" t="n" s="199">
-        <v>-8.867497444961</v>
+        <v>-9.335888447619721</v>
       </c>
       <c r="G11" t="n" s="200">
-        <v>-10.349590002667988</v>
+        <v>-10.6954479713326</v>
       </c>
       <c r="H11" t="n" s="201">
-        <v>-11.993709573985313</v>
+        <v>-12.277765559705609</v>
       </c>
       <c r="I11" t="n" s="202">
-        <v>-12.247673576098787</v>
+        <v>-12.450918727540877</v>
       </c>
       <c r="J11" t="n" s="203">
-        <v>-12.867272468953358</v>
+        <v>-13.009042486508582</v>
       </c>
       <c r="K11" t="n" s="204">
-        <v>-13.17002506796887</v>
+        <v>-13.195215004082895</v>
       </c>
       <c r="L11" t="n" s="205">
         <v>1.0</v>
@@ -5320,34 +5389,34 @@
         <v>37</v>
       </c>
       <c r="B12" t="n" s="195">
-        <v>57.0</v>
+        <v>60.0</v>
       </c>
       <c r="C12" t="n" s="196">
-        <v>4.105263157894737</v>
+        <v>4.016666666666667</v>
       </c>
       <c r="D12" t="n" s="197">
-        <v>-0.9233877187499662</v>
+        <v>-0.9870362659270648</v>
       </c>
       <c r="E12" t="n" s="198">
-        <v>-6.143088867099383</v>
+        <v>-6.937403041440543</v>
       </c>
       <c r="F12" t="n" s="199">
-        <v>-6.951408577326969</v>
+        <v>-7.539899549735881</v>
       </c>
       <c r="G12" t="n" s="200">
-        <v>-7.475456701216942</v>
+        <v>-8.00146462450684</v>
       </c>
       <c r="H12" t="n" s="201">
-        <v>-8.161531838717252</v>
+        <v>-8.685787763937926</v>
       </c>
       <c r="I12" t="n" s="202">
-        <v>-7.457451407013711</v>
+        <v>-7.960946482831277</v>
       </c>
       <c r="J12" t="n" s="203">
-        <v>-7.119005866051267</v>
+        <v>-7.621075792857063</v>
       </c>
       <c r="K12" t="n" s="204">
-        <v>-6.463714031249763</v>
+        <v>-6.909253861489454</v>
       </c>
       <c r="L12" t="n" s="205">
         <v>1.0</v>
@@ -5415,25 +5484,25 @@
         <v>31</v>
       </c>
       <c r="B17" t="n" s="230">
-        <v>-6.613128662109375</v>
+        <v>-7.355804443359375</v>
       </c>
       <c r="C17" t="n" s="231">
-        <v>-1.801116943359375</v>
+        <v>-1.613250732421875</v>
       </c>
       <c r="D17" t="n" s="232">
-        <v>-1.177276611328125</v>
+        <v>-1.055877685546875</v>
       </c>
       <c r="E17" t="n" s="233">
-        <v>-0.785980224609375</v>
+        <v>-0.698089599609375</v>
       </c>
       <c r="F17" t="n" s="234">
-        <v>-0.205535888671875</v>
+        <v>-0.135772705078125</v>
       </c>
       <c r="G17" t="n" s="235">
-        <v>0.138519287109375</v>
+        <v>0.206085205078125</v>
       </c>
       <c r="H17" t="n" s="236">
-        <v>0.737823486328125</v>
+        <v>0.822052001953125</v>
       </c>
     </row>
     <row r="18">
@@ -5441,25 +5510,25 @@
         <v>32</v>
       </c>
       <c r="B18" t="n" s="230">
-        <v>-6.740203857421875</v>
+        <v>-7.558135986328125</v>
       </c>
       <c r="C18" t="n" s="231">
-        <v>-1.928192138671875</v>
+        <v>-1.815582275390625</v>
       </c>
       <c r="D18" t="n" s="232">
-        <v>-1.304351806640625</v>
+        <v>-1.258392333984375</v>
       </c>
       <c r="E18" t="n" s="233">
-        <v>-0.913055419921875</v>
+        <v>-0.900421142578125</v>
       </c>
       <c r="F18" t="n" s="234">
-        <v>-0.332794189453125</v>
+        <v>-0.338104248046875</v>
       </c>
       <c r="G18" t="n" s="235">
-        <v>0.011444091796875</v>
+        <v>0.003753662109375</v>
       </c>
       <c r="H18" t="n" s="236">
-        <v>0.610748291015625</v>
+        <v>0.619537353515625</v>
       </c>
     </row>
     <row r="19">
@@ -5467,25 +5536,25 @@
         <v>33</v>
       </c>
       <c r="B19" t="n" s="230">
-        <v>-6.740203857421875</v>
+        <v>-7.475555419921875</v>
       </c>
       <c r="C19" t="n" s="231">
-        <v>-1.928192138671875</v>
+        <v>-1.733001708984375</v>
       </c>
       <c r="D19" t="n" s="232">
-        <v>-1.304351806640625</v>
+        <v>-1.175628662109375</v>
       </c>
       <c r="E19" t="n" s="233">
-        <v>-0.913055419921875</v>
+        <v>-0.817840576171875</v>
       </c>
       <c r="F19" t="n" s="234">
-        <v>-0.332794189453125</v>
+        <v>-0.255523681640625</v>
       </c>
       <c r="G19" t="n" s="235">
-        <v>0.011444091796875</v>
+        <v>0.086334228515625</v>
       </c>
       <c r="H19" t="n" s="236">
-        <v>0.610748291015625</v>
+        <v>0.702301025390625</v>
       </c>
     </row>
     <row r="20">
@@ -5493,25 +5562,25 @@
         <v>34</v>
       </c>
       <c r="B20" t="n" s="230">
-        <v>-7.068511962890625</v>
+        <v>-7.790313720703125</v>
       </c>
       <c r="C20" t="n" s="231">
-        <v>-2.256317138671875</v>
+        <v>-2.047760009765625</v>
       </c>
       <c r="D20" t="n" s="232">
-        <v>-1.632476806640625</v>
+        <v>-1.490386962890625</v>
       </c>
       <c r="E20" t="n" s="233">
-        <v>-1.241180419921875</v>
+        <v>-1.132598876953125</v>
       </c>
       <c r="F20" t="n" s="234">
-        <v>-0.660919189453125</v>
+        <v>-0.570281982421875</v>
       </c>
       <c r="G20" t="n" s="235">
-        <v>-0.316864013671875</v>
+        <v>-0.228424072265625</v>
       </c>
       <c r="H20" t="n" s="236">
-        <v>0.282440185546875</v>
+        <v>0.387542724609375</v>
       </c>
     </row>
     <row r="21">
@@ -5519,25 +5588,25 @@
         <v>35</v>
       </c>
       <c r="B21" t="n" s="230">
-        <v>-6.411529541015625</v>
+        <v>-7.154205322265625</v>
       </c>
       <c r="C21" t="n" s="231">
-        <v>-1.599517822265625</v>
+        <v>-1.411651611328125</v>
       </c>
       <c r="D21" t="n" s="232">
-        <v>-0.975494384765625</v>
+        <v>-0.854461669921875</v>
       </c>
       <c r="E21" t="n" s="233">
-        <v>-0.584381103515625</v>
+        <v>-0.496490478515625</v>
       </c>
       <c r="F21" t="n" s="234">
-        <v>-0.003936767578125</v>
+        <v>0.065826416015625</v>
       </c>
       <c r="G21" t="n" s="235">
-        <v>0.340118408203125</v>
+        <v>0.407684326171875</v>
       </c>
       <c r="H21" t="n" s="236">
-        <v>0.939422607421875</v>
+        <v>1.023468017578125</v>
       </c>
     </row>
     <row r="22">
@@ -5545,25 +5614,25 @@
         <v>36</v>
       </c>
       <c r="B22" t="n" s="230">
-        <v>-7.107513427734375</v>
+        <v>-7.837738037109375</v>
       </c>
       <c r="C22" t="n" s="231">
-        <v>-2.295501708984375</v>
+        <v>-2.095184326171875</v>
       </c>
       <c r="D22" t="n" s="232">
-        <v>-1.671478271484375</v>
+        <v>-1.537994384765625</v>
       </c>
       <c r="E22" t="n" s="233">
-        <v>-1.280364990234375</v>
+        <v>-1.180023193359375</v>
       </c>
       <c r="F22" t="n" s="234">
-        <v>-0.699920654296875</v>
+        <v>-0.617706298828125</v>
       </c>
       <c r="G22" t="n" s="235">
-        <v>-0.355865478515625</v>
+        <v>-0.275848388671875</v>
       </c>
       <c r="H22" t="n" s="236">
-        <v>0.243438720703125</v>
+        <v>0.339935302734375</v>
       </c>
     </row>
     <row r="23">
@@ -5571,25 +5640,25 @@
         <v>37</v>
       </c>
       <c r="B23" t="n" s="230">
-        <v>-6.149505615234375</v>
+        <v>-6.939605712890625</v>
       </c>
       <c r="C23" t="n" s="231">
-        <v>-1.337493896484375</v>
+        <v>-1.197052001953125</v>
       </c>
       <c r="D23" t="n" s="232">
-        <v>-0.713653564453125</v>
+        <v>-0.639678955078125</v>
       </c>
       <c r="E23" t="n" s="233">
-        <v>-0.322357177734375</v>
+        <v>-0.281890869140625</v>
       </c>
       <c r="F23" t="n" s="234">
-        <v>0.258087158203125</v>
+        <v>0.280609130859375</v>
       </c>
       <c r="G23" t="n" s="235">
-        <v>0.602142333984375</v>
+        <v>0.622283935546875</v>
       </c>
       <c r="H23" t="n" s="236">
-        <v>1.201446533203125</v>
+        <v>1.238250732421875</v>
       </c>
     </row>
     <row r="24">
@@ -5618,7 +5687,7 @@
         <v>31</v>
       </c>
       <c r="B28" t="n" s="255">
-        <v>-0.7467627396890192</v>
+        <v>-0.6473295099301996</v>
       </c>
     </row>
     <row r="29">
@@ -5626,7 +5695,7 @@
         <v>32</v>
       </c>
       <c r="B29" t="n" s="255">
-        <v>-0.8746202914264656</v>
+        <v>-0.8555384987870411</v>
       </c>
     </row>
     <row r="30">
@@ -5634,7 +5703,7 @@
         <v>33</v>
       </c>
       <c r="B30" t="n" s="255">
-        <v>-0.8746202914264656</v>
+        <v>-0.773101030884914</v>
       </c>
     </row>
     <row r="31">
@@ -5642,7 +5711,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="n" s="255">
-        <v>-1.1919497478701822</v>
+        <v>-1.0797648809221303</v>
       </c>
     </row>
     <row r="32">
@@ -5650,7 +5719,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="n" s="255">
-        <v>-0.5367144420839846</v>
+        <v>-0.4452373454964795</v>
       </c>
     </row>
     <row r="33">
@@ -5658,7 +5727,7 @@
         <v>36</v>
       </c>
       <c r="B33" t="n" s="255">
-        <v>-1.2342370286100834</v>
+        <v>-1.1258203912311378</v>
       </c>
     </row>
     <row r="34">
@@ -5666,7 +5735,7 @@
         <v>37</v>
       </c>
       <c r="B34" t="n" s="255">
-        <v>-0.28363806630821964</v>
+        <v>-0.23729025507181628</v>
       </c>
     </row>
     <row r="35">
@@ -5718,25 +5787,25 @@
         <v>31</v>
       </c>
       <c r="B39" t="n" s="275">
-        <v>0.8870140046668544</v>
+        <v>0.838454560193345</v>
       </c>
       <c r="C39" t="n" s="276">
-        <v>-0.5490405453316803</v>
+        <v>-0.8293877982259806</v>
       </c>
       <c r="D39" t="n" s="277">
-        <v>0.582977625305519</v>
+        <v>0.4068850037158641</v>
       </c>
       <c r="E39" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F39" t="n" s="279">
-        <v>0.9415154712827997</v>
+        <v>0.8978687717828904</v>
       </c>
       <c r="G39" t="n" s="280">
-        <v>-0.2861411937130189</v>
+        <v>-0.5554665629398011</v>
       </c>
       <c r="H39" t="n" s="281">
-        <v>0.7747699819253633</v>
+        <v>0.5785755747912832</v>
       </c>
       <c r="I39" t="n" s="282">
         <v>1.0</v>
@@ -5747,25 +5816,25 @@
         <v>32</v>
       </c>
       <c r="B40" t="n" s="275">
-        <v>1.1000160716640535</v>
+        <v>1.1896461400338219</v>
       </c>
       <c r="C40" t="n" s="276">
-        <v>0.5221840093301832</v>
+        <v>0.910800906529556</v>
       </c>
       <c r="D40" t="n" s="277">
-        <v>0.601542218559302</v>
+        <v>0.3624002847621059</v>
       </c>
       <c r="E40" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F40" t="n" s="279">
-        <v>1.1591422540815548</v>
+        <v>1.244631531035114</v>
       </c>
       <c r="G40" t="n" s="280">
-        <v>0.8715334238012292</v>
+        <v>1.2897237879286214</v>
       </c>
       <c r="H40" t="n" s="281">
-        <v>0.3834629642376074</v>
+        <v>0.1971465772583984</v>
       </c>
       <c r="I40" t="n" s="282">
         <v>1.0</v>
@@ -5776,25 +5845,25 @@
         <v>33</v>
       </c>
       <c r="B41" t="n" s="275">
-        <v>1.3799406529253444</v>
+        <v>1.330806493477947</v>
       </c>
       <c r="C41" t="n" s="276">
-        <v>1.6747679887656486</v>
+        <v>1.5056540071786433</v>
       </c>
       <c r="D41" t="n" s="277">
-        <v>0.09397976187999792</v>
+        <v>0.13215601652832118</v>
       </c>
       <c r="E41" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F41" t="n" s="279">
-        <v>1.2378340948345514</v>
+        <v>1.2187018898845525</v>
       </c>
       <c r="G41" t="n" s="280">
-        <v>1.2523487469835808</v>
+        <v>1.1806924219881831</v>
       </c>
       <c r="H41" t="n" s="281">
-        <v>0.2104428134176777</v>
+        <v>0.23772493301534267</v>
       </c>
       <c r="I41" t="n" s="282">
         <v>1.0</v>
@@ -5805,25 +5874,25 @@
         <v>34</v>
       </c>
       <c r="B42" t="n" s="275">
-        <v>0.8027000380540099</v>
+        <v>0.7836307011706553</v>
       </c>
       <c r="C42" t="n" s="276">
-        <v>-0.8482429682485516</v>
+        <v>-0.9802754340531639</v>
       </c>
       <c r="D42" t="n" s="277">
-        <v>0.3963026721045743</v>
+        <v>0.32695017752821626</v>
       </c>
       <c r="E42" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F42" t="n" s="279">
-        <v>0.8449092684540559</v>
+        <v>0.8190071597790837</v>
       </c>
       <c r="G42" t="n" s="280">
-        <v>-0.7807897083598075</v>
+        <v>-0.960518091683728</v>
       </c>
       <c r="H42" t="n" s="281">
-        <v>0.43492618806699496</v>
+        <v>0.33679453009810256</v>
       </c>
       <c r="I42" t="n" s="282">
         <v>1.0</v>
@@ -5834,25 +5903,25 @@
         <v>35</v>
       </c>
       <c r="B43" t="n" s="275">
-        <v>0.948274478633121</v>
+        <v>0.9136200957040591</v>
       </c>
       <c r="C43" t="n" s="276">
-        <v>-0.2364357594124966</v>
+        <v>-0.4348114477608238</v>
       </c>
       <c r="D43" t="n" s="277">
-        <v>0.8130945506413709</v>
+        <v>0.6636992947938722</v>
       </c>
       <c r="E43" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F43" t="n" s="279">
-        <v>0.9750004604997333</v>
+        <v>0.9428164405320663</v>
       </c>
       <c r="G43" t="n" s="280">
-        <v>-0.09652497451891834</v>
+        <v>-0.2953065712450042</v>
       </c>
       <c r="H43" t="n" s="281">
-        <v>0.923103639734066</v>
+        <v>0.7677596971222431</v>
       </c>
       <c r="I43" t="n" s="282">
         <v>1.0</v>
@@ -5863,25 +5932,25 @@
         <v>36</v>
       </c>
       <c r="B44" t="n" s="275">
-        <v>0.7686018526831854</v>
+        <v>0.7973871133886968</v>
       </c>
       <c r="C44" t="n" s="276">
-        <v>-1.0179119371138028</v>
+        <v>-0.9101740362664583</v>
       </c>
       <c r="D44" t="n" s="277">
-        <v>0.3087198082048947</v>
+        <v>0.3627307344868959</v>
       </c>
       <c r="E44" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F44" t="n" s="279">
-        <v>0.752237282678013</v>
+        <v>0.7742915349793845</v>
       </c>
       <c r="G44" t="n" s="280">
-        <v>-1.321249859153016</v>
+        <v>-1.2290077593150301</v>
       </c>
       <c r="H44" t="n" s="281">
-        <v>0.18641806655709317</v>
+        <v>0.2190688968212767</v>
       </c>
       <c r="I44" t="n" s="282">
         <v>1.0</v>
@@ -5892,25 +5961,25 @@
         <v>37</v>
       </c>
       <c r="B45" t="n" s="275">
-        <v>1.0486762296602394</v>
+        <v>1.084800440885942</v>
       </c>
       <c r="C45" t="n" s="276">
-        <v>0.29241652493863335</v>
+        <v>0.4669284262863013</v>
       </c>
       <c r="D45" t="n" s="277">
-        <v>0.7699681750320013</v>
+        <v>0.640551086735718</v>
       </c>
       <c r="E45" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F45" t="n" s="279">
-        <v>1.0085409516830455</v>
+        <v>1.0202643064918455</v>
       </c>
       <c r="G45" t="n" s="280">
-        <v>0.08661552205420829</v>
+        <v>0.1542504955332067</v>
       </c>
       <c r="H45" t="n" s="281">
-        <v>0.9309771274560094</v>
+        <v>0.8774122288989337</v>
       </c>
       <c r="I45" t="n" s="282">
         <v>1.0</v>
@@ -5921,28 +5990,28 @@
         <v>60</v>
       </c>
       <c r="B46" t="n" s="275">
-        <v>1.3370245620404297</v>
+        <v>1.2752028896421987</v>
       </c>
       <c r="C46" t="n" s="276">
-        <v>0.7038912401558451</v>
+        <v>0.8102488565968866</v>
       </c>
       <c r="D46" t="n" s="277">
-        <v>0.481500507124344</v>
+        <v>0.41779716286747715</v>
       </c>
       <c r="E46" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F46" t="n" s="279">
-        <v>1.4852199579780114</v>
+        <v>1.4552100984683072</v>
       </c>
       <c r="G46" t="n" s="280">
-        <v>6.709388737110108</v>
+        <v>6.165625573913589</v>
       </c>
       <c r="H46" t="n" s="281">
-        <v>1.95441372460314E-11</v>
+        <v>7.020502983907819E-10</v>
       </c>
       <c r="I46" t="n" s="282">
-        <v>1.758972352142826E-10</v>
+        <v>6.318452685517037E-9</v>
       </c>
     </row>
     <row r="47">
@@ -5950,28 +6019,28 @@
         <v>61</v>
       </c>
       <c r="B47" t="n" s="275">
-        <v>1.6147164483180516</v>
+        <v>1.5598902340399778</v>
       </c>
       <c r="C47" t="n" s="276">
-        <v>1.119943253781879</v>
+        <v>1.0986279813058122</v>
       </c>
       <c r="D47" t="n" s="277">
-        <v>0.2627379445904647</v>
+        <v>0.2719303675528311</v>
       </c>
       <c r="E47" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F47" t="n" s="279">
-        <v>1.646112101784477</v>
+        <v>1.5936176745318573</v>
       </c>
       <c r="G47" t="n" s="280">
-        <v>9.249899413179657</v>
+        <v>9.018395561448624</v>
       </c>
       <c r="H47" t="n" s="281">
-        <v>2.2470403162798162E-20</v>
+        <v>1.9086404552964716E-19</v>
       </c>
       <c r="I47" t="n" s="282">
-        <v>2.247040316279816E-19</v>
+        <v>1.9086404552964715E-18</v>
       </c>
     </row>
     <row r="48">
@@ -5979,28 +6048,28 @@
         <v>62</v>
       </c>
       <c r="B48" t="n" s="275">
-        <v>1.6328059507967911</v>
+        <v>1.594089678394311</v>
       </c>
       <c r="C48" t="n" s="276">
-        <v>1.5653331741088434</v>
+        <v>1.4960459226156917</v>
       </c>
       <c r="D48" t="n" s="277">
-        <v>0.11750480848407263</v>
+        <v>0.13464168852129055</v>
       </c>
       <c r="E48" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F48" t="n" s="279">
-        <v>1.6431388643749814</v>
+        <v>1.6087094969764892</v>
       </c>
       <c r="G48" t="n" s="280">
-        <v>11.850694082227557</v>
+        <v>11.610969563392434</v>
       </c>
       <c r="H48" t="n" s="281">
-        <v>2.1341577092703516E-32</v>
+        <v>3.6248188001244695E-31</v>
       </c>
       <c r="I48" t="n" s="282">
-        <v>2.774405022051457E-31</v>
+        <v>4.712264440161811E-30</v>
       </c>
     </row>
     <row r="49">
@@ -6008,28 +6077,28 @@
         <v>63</v>
       </c>
       <c r="B49" t="n" s="275">
-        <v>1.3821619527285756</v>
+        <v>1.33404941610277</v>
       </c>
       <c r="C49" t="n" s="276">
-        <v>1.4217292430373933</v>
+        <v>1.0082187776291973</v>
       </c>
       <c r="D49" t="n" s="277">
-        <v>0.1551048673755698</v>
+        <v>0.3133494452364857</v>
       </c>
       <c r="E49" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F49" t="n" s="279">
-        <v>1.385406313642924</v>
+        <v>1.3464296782785738</v>
       </c>
       <c r="G49" t="n" s="280">
-        <v>11.079904398159966</v>
+        <v>9.685151543788281</v>
       </c>
       <c r="H49" t="n" s="281">
-        <v>1.570401543260642E-28</v>
+        <v>3.4869102373818934E-22</v>
       </c>
       <c r="I49" t="n" s="282">
-        <v>1.8844818519127706E-27</v>
+        <v>3.8356012611200825E-21</v>
       </c>
     </row>
     <row r="50">
@@ -6037,28 +6106,28 @@
         <v>64</v>
       </c>
       <c r="B50" t="n" s="275">
-        <v>1.4366762471961751</v>
+        <v>1.3955448181421415</v>
       </c>
       <c r="C50" t="n" s="276">
-        <v>0.9556528485185505</v>
+        <v>0.710079707117717</v>
       </c>
       <c r="D50" t="n" s="277">
-        <v>0.33924765180445215</v>
+        <v>0.4776547095553709</v>
       </c>
       <c r="E50" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F50" t="n" s="279">
-        <v>1.4261567121658452</v>
+        <v>1.4269969772092592</v>
       </c>
       <c r="G50" t="n" s="280">
-        <v>10.459989406829761</v>
+        <v>10.133302155420214</v>
       </c>
       <c r="H50" t="n" s="281">
-        <v>1.3187040924575096E-25</v>
+        <v>3.931437585223512E-24</v>
       </c>
       <c r="I50" t="n" s="282">
-        <v>1.4505745017032605E-24</v>
+        <v>4.717725102268215E-23</v>
       </c>
     </row>
     <row r="51">
@@ -6066,28 +6135,28 @@
         <v>65</v>
       </c>
       <c r="B51" t="n" s="275">
-        <v>1.3170910750040314</v>
+        <v>1.3435312606835432</v>
       </c>
       <c r="C51" t="n" s="276">
-        <v>0.6275427792541496</v>
+        <v>0.9643576837925227</v>
       </c>
       <c r="D51" t="n" s="277">
-        <v>0.530303503510132</v>
+        <v>0.3348666299634104</v>
       </c>
       <c r="E51" t="n" s="278">
         <v>1.0</v>
       </c>
       <c r="F51" t="n" s="279">
-        <v>1.4059591787949968</v>
+        <v>1.4219218867572792</v>
       </c>
       <c r="G51" t="n" s="280">
-        <v>5.025712512434128</v>
+        <v>5.223662675875586</v>
       </c>
       <c r="H51" t="n" s="281">
-        <v>5.01566793964275E-7</v>
+        <v>1.7541821449313337E-7</v>
       </c>
       <c r="I51" t="n" s="282">
-        <v>4.0125343517142E-6</v>
+        <v>1.403345715945067E-6</v>
       </c>
     </row>
     <row r="52">
@@ -8515,16 +8584,16 @@
         <v>1.0</v>
       </c>
       <c r="J2" t="n" s="310">
-        <v>1.3159005442644585</v>
+        <v>1.253035393362684</v>
       </c>
       <c r="K2" t="n" s="311">
-        <v>0.7530938296438295</v>
+        <v>0.6403280810945924</v>
       </c>
       <c r="L2" t="n" s="312">
-        <v>1.4032265864793902</v>
+        <v>1.341894614001705</v>
       </c>
       <c r="M2" t="n" s="313">
-        <v>0.9014692722392192</v>
+        <v>0.7933350656317674</v>
       </c>
     </row>
     <row r="3">
@@ -8556,16 +8625,16 @@
         <v>2.0</v>
       </c>
       <c r="J3" t="n" s="310">
-        <v>0.5448385791250611</v>
+        <v>0.5120849379203849</v>
       </c>
       <c r="K3" t="n" s="311">
-        <v>-0.4527009403213285</v>
+        <v>-0.5224561874152103</v>
       </c>
       <c r="L3" t="n" s="312">
-        <v>0.5256763030899665</v>
+        <v>0.49586392691073716</v>
       </c>
       <c r="M3" t="n" s="313">
-        <v>-0.5669275749454876</v>
+        <v>-0.6244526196890586</v>
       </c>
     </row>
     <row r="4">
@@ -8597,16 +8666,16 @@
         <v>3.0</v>
       </c>
       <c r="J4" t="n" s="310">
-        <v>0.845181394514596</v>
+        <v>0.8671643825297414</v>
       </c>
       <c r="K4" t="n" s="311">
-        <v>-0.11622084441687328</v>
+        <v>-0.06860964831697786</v>
       </c>
       <c r="L4" t="n" s="312">
-        <v>0.9844428702495992</v>
+        <v>1.0070840860012593</v>
       </c>
       <c r="M4" t="n" s="313">
-        <v>0.1458598035042783</v>
+        <v>0.1912441949265254</v>
       </c>
     </row>
     <row r="5">
@@ -8638,16 +8707,16 @@
         <v>4.0</v>
       </c>
       <c r="J5" t="n" s="310">
-        <v>0.7565354223652836</v>
+        <v>0.7810640718203993</v>
       </c>
       <c r="K5" t="n" s="311">
-        <v>-0.4010524775436952</v>
+        <v>-0.3342329836632205</v>
       </c>
       <c r="L5" t="n" s="312">
-        <v>0.7902782465156697</v>
+        <v>0.8091170767119211</v>
       </c>
       <c r="M5" t="n" s="313">
-        <v>-0.31536955041074444</v>
+        <v>-0.2648249899676939</v>
       </c>
     </row>
     <row r="6">
@@ -8679,16 +8748,16 @@
         <v>5.0</v>
       </c>
       <c r="J6" t="n" s="310">
-        <v>0.0832504305591508</v>
+        <v>0.08383187913714947</v>
       </c>
       <c r="K6" t="n" s="311">
-        <v>-3.4079746704435006</v>
+        <v>-3.410558484102661</v>
       </c>
       <c r="L6" t="n" s="312">
-        <v>0.08203631793021267</v>
+        <v>0.08427909982809648</v>
       </c>
       <c r="M6" t="n" s="313">
-        <v>-3.4124408004850535</v>
+        <v>-3.3986363612387147</v>
       </c>
     </row>
     <row r="7">
@@ -8720,16 +8789,16 @@
         <v>6.0</v>
       </c>
       <c r="J7" t="n" s="310">
-        <v>0.3163167690113176</v>
+        <v>0.27368851657016596</v>
       </c>
       <c r="K7" t="n" s="311">
-        <v>-0.3328359558049629</v>
+        <v>-0.5385734633687104</v>
       </c>
       <c r="L7" t="n" s="312">
-        <v>0.4651789093014976</v>
+        <v>0.3507520513307586</v>
       </c>
       <c r="M7" t="n" s="313">
-        <v>-0.12413335025747557</v>
+        <v>-0.409090755751564</v>
       </c>
     </row>
     <row r="8">
@@ -8761,16 +8830,16 @@
         <v>7.0</v>
       </c>
       <c r="J8" t="n" s="310">
-        <v>1.1272304961848352</v>
+        <v>1.1301814117975126</v>
       </c>
       <c r="K8" t="n" s="311">
-        <v>0.4117167227239118</v>
+        <v>0.4162893241316571</v>
       </c>
       <c r="L8" t="n" s="312">
-        <v>1.219193073513929</v>
+        <v>1.2309382215122013</v>
       </c>
       <c r="M8" t="n" s="313">
-        <v>0.5808844649743953</v>
+        <v>0.598167291547386</v>
       </c>
     </row>
     <row r="9">
@@ -8802,16 +8871,16 @@
         <v>8.0</v>
       </c>
       <c r="J9" t="n" s="310">
-        <v>0.41678192378849915</v>
+        <v>0.41490844918251624</v>
       </c>
       <c r="K9" t="n" s="311">
-        <v>-1.3659241503931157</v>
+        <v>-1.3542668075954412</v>
       </c>
       <c r="L9" t="n" s="312">
-        <v>0.378309345240435</v>
+        <v>0.3777983239557502</v>
       </c>
       <c r="M9" t="n" s="313">
-        <v>-1.5269097396472622</v>
+        <v>-1.5042784820784676</v>
       </c>
     </row>
     <row r="10">
@@ -8843,16 +8912,16 @@
         <v>9.0</v>
       </c>
       <c r="J10" t="n" s="310">
-        <v>0.2085640214337042</v>
+        <v>0.20250727234024746</v>
       </c>
       <c r="K10" t="n" s="311">
-        <v>-2.344644852542677</v>
+        <v>-2.4260128058277988</v>
       </c>
       <c r="L10" t="n" s="312">
-        <v>0.2038063989848561</v>
+        <v>0.19898651989939467</v>
       </c>
       <c r="M10" t="n" s="313">
-        <v>-2.3648724860411128</v>
+        <v>-2.4414117218913693</v>
       </c>
     </row>
     <row r="11">
@@ -8884,16 +8953,16 @@
         <v>10.0</v>
       </c>
       <c r="J11" t="n" s="310">
-        <v>1.3050582916783673</v>
+        <v>1.4013374583333023</v>
       </c>
       <c r="K11" t="n" s="311">
-        <v>0.734482510580989</v>
+        <v>0.890205272697262</v>
       </c>
       <c r="L11" t="n" s="312">
-        <v>1.3385016948984134</v>
+        <v>1.3949349882080988</v>
       </c>
       <c r="M11" t="n" s="313">
-        <v>0.7932525259485658</v>
+        <v>0.8810553456819107</v>
       </c>
     </row>
     <row r="12">
@@ -8925,16 +8994,16 @@
         <v>11.0</v>
       </c>
       <c r="J12" t="n" s="310">
-        <v>0.5025367750364884</v>
+        <v>0.4913049851042082</v>
       </c>
       <c r="K12" t="n" s="311">
-        <v>-1.1017998645734448</v>
+        <v>-1.1229691813386307</v>
       </c>
       <c r="L12" t="n" s="312">
-        <v>0.45614534629589415</v>
+        <v>0.4548220385754769</v>
       </c>
       <c r="M12" t="n" s="313">
-        <v>-1.2632739851772978</v>
+        <v>-1.248806657008061</v>
       </c>
     </row>
     <row r="13">
@@ -8966,16 +9035,16 @@
         <v>12.0</v>
       </c>
       <c r="J13" t="n" s="310">
-        <v>0.9556062870171871</v>
+        <v>0.9367756126681913</v>
       </c>
       <c r="K13" t="n" s="311">
-        <v>0.08089981052730703</v>
+        <v>0.045525711414691056</v>
       </c>
       <c r="L13" t="n" s="312">
-        <v>0.97669019833911</v>
+        <v>0.9488671557941677</v>
       </c>
       <c r="M13" t="n" s="313">
-        <v>0.11959794942487897</v>
+        <v>0.06631763713636633</v>
       </c>
     </row>
     <row r="14">
@@ -9007,16 +9076,16 @@
         <v>13.0</v>
       </c>
       <c r="J14" t="n" s="310">
-        <v>0.21574014495401203</v>
+        <v>0.23813347322231534</v>
       </c>
       <c r="K14" t="n" s="311">
-        <v>-2.375486180574992</v>
+        <v>-2.254643904245048</v>
       </c>
       <c r="L14" t="n" s="312">
-        <v>0.21989561117973827</v>
+        <v>0.24232527226265896</v>
       </c>
       <c r="M14" t="n" s="313">
-        <v>-2.3448176485491765</v>
+        <v>-2.2269145043638927</v>
       </c>
     </row>
     <row r="15">
@@ -9048,16 +9117,16 @@
         <v>14.0</v>
       </c>
       <c r="J15" t="n" s="310">
-        <v>1.0640920396863758</v>
+        <v>1.11544347245741</v>
       </c>
       <c r="K15" t="n" s="311">
-        <v>0.2971542147177881</v>
+        <v>0.3855865992190738</v>
       </c>
       <c r="L15" t="n" s="312">
-        <v>1.0480383471124468</v>
+        <v>1.079877479830265</v>
       </c>
       <c r="M15" t="n" s="313">
-        <v>0.26534382705519133</v>
+        <v>0.3237701889115453</v>
       </c>
     </row>
     <row r="16">
@@ -9089,16 +9158,16 @@
         <v>15.0</v>
       </c>
       <c r="J16" t="n" s="310">
-        <v>1.266554949128783</v>
+        <v>1.254818935232405</v>
       </c>
       <c r="K16" t="n" s="311">
-        <v>0.6062944511610451</v>
+        <v>0.5894011194395904</v>
       </c>
       <c r="L16" t="n" s="312">
-        <v>1.3083825684320878</v>
+        <v>1.2946702256445013</v>
       </c>
       <c r="M16" t="n" s="313">
-        <v>0.6817423955406808</v>
+        <v>0.6583657189856889</v>
       </c>
     </row>
     <row r="17">
@@ -9130,16 +9199,16 @@
         <v>16.0</v>
       </c>
       <c r="J17" t="n" s="310">
-        <v>0.46511348604835995</v>
+        <v>0.4869282766691344</v>
       </c>
       <c r="K17" t="n" s="311">
-        <v>-1.2704722821887635</v>
+        <v>-1.1939076438822085</v>
       </c>
       <c r="L17" t="n" s="312">
-        <v>0.46555512935861276</v>
+        <v>0.48608055735884076</v>
       </c>
       <c r="M17" t="n" s="313">
-        <v>-1.2641619630515062</v>
+        <v>-1.1933225120148412</v>
       </c>
     </row>
     <row r="18">
@@ -9171,16 +9240,16 @@
         <v>17.0</v>
       </c>
       <c r="J18" t="n" s="310">
-        <v>0.7517910971211382</v>
+        <v>0.7599082106476163</v>
       </c>
       <c r="K18" t="n" s="311">
-        <v>-0.413082317481516</v>
+        <v>-0.386682909667888</v>
       </c>
       <c r="L18" t="n" s="312">
-        <v>0.7288026933522033</v>
+        <v>0.7402529366258999</v>
       </c>
       <c r="M18" t="n" s="313">
-        <v>-0.47018188188184884</v>
+        <v>-0.43461584244051776</v>
       </c>
     </row>
     <row r="19">
@@ -9212,16 +9281,16 @@
         <v>18.0</v>
       </c>
       <c r="J19" t="n" s="310">
-        <v>1.114798157158358</v>
+        <v>1.077459187314941</v>
       </c>
       <c r="K19" t="n" s="311">
-        <v>0.3857537441871146</v>
+        <v>0.31921544673217617</v>
       </c>
       <c r="L19" t="n" s="312">
-        <v>1.0894085859677662</v>
+        <v>1.0639213934174858</v>
       </c>
       <c r="M19" t="n" s="313">
-        <v>0.3403315511428324</v>
+        <v>0.2936006396565949</v>
       </c>
     </row>
     <row r="20">
@@ -9253,16 +9322,16 @@
         <v>19.0</v>
       </c>
       <c r="J20" t="n" s="310">
-        <v>0.8012004379188857</v>
+        <v>0.7711852573341481</v>
       </c>
       <c r="K20" t="n" s="311">
-        <v>-0.2770355154888752</v>
+        <v>-0.3422621676486345</v>
       </c>
       <c r="L20" t="n" s="312">
-        <v>0.8323887265694427</v>
+        <v>0.8037838208564079</v>
       </c>
       <c r="M20" t="n" s="313">
-        <v>-0.20556302260217457</v>
+        <v>-0.2658686507440302</v>
       </c>
     </row>
     <row r="21">
@@ -9294,16 +9363,16 @@
         <v>20.0</v>
       </c>
       <c r="J21" t="n" s="310">
-        <v>2.9056288521899605</v>
+        <v>2.7394157349471766</v>
       </c>
       <c r="K21" t="n" s="311">
-        <v>2.844937377626196</v>
+        <v>2.6900465490206944</v>
       </c>
       <c r="L21" t="n" s="312">
-        <v>2.946394261122118</v>
+        <v>2.765758446808211</v>
       </c>
       <c r="M21" t="n" s="313">
-        <v>2.882522243185825</v>
+        <v>2.714671168653842</v>
       </c>
     </row>
     <row r="22">
@@ -9335,16 +9404,16 @@
         <v>21.0</v>
       </c>
       <c r="J22" t="n" s="310">
-        <v>0.663024705901692</v>
+        <v>0.6421913479746093</v>
       </c>
       <c r="K22" t="n" s="311">
-        <v>-0.6544608759656417</v>
+        <v>-0.7094241021639697</v>
       </c>
       <c r="L22" t="n" s="312">
-        <v>0.6849052212544432</v>
+        <v>0.6670764529514691</v>
       </c>
       <c r="M22" t="n" s="313">
-        <v>-0.5911560246267861</v>
+        <v>-0.6372995099915391</v>
       </c>
     </row>
     <row r="23">
@@ -9376,16 +9445,16 @@
         <v>22.0</v>
       </c>
       <c r="J23" t="n" s="310">
-        <v>0.34280156744466234</v>
+        <v>0.36078917780077574</v>
       </c>
       <c r="K23" t="n" s="311">
-        <v>-1.742663304728108</v>
+        <v>-1.654406461806127</v>
       </c>
       <c r="L23" t="n" s="312">
-        <v>0.32080649760600793</v>
+        <v>0.3348512666869906</v>
       </c>
       <c r="M23" t="n" s="313">
-        <v>-1.83232336084384</v>
+        <v>-1.7587043195246201</v>
       </c>
     </row>
     <row r="24">
@@ -9417,16 +9486,16 @@
         <v>23.0</v>
       </c>
       <c r="J24" t="n" s="310">
-        <v>1.5957635567102633</v>
+        <v>1.5417107924821927</v>
       </c>
       <c r="K24" t="n" s="311">
-        <v>1.2052445293927345</v>
+        <v>1.1356831904948144</v>
       </c>
       <c r="L24" t="n" s="312">
-        <v>1.5810269673872892</v>
+        <v>1.5377632435952273</v>
       </c>
       <c r="M24" t="n" s="313">
-        <v>1.1805084839227393</v>
+        <v>1.127370032563432</v>
       </c>
     </row>
     <row r="25">
@@ -9458,16 +9527,16 @@
         <v>24.0</v>
       </c>
       <c r="J25" t="n" s="310">
-        <v>0.3799455962469525</v>
+        <v>0.48058359718496974</v>
       </c>
       <c r="K25" t="n" s="311">
-        <v>-0.5230324059249009</v>
+        <v>-0.2594488791777165</v>
       </c>
       <c r="L25" t="n" s="312">
-        <v>0.3580743163548188</v>
+        <v>0.488957909305616</v>
       </c>
       <c r="M25" t="n" s="313">
-        <v>-0.6203374627668741</v>
+        <v>-0.2682315364202177</v>
       </c>
     </row>
     <row r="26">
@@ -9499,16 +9568,16 @@
         <v>25.0</v>
       </c>
       <c r="J26" t="n" s="310">
-        <v>0.0751059221637235</v>
+        <v>0.07481583595583939</v>
       </c>
       <c r="K26" t="n" s="311">
-        <v>-0.4954994128477359</v>
+        <v>-0.5106248305874089</v>
       </c>
       <c r="L26" t="n" s="312">
-        <v>0.08390828321977128</v>
+        <v>0.08264232594323807</v>
       </c>
       <c r="M26" t="n" s="313">
-        <v>-0.4982747345466946</v>
+        <v>-0.5147908810118821</v>
       </c>
     </row>
     <row r="27">
@@ -9540,16 +9609,16 @@
         <v>26.0</v>
       </c>
       <c r="J27" t="n" s="310">
-        <v>0.0751059221637235</v>
+        <v>0.07481583595583939</v>
       </c>
       <c r="K27" t="n" s="311">
-        <v>-0.4954994128477359</v>
+        <v>-0.5106248305874089</v>
       </c>
       <c r="L27" t="n" s="312">
-        <v>0.08390828321977128</v>
+        <v>0.08264232594323807</v>
       </c>
       <c r="M27" t="n" s="313">
-        <v>-0.4982747345466946</v>
+        <v>-0.5147908810118821</v>
       </c>
     </row>
     <row r="28">
@@ -9581,16 +9650,16 @@
         <v>27.0</v>
       </c>
       <c r="J28" t="n" s="310">
-        <v>0.20632845506705144</v>
+        <v>0.20783795456873552</v>
       </c>
       <c r="K28" t="n" s="311">
-        <v>-2.3606587610802547</v>
+        <v>-2.323211459880578</v>
       </c>
       <c r="L28" t="n" s="312">
-        <v>0.2030784346241892</v>
+        <v>0.20658425670643596</v>
       </c>
       <c r="M28" t="n" s="313">
-        <v>-2.389652733764685</v>
+        <v>-2.3365730693188174</v>
       </c>
     </row>
     <row r="29">
@@ -9622,16 +9691,16 @@
         <v>28.0</v>
       </c>
       <c r="J29" t="n" s="310">
-        <v>0.5548891211532596</v>
+        <v>0.5585942021821844</v>
       </c>
       <c r="K29" t="n" s="311">
-        <v>-0.794143414536291</v>
+        <v>-0.7760465784747865</v>
       </c>
       <c r="L29" t="n" s="312">
-        <v>0.6090803491787438</v>
+        <v>0.6129506774157156</v>
       </c>
       <c r="M29" t="n" s="313">
-        <v>-0.6921807621035614</v>
+        <v>-0.6676844138491876</v>
       </c>
     </row>
     <row r="30">
@@ -9663,16 +9732,16 @@
         <v>29.0</v>
       </c>
       <c r="J30" t="n" s="310">
-        <v>0.6285713483196194</v>
+        <v>0.5862595382469705</v>
       </c>
       <c r="K30" t="n" s="311">
-        <v>-0.7209526943948332</v>
+        <v>-0.8617843226947008</v>
       </c>
       <c r="L30" t="n" s="312">
-        <v>0.6208994370636263</v>
+        <v>0.5772572191303014</v>
       </c>
       <c r="M30" t="n" s="313">
-        <v>-0.7394365657028124</v>
+        <v>-0.8861187666905724</v>
       </c>
     </row>
     <row r="31">
@@ -9704,16 +9773,16 @@
         <v>30.0</v>
       </c>
       <c r="J31" t="n" s="310">
-        <v>2.0350783483838546</v>
+        <v>2.121589623254978</v>
       </c>
       <c r="K31" t="n" s="311">
-        <v>1.4448043576469387</v>
+        <v>1.5263851704571776</v>
       </c>
       <c r="L31" t="n" s="312">
-        <v>2.9452969694355864</v>
+        <v>3.031360170382376</v>
       </c>
       <c r="M31" t="n" s="313">
-        <v>2.3417312524866176</v>
+        <v>2.388926514484531</v>
       </c>
     </row>
     <row r="32">
@@ -9745,16 +9814,16 @@
         <v>31.0</v>
       </c>
       <c r="J32" t="n" s="310">
-        <v>1.5977146304046312</v>
+        <v>1.5495680325648762</v>
       </c>
       <c r="K32" t="n" s="311">
-        <v>0.9134091412496259</v>
+        <v>0.8691091496254693</v>
       </c>
       <c r="L32" t="n" s="312">
-        <v>1.544976112987249</v>
+        <v>1.5214734865043087</v>
       </c>
       <c r="M32" t="n" s="313">
-        <v>0.8913652241524849</v>
+        <v>0.864147170703382</v>
       </c>
     </row>
     <row r="33">
@@ -9786,16 +9855,16 @@
         <v>32.0</v>
       </c>
       <c r="J33" t="n" s="310">
-        <v>0.4652124264381066</v>
+        <v>0.44121539697913714</v>
       </c>
       <c r="K33" t="n" s="311">
-        <v>-0.6151810086373277</v>
+        <v>-0.6734569204393255</v>
       </c>
       <c r="L33" t="n" s="312">
-        <v>0.3413098900072718</v>
+        <v>0.3325626412754266</v>
       </c>
       <c r="M33" t="n" s="313">
-        <v>-1.0191141236850605</v>
+        <v>-1.0340337535882238</v>
       </c>
     </row>
     <row r="34">
@@ -9827,185 +9896,185 @@
         <v>33.0</v>
       </c>
       <c r="J34" t="n" s="310">
-        <v>0.7651355381373621</v>
+        <v>0.7344898652381346</v>
       </c>
       <c r="K34" t="n" s="311">
-        <v>-0.31211280610557335</v>
+        <v>-0.3762214399676276</v>
       </c>
       <c r="L34" t="n" s="312">
-        <v>0.76314777223187</v>
+        <v>0.7259945167703251</v>
       </c>
       <c r="M34" t="n" s="313">
-        <v>-0.334983440715216</v>
+        <v>-0.412587106410791</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="301">
-        <v>10210.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B35" t="n" s="302">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C35" t="n" s="303">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D35" t="n" s="304">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E35" t="n" s="305">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F35" t="n" s="306">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G35" t="n" s="307">
         <v>3.0</v>
       </c>
       <c r="H35" t="n" s="308">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" t="n" s="309">
         <v>34.0</v>
       </c>
       <c r="J35" t="n" s="310">
-        <v>0.05709170544153611</v>
+        <v>1.0366721315593324</v>
       </c>
       <c r="K35" t="n" s="311">
-        <v>-3.3985154371707584</v>
+        <v>0.28382146777311645</v>
       </c>
       <c r="L35" t="n" s="312">
-        <v>0.05909584259648373</v>
+        <v>1.126246376096522</v>
       </c>
       <c r="M35" t="n" s="313">
-        <v>-3.420910797888709</v>
+        <v>0.4031225077226366</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="301">
-        <v>10211.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B36" t="n" s="302">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C36" t="n" s="303">
         <v>3.0</v>
       </c>
       <c r="D36" t="n" s="304">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E36" t="n" s="305">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F36" t="n" s="306">
         <v>2.0</v>
       </c>
       <c r="G36" t="n" s="307">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H36" t="n" s="308">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I36" t="n" s="309">
         <v>35.0</v>
       </c>
       <c r="J36" t="n" s="310">
-        <v>1.426125590428537</v>
+        <v>0.0460713438054459</v>
       </c>
       <c r="K36" t="n" s="311">
-        <v>0.939198912238532</v>
+        <v>-3.5866299452653214</v>
       </c>
       <c r="L36" t="n" s="312">
-        <v>1.3269273426008472</v>
+        <v>0.047749898979125516</v>
       </c>
       <c r="M36" t="n" s="313">
-        <v>0.7724573016564064</v>
+        <v>-3.63865371971284</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="301">
-        <v>10212.0</v>
+        <v>10211.0</v>
       </c>
       <c r="B37" t="n" s="302">
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="n" s="303">
+        <v>3.0</v>
+      </c>
+      <c r="D37" t="n" s="304">
+        <v>2.0</v>
+      </c>
+      <c r="E37" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="C37" t="n" s="303">
-        <v>7.0</v>
-      </c>
-      <c r="D37" t="n" s="304">
+      <c r="F37" t="n" s="306">
+        <v>2.0</v>
+      </c>
+      <c r="G37" t="n" s="307">
+        <v>6.0</v>
+      </c>
+      <c r="H37" t="n" s="308">
         <v>5.0</v>
-      </c>
-      <c r="E37" t="n" s="305">
-        <v>7.0</v>
-      </c>
-      <c r="F37" t="n" s="306">
-        <v>7.0</v>
-      </c>
-      <c r="G37" t="n" s="307">
-        <v>7.0</v>
-      </c>
-      <c r="H37" t="n" s="308">
-        <v>4.0</v>
       </c>
       <c r="I37" t="n" s="309">
         <v>36.0</v>
       </c>
       <c r="J37" t="n" s="310">
-        <v>0.7318565027904436</v>
+        <v>1.34523881606554</v>
       </c>
       <c r="K37" t="n" s="311">
-        <v>-0.2824139991820498</v>
+        <v>0.8127600749314858</v>
       </c>
       <c r="L37" t="n" s="312">
-        <v>0.769737071799965</v>
+        <v>1.2606515919536896</v>
       </c>
       <c r="M37" t="n" s="313">
-        <v>-0.24635476102844997</v>
+        <v>0.6631089489088872</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="301">
-        <v>10213.0</v>
+        <v>10212.0</v>
       </c>
       <c r="B38" t="n" s="302">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C38" t="n" s="303">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D38" t="n" s="304">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" t="n" s="305">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F38" t="n" s="306">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="G38" t="n" s="307">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H38" t="n" s="308">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I38" t="n" s="309">
         <v>37.0</v>
       </c>
       <c r="J38" t="n" s="310">
-        <v>1.1437123068064763</v>
+        <v>0.7343615434588356</v>
       </c>
       <c r="K38" t="n" s="311">
-        <v>0.4469350494596738</v>
+        <v>-0.2758126485492346</v>
       </c>
       <c r="L38" t="n" s="312">
-        <v>1.1584858298416483</v>
+        <v>0.7772220766434875</v>
       </c>
       <c r="M38" t="n" s="313">
-        <v>0.47488382783859956</v>
+        <v>-0.22352823926955429</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="301">
-        <v>10214.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B39" t="n" s="302">
         <v>4.0</v>
@@ -10014,16 +10083,16 @@
         <v>4.0</v>
       </c>
       <c r="D39" t="n" s="304">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E39" t="n" s="305">
         <v>4.0</v>
       </c>
       <c r="F39" t="n" s="306">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n" s="307">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H39" t="n" s="308">
         <v>2.0</v>
@@ -10032,68 +10101,68 @@
         <v>38.0</v>
       </c>
       <c r="J39" t="n" s="310">
-        <v>0.08661672804234492</v>
+        <v>1.1049704968310308</v>
       </c>
       <c r="K39" t="n" s="311">
-        <v>-3.3064597184396325</v>
+        <v>0.37225772838589727</v>
       </c>
       <c r="L39" t="n" s="312">
-        <v>0.08486446120088495</v>
+        <v>1.1222871730994486</v>
       </c>
       <c r="M39" t="n" s="313">
-        <v>-3.3164312148551174</v>
+        <v>0.40619726174777393</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="301">
-        <v>10215.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B40" t="n" s="302">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C40" t="n" s="303">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D40" t="n" s="304">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E40" t="n" s="305">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F40" t="n" s="306">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G40" t="n" s="307">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="H40" t="n" s="308">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I40" t="n" s="309">
         <v>39.0</v>
       </c>
       <c r="J40" t="n" s="310">
-        <v>0.6878319395120807</v>
+        <v>0.08057410972835544</v>
       </c>
       <c r="K40" t="n" s="311">
-        <v>-0.1968552486846411</v>
+        <v>-3.427560067098874</v>
       </c>
       <c r="L40" t="n" s="312">
-        <v>0.9226539696799774</v>
+        <v>0.0786759991140671</v>
       </c>
       <c r="M40" t="n" s="313">
-        <v>0.12866991596073124</v>
+        <v>-3.4398414483631257</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="301">
-        <v>10216.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B41" t="n" s="302">
         <v>7.0</v>
       </c>
       <c r="C41" t="n" s="303">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D41" t="n" s="304">
         <v>7.0</v>
@@ -10102,39 +10171,39 @@
         <v>7.0</v>
       </c>
       <c r="F41" t="n" s="306">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G41" t="n" s="307">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H41" t="n" s="308">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="I41" t="n" s="309">
         <v>40.0</v>
       </c>
       <c r="J41" t="n" s="310">
-        <v>1.5542479852265714</v>
+        <v>0.7440030899404348</v>
       </c>
       <c r="K41" t="n" s="311">
-        <v>0.9076831666140617</v>
+        <v>-0.10909662559588806</v>
       </c>
       <c r="L41" t="n" s="312">
-        <v>1.4884329209767688</v>
+        <v>0.9848416366181945</v>
       </c>
       <c r="M41" t="n" s="313">
-        <v>0.8679624756001695</v>
+        <v>0.21984859659020134</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="301">
-        <v>10217.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B42" t="n" s="302">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C42" t="n" s="303">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D42" t="n" s="304">
         <v>7.0</v>
@@ -10143,162 +10212,162 @@
         <v>7.0</v>
       </c>
       <c r="F42" t="n" s="306">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G42" t="n" s="307">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H42" t="n" s="308">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="I42" t="n" s="309">
         <v>41.0</v>
       </c>
       <c r="J42" t="n" s="310">
-        <v>0.8911398353018273</v>
+        <v>1.501236058750069</v>
       </c>
       <c r="K42" t="n" s="311">
-        <v>-0.004686003379400339</v>
+        <v>0.852149222479019</v>
       </c>
       <c r="L42" t="n" s="312">
-        <v>0.9158144331245587</v>
+        <v>1.4561775674870068</v>
       </c>
       <c r="M42" t="n" s="313">
-        <v>0.023703117478567542</v>
+        <v>0.8264246817054117</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="301">
-        <v>10218.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B43" t="n" s="302">
         <v>6.0</v>
       </c>
       <c r="C43" t="n" s="303">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D43" t="n" s="304">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E43" t="n" s="305">
         <v>7.0</v>
       </c>
       <c r="F43" t="n" s="306">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G43" t="n" s="307">
         <v>6.0</v>
       </c>
       <c r="H43" t="n" s="308">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I43" t="n" s="309">
         <v>42.0</v>
       </c>
       <c r="J43" t="n" s="310">
-        <v>0.41794093814097083</v>
+        <v>0.976506565476436</v>
       </c>
       <c r="K43" t="n" s="311">
-        <v>-1.3939805134667334</v>
+        <v>0.15177024112070586</v>
       </c>
       <c r="L43" t="n" s="312">
-        <v>0.4096875579716306</v>
+        <v>0.9768923970599855</v>
       </c>
       <c r="M43" t="n" s="313">
-        <v>-1.4308437019396436</v>
+        <v>0.14259153671644922</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="301">
-        <v>10219.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B44" t="n" s="302">
         <v>6.0</v>
       </c>
       <c r="C44" t="n" s="303">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D44" t="n" s="304">
         <v>4.0</v>
       </c>
       <c r="E44" t="n" s="305">
+        <v>7.0</v>
+      </c>
+      <c r="F44" t="n" s="306">
         <v>5.0</v>
       </c>
-      <c r="F44" t="n" s="306">
-        <v>4.0</v>
-      </c>
       <c r="G44" t="n" s="307">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H44" t="n" s="308">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I44" t="n" s="309">
         <v>43.0</v>
       </c>
       <c r="J44" t="n" s="310">
-        <v>1.239179917751294</v>
+        <v>0.4332480961562561</v>
       </c>
       <c r="K44" t="n" s="311">
-        <v>0.6228287043011359</v>
+        <v>-1.3205991606372804</v>
       </c>
       <c r="L44" t="n" s="312">
-        <v>1.237933200776661</v>
+        <v>0.4273774846686155</v>
       </c>
       <c r="M44" t="n" s="313">
-        <v>0.6199950092269425</v>
+        <v>-1.3453638321592662</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="301">
-        <v>10220.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B45" t="n" s="302">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C45" t="n" s="303">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="D45" t="n" s="304">
         <v>4.0</v>
       </c>
       <c r="E45" t="n" s="305">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F45" t="n" s="306">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G45" t="n" s="307">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H45" t="n" s="308">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" t="n" s="309">
         <v>44.0</v>
       </c>
       <c r="J45" t="n" s="310">
-        <v>2.0588189047023517</v>
+        <v>1.2613918544943752</v>
       </c>
       <c r="K45" t="n" s="311">
-        <v>1.2366032370588689</v>
+        <v>0.667227786366867</v>
       </c>
       <c r="L45" t="n" s="312">
-        <v>1.8999051307792914</v>
+        <v>1.271219854674064</v>
       </c>
       <c r="M45" t="n" s="313">
-        <v>1.1564122806028867</v>
+        <v>0.6841579342018198</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="301">
-        <v>10221.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B46" t="n" s="302">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C46" t="n" s="303">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D46" t="n" s="304">
         <v>4.0</v>
@@ -10307,83 +10376,83 @@
         <v>7.0</v>
       </c>
       <c r="F46" t="n" s="306">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G46" t="n" s="307">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H46" t="n" s="308">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="I46" t="n" s="309">
         <v>45.0</v>
       </c>
       <c r="J46" t="n" s="310">
-        <v>0.930474209190316</v>
+        <v>2.0033141691530245</v>
       </c>
       <c r="K46" t="n" s="311">
-        <v>0.007177515788697575</v>
+        <v>1.2005567699566781</v>
       </c>
       <c r="L46" t="n" s="312">
-        <v>0.9055941147974668</v>
+        <v>1.8918421118389643</v>
       </c>
       <c r="M46" t="n" s="313">
-        <v>-0.04740971038176023</v>
+        <v>1.1475113901349534</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="301">
-        <v>10223.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B47" t="n" s="302">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C47" t="n" s="303">
         <v>6.0</v>
       </c>
       <c r="D47" t="n" s="304">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E47" t="n" s="305">
         <v>7.0</v>
       </c>
       <c r="F47" t="n" s="306">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G47" t="n" s="307">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H47" t="n" s="308">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n" s="309">
         <v>46.0</v>
       </c>
       <c r="J47" t="n" s="310">
-        <v>0.524500267697661</v>
+        <v>0.8936168200350335</v>
       </c>
       <c r="K47" t="n" s="311">
-        <v>-0.74803823603786</v>
+        <v>-0.07543396770666358</v>
       </c>
       <c r="L47" t="n" s="312">
-        <v>0.37591809745142385</v>
+        <v>0.8723062274631151</v>
       </c>
       <c r="M47" t="n" s="313">
-        <v>-1.2659470238719428</v>
+        <v>-0.12333783453577848</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="301">
-        <v>10224.0</v>
+        <v>10222.0</v>
       </c>
       <c r="B48" t="n" s="302">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n" s="303">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D48" t="n" s="304">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E48" t="n" s="305">
         <v>1.0</v>
@@ -10392,7 +10461,7 @@
         <v>1.0</v>
       </c>
       <c r="G48" t="n" s="307">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="H48" t="n" s="308">
         <v>2.0</v>
@@ -10401,226 +10470,226 @@
         <v>47.0</v>
       </c>
       <c r="J48" t="n" s="310">
-        <v>1.875912683621505</v>
+        <v>0.4125999726373613</v>
       </c>
       <c r="K48" t="n" s="311">
-        <v>1.606037263136526</v>
+        <v>-0.7564342581406494</v>
       </c>
       <c r="L48" t="n" s="312">
-        <v>1.9565725589786964</v>
+        <v>0.3499094259498121</v>
       </c>
       <c r="M48" t="n" s="313">
-        <v>1.7100748305146352</v>
+        <v>-1.0126054342148825</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="301">
-        <v>10226.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B49" t="n" s="302">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C49" t="n" s="303">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D49" t="n" s="304">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E49" t="n" s="305">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F49" t="n" s="306">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G49" t="n" s="307">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H49" t="n" s="308">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="I49" t="n" s="309">
         <v>48.0</v>
       </c>
       <c r="J49" t="n" s="310">
-        <v>0.706198643065056</v>
+        <v>0.4997768217048149</v>
       </c>
       <c r="K49" t="n" s="311">
-        <v>-0.49114658831272495</v>
+        <v>-0.8085729682825725</v>
       </c>
       <c r="L49" t="n" s="312">
-        <v>0.7446448793666052</v>
+        <v>0.3648105037897708</v>
       </c>
       <c r="M49" t="n" s="313">
-        <v>-0.3972713106282685</v>
+        <v>-1.2834390619008498</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="301">
-        <v>10227.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B50" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="C50" t="n" s="303">
+        <v>7.0</v>
+      </c>
+      <c r="D50" t="n" s="304">
+        <v>4.0</v>
+      </c>
+      <c r="E50" t="n" s="305">
+        <v>1.0</v>
+      </c>
+      <c r="F50" t="n" s="306">
+        <v>1.0</v>
+      </c>
+      <c r="G50" t="n" s="307">
         <v>5.0</v>
       </c>
-      <c r="C50" t="n" s="303">
-        <v>6.0</v>
-      </c>
-      <c r="D50" t="n" s="304">
-        <v>4.0</v>
-      </c>
-      <c r="E50" t="n" s="305">
-        <v>5.0</v>
-      </c>
-      <c r="F50" t="n" s="306">
-        <v>3.0</v>
-      </c>
-      <c r="G50" t="n" s="307">
-        <v>6.0</v>
-      </c>
       <c r="H50" t="n" s="308">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I50" t="n" s="309">
         <v>49.0</v>
       </c>
       <c r="J50" t="n" s="310">
-        <v>0.2839111717898553</v>
+        <v>1.7057564079493244</v>
       </c>
       <c r="K50" t="n" s="311">
-        <v>-2.016744719204687</v>
+        <v>1.384869986232164</v>
       </c>
       <c r="L50" t="n" s="312">
-        <v>0.2908893423322253</v>
+        <v>1.780579696297389</v>
       </c>
       <c r="M50" t="n" s="313">
-        <v>-1.9750027091618685</v>
+        <v>1.490185660448437</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="301">
-        <v>10228.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B51" t="n" s="302">
+        <v>2.0</v>
+      </c>
+      <c r="C51" t="n" s="303">
+        <v>2.0</v>
+      </c>
+      <c r="D51" t="n" s="304">
+        <v>4.0</v>
+      </c>
+      <c r="E51" t="n" s="305">
         <v>3.0</v>
       </c>
-      <c r="C51" t="n" s="303">
-        <v>4.0</v>
-      </c>
-      <c r="D51" t="n" s="304">
-        <v>5.0</v>
-      </c>
-      <c r="E51" t="n" s="305">
-        <v>6.0</v>
-      </c>
       <c r="F51" t="n" s="306">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G51" t="n" s="307">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H51" t="n" s="308">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I51" t="n" s="309">
         <v>50.0</v>
       </c>
       <c r="J51" t="n" s="310">
-        <v>0.2888165546245876</v>
+        <v>0.6900620353230901</v>
       </c>
       <c r="K51" t="n" s="311">
-        <v>-1.9920500139964938</v>
+        <v>-0.5444938454817128</v>
       </c>
       <c r="L51" t="n" s="312">
-        <v>0.29583761077475784</v>
+        <v>0.7280868422294579</v>
       </c>
       <c r="M51" t="n" s="313">
-        <v>-1.9515295227626002</v>
+        <v>-0.4518471161168606</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="301">
-        <v>10230.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B52" t="n" s="302">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C52" t="n" s="303">
+        <v>6.0</v>
+      </c>
+      <c r="D52" t="n" s="304">
+        <v>4.0</v>
+      </c>
+      <c r="E52" t="n" s="305">
         <v>5.0</v>
       </c>
-      <c r="D52" t="n" s="304">
-        <v>7.0</v>
-      </c>
-      <c r="E52" t="n" s="305">
+      <c r="F52" t="n" s="306">
         <v>3.0</v>
       </c>
-      <c r="F52" t="n" s="306">
-        <v>4.0</v>
-      </c>
       <c r="G52" t="n" s="307">
+        <v>6.0</v>
+      </c>
+      <c r="H52" t="n" s="308">
         <v>3.0</v>
-      </c>
-      <c r="H52" t="n" s="308">
-        <v>4.0</v>
       </c>
       <c r="I52" t="n" s="309">
         <v>51.0</v>
       </c>
       <c r="J52" t="n" s="310">
-        <v>1.4503019769463634</v>
+        <v>0.25280100615119766</v>
       </c>
       <c r="K52" t="n" s="311">
-        <v>0.9945736757138587</v>
+        <v>-2.16626581482114</v>
       </c>
       <c r="L52" t="n" s="312">
-        <v>1.3761618065335606</v>
+        <v>0.25626027022482667</v>
       </c>
       <c r="M52" t="n" s="313">
-        <v>0.8681709562445957</v>
+        <v>-2.141503039116333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="301">
-        <v>10231.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B53" t="n" s="302">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C53" t="n" s="303">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D53" t="n" s="304">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E53" t="n" s="305">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F53" t="n" s="306">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G53" t="n" s="307">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H53" t="n" s="308">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="I53" t="n" s="309">
         <v>52.0</v>
       </c>
       <c r="J53" t="n" s="310">
-        <v>0.4446498407991603</v>
+        <v>0.3022021808029556</v>
       </c>
       <c r="K53" t="n" s="311">
-        <v>-0.40313020464608684</v>
+        <v>-1.9269016092067455</v>
       </c>
       <c r="L53" t="n" s="312">
-        <v>0.4766659148846013</v>
+        <v>0.3097902405671959</v>
       </c>
       <c r="M53" t="n" s="313">
-        <v>-0.39203110458479046</v>
+        <v>-1.886519859555459</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="301">
-        <v>10232.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B54" t="n" s="302">
         <v>6.0</v>
@@ -10629,16 +10698,16 @@
         <v>5.0</v>
       </c>
       <c r="D54" t="n" s="304">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E54" t="n" s="305">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F54" t="n" s="306">
         <v>4.0</v>
       </c>
       <c r="G54" t="n" s="307">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H54" t="n" s="308">
         <v>4.0</v>
@@ -10647,80 +10716,80 @@
         <v>53.0</v>
       </c>
       <c r="J54" t="n" s="310">
-        <v>0.35492660347191035</v>
+        <v>1.4000428205816249</v>
       </c>
       <c r="K54" t="n" s="311">
-        <v>-1.6384371047126247</v>
+        <v>0.9085709970081667</v>
       </c>
       <c r="L54" t="n" s="312">
-        <v>0.33380402920567065</v>
+        <v>1.324940048281247</v>
       </c>
       <c r="M54" t="n" s="313">
-        <v>-1.734232351823537</v>
+        <v>0.7785418316132818</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="301">
-        <v>10233.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B55" t="n" s="302">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C55" t="n" s="303">
         <v>6.0</v>
       </c>
       <c r="D55" t="n" s="304">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E55" t="n" s="305">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F55" t="n" s="306">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G55" t="n" s="307">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H55" t="n" s="308">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="I55" t="n" s="309">
         <v>54.0</v>
       </c>
       <c r="J55" t="n" s="310">
-        <v>1.1421152529518748</v>
+        <v>0.6019399759715777</v>
       </c>
       <c r="K55" t="n" s="311">
-        <v>0.442449570420579</v>
+        <v>-0.08676345311523426</v>
       </c>
       <c r="L55" t="n" s="312">
-        <v>1.1750771646995868</v>
+        <v>0.6038207457301364</v>
       </c>
       <c r="M55" t="n" s="313">
-        <v>0.5039568646706052</v>
+        <v>-0.10215210420396675</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="301">
-        <v>10234.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B56" t="n" s="302">
         <v>6.0</v>
       </c>
       <c r="C56" t="n" s="303">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D56" t="n" s="304">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E56" t="n" s="305">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F56" t="n" s="306">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G56" t="n" s="307">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H56" t="n" s="308">
         <v>4.0</v>
@@ -10729,68 +10798,68 @@
         <v>55.0</v>
       </c>
       <c r="J56" t="n" s="310">
-        <v>0.944834434232246</v>
+        <v>0.3598786016961812</v>
       </c>
       <c r="K56" t="n" s="311">
-        <v>0.04316330663948685</v>
+        <v>-1.5974720300692185</v>
       </c>
       <c r="L56" t="n" s="312">
-        <v>0.9409930681540265</v>
+        <v>0.33700794561692443</v>
       </c>
       <c r="M56" t="n" s="313">
-        <v>0.035405033952882387</v>
+        <v>-1.696039727462633</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="301">
-        <v>10237.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B57" t="n" s="302">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n" s="303">
+        <v>6.0</v>
+      </c>
+      <c r="D57" t="n" s="304">
         <v>5.0</v>
       </c>
-      <c r="C57" t="n" s="303">
-        <v>7.0</v>
-      </c>
-      <c r="D57" t="n" s="304">
+      <c r="E57" t="n" s="305">
+        <v>5.0</v>
+      </c>
+      <c r="F57" t="n" s="306">
+        <v>2.0</v>
+      </c>
+      <c r="G57" t="n" s="307">
         <v>3.0</v>
       </c>
-      <c r="E57" t="n" s="305">
-        <v>6.0</v>
-      </c>
-      <c r="F57" t="n" s="306">
-        <v>6.0</v>
-      </c>
-      <c r="G57" t="n" s="307">
-        <v>6.0</v>
-      </c>
       <c r="H57" t="n" s="308">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I57" t="n" s="309">
         <v>56.0</v>
       </c>
       <c r="J57" t="n" s="310">
-        <v>0.774095777213059</v>
+        <v>1.0362863506621605</v>
       </c>
       <c r="K57" t="n" s="311">
-        <v>-0.3298217818519882</v>
+        <v>0.23386434507988985</v>
       </c>
       <c r="L57" t="n" s="312">
-        <v>0.8009617256998662</v>
+        <v>1.0687107800054938</v>
       </c>
       <c r="M57" t="n" s="313">
-        <v>-0.27190184300224685</v>
+        <v>0.2998475730059656</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="301">
-        <v>10238.0</v>
+        <v>10234.0</v>
       </c>
       <c r="B58" t="n" s="302">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C58" t="n" s="303">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D58" t="n" s="304">
         <v>3.0</v>
@@ -10799,28 +10868,151 @@
         <v>4.0</v>
       </c>
       <c r="F58" t="n" s="306">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G58" t="n" s="307">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H58" t="n" s="308">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I58" t="n" s="309">
         <v>57.0</v>
       </c>
       <c r="J58" t="n" s="310">
-        <v>0.5646765097055637</v>
+        <v>0.93089978717248</v>
       </c>
       <c r="K58" t="n" s="311">
-        <v>-0.9124445492446579</v>
+        <v>0.008847031024123542</v>
       </c>
       <c r="L58" t="n" s="312">
-        <v>0.5582826484622871</v>
+        <v>0.935855666964416</v>
       </c>
       <c r="M58" t="n" s="313">
-        <v>-0.928335415494903</v>
+        <v>0.02041584316444589</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="301">
+        <v>10237.0</v>
+      </c>
+      <c r="B59" t="n" s="302">
+        <v>5.0</v>
+      </c>
+      <c r="C59" t="n" s="303">
+        <v>7.0</v>
+      </c>
+      <c r="D59" t="n" s="304">
+        <v>3.0</v>
+      </c>
+      <c r="E59" t="n" s="305">
+        <v>6.0</v>
+      </c>
+      <c r="F59" t="n" s="306">
+        <v>6.0</v>
+      </c>
+      <c r="G59" t="n" s="307">
+        <v>6.0</v>
+      </c>
+      <c r="H59" t="n" s="308">
+        <v>4.0</v>
+      </c>
+      <c r="I59" t="n" s="309">
+        <v>58.0</v>
+      </c>
+      <c r="J59" t="n" s="310">
+        <v>0.7406887162623247</v>
+      </c>
+      <c r="K59" t="n" s="311">
+        <v>-0.40289095797644137</v>
+      </c>
+      <c r="L59" t="n" s="312">
+        <v>0.7595257159633535</v>
+      </c>
+      <c r="M59" t="n" s="313">
+        <v>-0.3621777026461166</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="301">
+        <v>10238.0</v>
+      </c>
+      <c r="B60" t="n" s="302">
+        <v>4.0</v>
+      </c>
+      <c r="C60" t="n" s="303">
+        <v>3.0</v>
+      </c>
+      <c r="D60" t="n" s="304">
+        <v>3.0</v>
+      </c>
+      <c r="E60" t="n" s="305">
+        <v>4.0</v>
+      </c>
+      <c r="F60" t="n" s="306">
+        <v>1.0</v>
+      </c>
+      <c r="G60" t="n" s="307">
+        <v>6.0</v>
+      </c>
+      <c r="H60" t="n" s="308">
+        <v>3.0</v>
+      </c>
+      <c r="I60" t="n" s="309">
+        <v>59.0</v>
+      </c>
+      <c r="J60" t="n" s="310">
+        <v>0.542213373816307</v>
+      </c>
+      <c r="K60" t="n" s="311">
+        <v>-1.002435716634041</v>
+      </c>
+      <c r="L60" t="n" s="312">
+        <v>0.5354548057641876</v>
+      </c>
+      <c r="M60" t="n" s="313">
+        <v>-1.0203639776149491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="301">
+        <v>10240.0</v>
+      </c>
+      <c r="B61" t="n" s="302">
+        <v>2.0</v>
+      </c>
+      <c r="C61" t="n" s="303">
+        <v>6.0</v>
+      </c>
+      <c r="D61" t="n" s="304">
+        <v>1.0</v>
+      </c>
+      <c r="E61" t="n" s="305">
+        <v>3.0</v>
+      </c>
+      <c r="F61" t="n" s="306">
+        <v>1.0</v>
+      </c>
+      <c r="G61" t="n" s="307">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="n" s="308">
+        <v>4.0</v>
+      </c>
+      <c r="I61" t="n" s="309">
+        <v>60.0</v>
+      </c>
+      <c r="J61" t="n" s="310">
+        <v>2.104128549750878</v>
+      </c>
+      <c r="K61" t="n" s="311">
+        <v>1.8190155416012226</v>
+      </c>
+      <c r="L61" t="n" s="312">
+        <v>2.0251800265322757</v>
+      </c>
+      <c r="M61" t="n" s="313">
+        <v>1.7513894019495888</v>
       </c>
     </row>
   </sheetData>
@@ -10939,13 +11131,13 @@
         <v>49.0</v>
       </c>
       <c r="M2" t="n" s="332">
-        <v>-0.030134652851286192</v>
+        <v>0.029085845594083753</v>
       </c>
       <c r="N2" t="n" s="333">
-        <v>0.27830827755994264</v>
+        <v>0.2761997437680368</v>
       </c>
       <c r="O2" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="3">
@@ -10986,13 +11178,13 @@
         <v>49.0</v>
       </c>
       <c r="M3" t="n" s="332">
-        <v>0.8943229165850428</v>
+        <v>0.9533196428626873</v>
       </c>
       <c r="N3" t="n" s="333">
-        <v>0.4194463130048942</v>
+        <v>0.4210657328275473</v>
       </c>
       <c r="O3" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="4">
@@ -11033,13 +11225,13 @@
         <v>49.0</v>
       </c>
       <c r="M4" t="n" s="332">
-        <v>0.29679621060207495</v>
+        <v>0.3532728175074569</v>
       </c>
       <c r="N4" t="n" s="333">
-        <v>0.30875086550777675</v>
+        <v>0.30792780041282436</v>
       </c>
       <c r="O4" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="5">
@@ -11080,13 +11272,13 @@
         <v>49.0</v>
       </c>
       <c r="M5" t="n" s="332">
-        <v>-0.17501744571855538</v>
+        <v>-0.11336994575511815</v>
       </c>
       <c r="N5" t="n" s="333">
-        <v>0.27021175099773365</v>
+        <v>0.26746851872761307</v>
       </c>
       <c r="O5" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="6">
@@ -11127,13 +11319,13 @@
         <v>49.0</v>
       </c>
       <c r="M6" t="n" s="332">
-        <v>-0.4482465434111011</v>
+        <v>-0.3796226172307771</v>
       </c>
       <c r="N6" t="n" s="333">
-        <v>0.26256753375520664</v>
+        <v>0.25852879651187877</v>
       </c>
       <c r="O6" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="7">
@@ -11174,13 +11366,13 @@
         <v>49.0</v>
       </c>
       <c r="M7" t="n" s="332">
-        <v>2.0054504926416876</v>
+        <v>1.8311562417882032</v>
       </c>
       <c r="N7" t="n" s="333">
-        <v>0.8528449155057629</v>
+        <v>0.7370817237278837</v>
       </c>
       <c r="O7" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="8">
@@ -11221,13 +11413,13 @@
         <v>49.0</v>
       </c>
       <c r="M8" t="n" s="332">
-        <v>0.04589615724245862</v>
+        <v>0.10416310867451942</v>
       </c>
       <c r="N8" t="n" s="333">
-        <v>0.28380551974698776</v>
+        <v>0.2820123021870332</v>
       </c>
       <c r="O8" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="9">
@@ -11268,13 +11460,13 @@
         <v>49.0</v>
       </c>
       <c r="M9" t="n" s="332">
-        <v>0.04589615724245862</v>
+        <v>0.10416310867451942</v>
       </c>
       <c r="N9" t="n" s="333">
-        <v>0.28380551974698776</v>
+        <v>0.2820123021870332</v>
       </c>
       <c r="O9" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="10">
@@ -11315,13 +11507,13 @@
         <v>49.0</v>
       </c>
       <c r="M10" t="n" s="332">
-        <v>-0.9227598848005457</v>
+        <v>-0.8346470363465187</v>
       </c>
       <c r="N10" t="n" s="333">
-        <v>0.2698144036735994</v>
+        <v>0.26350213669781025</v>
       </c>
       <c r="O10" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="11">
@@ -11362,13 +11554,13 @@
         <v>49.0</v>
       </c>
       <c r="M11" t="n" s="332">
-        <v>-0.030134652851286192</v>
+        <v>0.029085845594083753</v>
       </c>
       <c r="N11" t="n" s="333">
-        <v>0.27830827755994264</v>
+        <v>0.2761997437680368</v>
       </c>
       <c r="O11" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="12">
@@ -11409,13 +11601,13 @@
         <v>49.0</v>
       </c>
       <c r="M12" t="n" s="332">
-        <v>-0.030134652851286192</v>
+        <v>0.029085845594083753</v>
       </c>
       <c r="N12" t="n" s="333">
-        <v>0.27830827755994264</v>
+        <v>0.2761997437680368</v>
       </c>
       <c r="O12" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="13">
@@ -11456,13 +11648,13 @@
         <v>49.0</v>
       </c>
       <c r="M13" t="n" s="332">
-        <v>0.12514384361559897</v>
+        <v>0.1826315109876667</v>
       </c>
       <c r="N13" t="n" s="333">
-        <v>0.2905154401851064</v>
+        <v>0.28903869373885943</v>
       </c>
       <c r="O13" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="14">
@@ -11503,13 +11695,13 @@
         <v>49.0</v>
       </c>
       <c r="M14" t="n" s="332">
-        <v>-0.4482465434111011</v>
+        <v>-0.3796226172307771</v>
       </c>
       <c r="N14" t="n" s="333">
-        <v>0.26256753375520664</v>
+        <v>0.25852879651187877</v>
       </c>
       <c r="O14" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="15">
@@ -11550,13 +11742,13 @@
         <v>49.0</v>
       </c>
       <c r="M15" t="n" s="332">
-        <v>0.29679621060207495</v>
+        <v>0.3532728175074569</v>
       </c>
       <c r="N15" t="n" s="333">
-        <v>0.30875086550777675</v>
+        <v>0.30792780041282436</v>
       </c>
       <c r="O15" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="16">
@@ -11597,13 +11789,13 @@
         <v>49.0</v>
       </c>
       <c r="M16" t="n" s="332">
-        <v>0.4950446217326467</v>
+        <v>0.5513721786467692</v>
       </c>
       <c r="N16" t="n" s="333">
-        <v>0.3367836138386369</v>
+        <v>0.3367015015186281</v>
       </c>
       <c r="O16" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="17">
@@ -11644,13 +11836,13 @@
         <v>49.0</v>
       </c>
       <c r="M17" t="n" s="332">
-        <v>-0.38114058227050224</v>
+        <v>-0.3145315399213145</v>
       </c>
       <c r="N17" t="n" s="333">
-        <v>0.2635865062093852</v>
+        <v>0.25987423721478164</v>
       </c>
       <c r="O17" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="18">
@@ -11691,13 +11883,13 @@
         <v>49.0</v>
       </c>
       <c r="M18" t="n" s="332">
-        <v>-0.17501744571855538</v>
+        <v>-0.11336994575511815</v>
       </c>
       <c r="N18" t="n" s="333">
-        <v>0.27021175099773365</v>
+        <v>0.26746851872761307</v>
       </c>
       <c r="O18" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="19">
@@ -11738,13 +11930,13 @@
         <v>49.0</v>
       </c>
       <c r="M19" t="n" s="332">
-        <v>0.20842448364859056</v>
+        <v>0.2653117735166505</v>
       </c>
       <c r="N19" t="n" s="333">
-        <v>0.2987063559002963</v>
+        <v>0.29755097233841526</v>
       </c>
       <c r="O19" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="20">
@@ -11785,13 +11977,13 @@
         <v>49.0</v>
       </c>
       <c r="M20" t="n" s="332">
-        <v>-0.030134652851286192</v>
+        <v>0.029085845594083753</v>
       </c>
       <c r="N20" t="n" s="333">
-        <v>0.27830827755994264</v>
+        <v>0.2761997437680368</v>
       </c>
       <c r="O20" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="21">
@@ -11832,13 +12024,13 @@
         <v>49.0</v>
       </c>
       <c r="M21" t="n" s="332">
-        <v>-0.5817287332334116</v>
+        <v>-0.5085173248840036</v>
       </c>
       <c r="N21" t="n" s="333">
-        <v>0.2620907084035711</v>
+        <v>0.2573974142469875</v>
       </c>
       <c r="O21" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="22">
@@ -11879,13 +12071,13 @@
         <v>49.0</v>
       </c>
       <c r="M22" t="n" s="332">
-        <v>-0.3134362243049981</v>
+        <v>-0.24865992436960874</v>
       </c>
       <c r="N22" t="n" s="333">
-        <v>0.2651660422645224</v>
+        <v>0.2617788528689666</v>
       </c>
       <c r="O22" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="23">
@@ -11926,13 +12118,13 @@
         <v>49.0</v>
       </c>
       <c r="M23" t="n" s="332">
-        <v>-0.24483839124293222</v>
+        <v>-0.18171517871913662</v>
       </c>
       <c r="N23" t="n" s="333">
-        <v>0.26735321034886234</v>
+        <v>0.2642891624777203</v>
       </c>
       <c r="O23" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="24">
@@ -11973,13 +12165,13 @@
         <v>49.0</v>
       </c>
       <c r="M24" t="n" s="332">
-        <v>-0.8527022915588499</v>
+        <v>-0.7679820030768932</v>
       </c>
       <c r="N24" t="n" s="333">
-        <v>0.2671847031339451</v>
+        <v>0.26119267841708754</v>
       </c>
       <c r="O24" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="25">
@@ -12020,13 +12212,13 @@
         <v>49.0</v>
       </c>
       <c r="M25" t="n" s="332">
-        <v>1.3443366272682065</v>
+        <v>1.6322122381693922</v>
       </c>
       <c r="N25" t="n" s="333">
-        <v>0.5591024679315759</v>
+        <v>0.6499317220165242</v>
       </c>
       <c r="O25" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="26">
@@ -12067,13 +12259,13 @@
         <v>49.0</v>
       </c>
       <c r="M26" t="n" s="332">
-        <v>2.7505208186856596</v>
+        <v>2.8420190054339383</v>
       </c>
       <c r="N26" t="n" s="333">
-        <v>1.31352033501373</v>
+        <v>1.3266793169242364</v>
       </c>
       <c r="O26" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="27">
@@ -12114,13 +12306,13 @@
         <v>49.0</v>
       </c>
       <c r="M27" t="n" s="332">
-        <v>2.7505208186856596</v>
+        <v>2.8420190054339383</v>
       </c>
       <c r="N27" t="n" s="333">
-        <v>1.31352033501373</v>
+        <v>1.3266793169242364</v>
       </c>
       <c r="O27" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="28">
@@ -12161,13 +12353,13 @@
         <v>49.0</v>
       </c>
       <c r="M28" t="n" s="332">
-        <v>-0.030134652851286192</v>
+        <v>0.029085845594083753</v>
       </c>
       <c r="N28" t="n" s="333">
-        <v>0.27830827755994264</v>
+        <v>0.2761997437680368</v>
       </c>
       <c r="O28" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="29">
@@ -12208,13 +12400,13 @@
         <v>49.0</v>
       </c>
       <c r="M29" t="n" s="332">
-        <v>0.29679621060207495</v>
+        <v>0.3532728175074569</v>
       </c>
       <c r="N29" t="n" s="333">
-        <v>0.30875086550777675</v>
+        <v>0.30792780041282436</v>
       </c>
       <c r="O29" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="30">
@@ -12255,13 +12447,13 @@
         <v>49.0</v>
       </c>
       <c r="M30" t="n" s="332">
-        <v>-0.9227598848005457</v>
+        <v>-0.8346470363465187</v>
       </c>
       <c r="N30" t="n" s="333">
-        <v>0.2698144036735994</v>
+        <v>0.26350213669781025</v>
       </c>
       <c r="O30" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="31">
@@ -12302,13 +12494,13 @@
         <v>49.0</v>
       </c>
       <c r="M31" t="n" s="332">
-        <v>0.60978673787075</v>
+        <v>0.6664849358736181</v>
       </c>
       <c r="N31" t="n" s="333">
-        <v>0.3567757206868551</v>
+        <v>0.3571406362438783</v>
       </c>
       <c r="O31" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="32">
@@ -12349,13 +12541,13 @@
         <v>49.0</v>
       </c>
       <c r="M32" t="n" s="332">
-        <v>0.8943229165850428</v>
+        <v>0.9533196428626873</v>
       </c>
       <c r="N32" t="n" s="333">
-        <v>0.4194463130048942</v>
+        <v>0.4210657328275473</v>
       </c>
       <c r="O32" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="33">
@@ -12396,13 +12588,13 @@
         <v>49.0</v>
       </c>
       <c r="M33" t="n" s="332">
-        <v>0.8943229165850428</v>
+        <v>0.9533196428626873</v>
       </c>
       <c r="N33" t="n" s="333">
-        <v>0.4194463130048942</v>
+        <v>0.4210657328275473</v>
       </c>
       <c r="O33" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="34">
@@ -12443,206 +12635,206 @@
         <v>49.0</v>
       </c>
       <c r="M34" t="n" s="332">
-        <v>0.20842448364859056</v>
+        <v>0.2653117735166505</v>
       </c>
       <c r="N34" t="n" s="333">
-        <v>0.2987063559002963</v>
+        <v>0.29755097233841526</v>
       </c>
       <c r="O34" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n" s="320">
-        <v>10210.0</v>
+        <v>10209.0</v>
       </c>
       <c r="B35" t="n" s="321">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C35" t="n" s="322">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D35" t="n" s="323">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E35" t="n" s="324">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="F35" t="n" s="325">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G35" t="n" s="326">
         <v>3.0</v>
       </c>
       <c r="H35" t="n" s="327">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="I35" t="n" s="328">
-        <v>10210.0</v>
+        <v>10209.0</v>
       </c>
       <c r="J35" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K35" t="n" s="330">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="L35" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M35" t="n" s="332">
-        <v>-1.3036913410126048</v>
+        <v>-1.7912323158783325</v>
       </c>
       <c r="N35" t="n" s="333">
-        <v>0.29450607327850836</v>
+        <v>0.37621626080830783</v>
       </c>
       <c r="O35" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n" s="320">
-        <v>10211.0</v>
+        <v>10210.0</v>
       </c>
       <c r="B36" t="n" s="321">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C36" t="n" s="322">
         <v>3.0</v>
       </c>
       <c r="D36" t="n" s="323">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E36" t="n" s="324">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="F36" t="n" s="325">
         <v>2.0</v>
       </c>
       <c r="G36" t="n" s="326">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="H36" t="n" s="327">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="I36" t="n" s="328">
-        <v>10211.0</v>
+        <v>10210.0</v>
       </c>
       <c r="J36" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K36" t="n" s="330">
-        <v>24.0</v>
+        <v>18.0</v>
       </c>
       <c r="L36" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M36" t="n" s="332">
-        <v>-0.8527022915588499</v>
+        <v>-1.1950467661594768</v>
       </c>
       <c r="N36" t="n" s="333">
-        <v>0.2671847031339451</v>
+        <v>0.2865919358344316</v>
       </c>
       <c r="O36" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n" s="320">
-        <v>10212.0</v>
+        <v>10211.0</v>
       </c>
       <c r="B37" t="n" s="321">
+        <v>1.0</v>
+      </c>
+      <c r="C37" t="n" s="322">
+        <v>3.0</v>
+      </c>
+      <c r="D37" t="n" s="323">
+        <v>2.0</v>
+      </c>
+      <c r="E37" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="C37" t="n" s="322">
-        <v>7.0</v>
-      </c>
-      <c r="D37" t="n" s="323">
+      <c r="F37" t="n" s="325">
+        <v>2.0</v>
+      </c>
+      <c r="G37" t="n" s="326">
+        <v>6.0</v>
+      </c>
+      <c r="H37" t="n" s="327">
         <v>5.0</v>
       </c>
-      <c r="E37" t="n" s="324">
-        <v>7.0</v>
-      </c>
-      <c r="F37" t="n" s="325">
-        <v>7.0</v>
-      </c>
-      <c r="G37" t="n" s="326">
-        <v>7.0</v>
-      </c>
-      <c r="H37" t="n" s="327">
-        <v>4.0</v>
-      </c>
       <c r="I37" t="n" s="328">
-        <v>10212.0</v>
+        <v>10211.0</v>
       </c>
       <c r="J37" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K37" t="n" s="330">
-        <v>42.0</v>
+        <v>24.0</v>
       </c>
       <c r="L37" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M37" t="n" s="332">
-        <v>0.4950446217326467</v>
+        <v>-0.7679820030768932</v>
       </c>
       <c r="N37" t="n" s="333">
-        <v>0.3367836138386369</v>
+        <v>0.26119267841708754</v>
       </c>
       <c r="O37" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n" s="320">
-        <v>10213.0</v>
+        <v>10212.0</v>
       </c>
       <c r="B38" t="n" s="321">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C38" t="n" s="322">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D38" t="n" s="323">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E38" t="n" s="324">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="F38" t="n" s="325">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="G38" t="n" s="326">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="H38" t="n" s="327">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="I38" t="n" s="328">
-        <v>10213.0</v>
+        <v>10212.0</v>
       </c>
       <c r="J38" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K38" t="n" s="330">
-        <v>28.0</v>
+        <v>42.0</v>
       </c>
       <c r="L38" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M38" t="n" s="332">
-        <v>-0.5817287332334116</v>
+        <v>0.5513721786467692</v>
       </c>
       <c r="N38" t="n" s="333">
-        <v>0.2620907084035711</v>
+        <v>0.3367015015186281</v>
       </c>
       <c r="O38" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n" s="320">
-        <v>10214.0</v>
+        <v>10213.0</v>
       </c>
       <c r="B39" t="n" s="321">
         <v>4.0</v>
@@ -12651,98 +12843,98 @@
         <v>4.0</v>
       </c>
       <c r="D39" t="n" s="323">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E39" t="n" s="324">
         <v>4.0</v>
       </c>
       <c r="F39" t="n" s="325">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n" s="326">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="H39" t="n" s="327">
         <v>2.0</v>
       </c>
       <c r="I39" t="n" s="328">
-        <v>10214.0</v>
+        <v>10213.0</v>
       </c>
       <c r="J39" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K39" t="n" s="330">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="L39" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M39" t="n" s="332">
-        <v>-0.7838387007366574</v>
+        <v>-0.5085173248840036</v>
       </c>
       <c r="N39" t="n" s="333">
-        <v>0.26513011225862426</v>
+        <v>0.2573974142469875</v>
       </c>
       <c r="O39" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n" s="320">
-        <v>10215.0</v>
+        <v>10214.0</v>
       </c>
       <c r="B40" t="n" s="321">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="C40" t="n" s="322">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D40" t="n" s="323">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="E40" t="n" s="324">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="F40" t="n" s="325">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="G40" t="n" s="326">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="H40" t="n" s="327">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="I40" t="n" s="328">
-        <v>10215.0</v>
+        <v>10214.0</v>
       </c>
       <c r="J40" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K40" t="n" s="330">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
       <c r="L40" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M40" t="n" s="332">
-        <v>0.8943229165850428</v>
+        <v>-0.7022987590701623</v>
       </c>
       <c r="N40" t="n" s="333">
-        <v>0.4194463130048942</v>
+        <v>0.2594602711116461</v>
       </c>
       <c r="O40" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n" s="320">
-        <v>10216.0</v>
+        <v>10215.0</v>
       </c>
       <c r="B41" t="n" s="321">
         <v>7.0</v>
       </c>
       <c r="C41" t="n" s="322">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D41" t="n" s="323">
         <v>7.0</v>
@@ -12751,45 +12943,45 @@
         <v>7.0</v>
       </c>
       <c r="F41" t="n" s="325">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G41" t="n" s="326">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H41" t="n" s="327">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="I41" t="n" s="328">
-        <v>10216.0</v>
+        <v>10215.0</v>
       </c>
       <c r="J41" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K41" t="n" s="330">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="L41" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M41" t="n" s="332">
-        <v>0.7403813920192386</v>
+        <v>0.9533196428626873</v>
       </c>
       <c r="N41" t="n" s="333">
-        <v>0.38315196130494245</v>
+        <v>0.4210657328275473</v>
       </c>
       <c r="O41" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n" s="320">
-        <v>10217.0</v>
+        <v>10216.0</v>
       </c>
       <c r="B42" t="n" s="321">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C42" t="n" s="322">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="D42" t="n" s="323">
         <v>7.0</v>
@@ -12798,186 +12990,186 @@
         <v>7.0</v>
       </c>
       <c r="F42" t="n" s="325">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G42" t="n" s="326">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H42" t="n" s="327">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="I42" t="n" s="328">
-        <v>10217.0</v>
+        <v>10216.0</v>
       </c>
       <c r="J42" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K42" t="n" s="330">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="L42" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M42" t="n" s="332">
-        <v>0.3916773225310279</v>
+        <v>0.7978941203553925</v>
       </c>
       <c r="N42" t="n" s="333">
-        <v>0.32118099454755084</v>
+        <v>0.38406146923985196</v>
       </c>
       <c r="O42" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n" s="320">
-        <v>10218.0</v>
+        <v>10217.0</v>
       </c>
       <c r="B43" t="n" s="321">
         <v>6.0</v>
       </c>
       <c r="C43" t="n" s="322">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D43" t="n" s="323">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E43" t="n" s="324">
         <v>7.0</v>
       </c>
       <c r="F43" t="n" s="325">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="G43" t="n" s="326">
         <v>6.0</v>
       </c>
       <c r="H43" t="n" s="327">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I43" t="n" s="328">
-        <v>10218.0</v>
+        <v>10217.0</v>
       </c>
       <c r="J43" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K43" t="n" s="330">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
       <c r="L43" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M43" t="n" s="332">
-        <v>-0.030134652851286192</v>
+        <v>0.4479542790231726</v>
       </c>
       <c r="N43" t="n" s="333">
-        <v>0.27830827755994264</v>
+        <v>0.32071073211253665</v>
       </c>
       <c r="O43" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n" s="320">
-        <v>10219.0</v>
+        <v>10218.0</v>
       </c>
       <c r="B44" t="n" s="321">
         <v>6.0</v>
       </c>
       <c r="C44" t="n" s="322">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="D44" t="n" s="323">
         <v>4.0</v>
       </c>
       <c r="E44" t="n" s="324">
+        <v>7.0</v>
+      </c>
+      <c r="F44" t="n" s="325">
         <v>5.0</v>
       </c>
-      <c r="F44" t="n" s="325">
-        <v>4.0</v>
-      </c>
       <c r="G44" t="n" s="326">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H44" t="n" s="327">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I44" t="n" s="328">
-        <v>10219.0</v>
+        <v>10218.0</v>
       </c>
       <c r="J44" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K44" t="n" s="330">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="L44" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M44" t="n" s="332">
-        <v>-0.7158916877103274</v>
+        <v>0.029085845594083753</v>
       </c>
       <c r="N44" t="n" s="333">
-        <v>0.2636109267237675</v>
+        <v>0.2761997437680368</v>
       </c>
       <c r="O44" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n" s="320">
-        <v>10220.0</v>
+        <v>10219.0</v>
       </c>
       <c r="B45" t="n" s="321">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C45" t="n" s="322">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="D45" t="n" s="323">
         <v>4.0</v>
       </c>
       <c r="E45" t="n" s="324">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="F45" t="n" s="325">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="G45" t="n" s="326">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H45" t="n" s="327">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="I45" t="n" s="328">
-        <v>10220.0</v>
+        <v>10219.0</v>
       </c>
       <c r="J45" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K45" t="n" s="330">
-        <v>46.0</v>
+        <v>26.0</v>
       </c>
       <c r="L45" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M45" t="n" s="332">
-        <v>1.0855463517252937</v>
+        <v>-0.6373264888974608</v>
       </c>
       <c r="N45" t="n" s="333">
-        <v>0.47264789709391186</v>
+        <v>0.25826516533035615</v>
       </c>
       <c r="O45" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n" s="320">
-        <v>10221.0</v>
+        <v>10220.0</v>
       </c>
       <c r="B46" t="n" s="321">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C46" t="n" s="322">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="D46" t="n" s="323">
         <v>4.0</v>
@@ -12986,95 +13178,95 @@
         <v>7.0</v>
       </c>
       <c r="F46" t="n" s="325">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G46" t="n" s="326">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="H46" t="n" s="327">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="I46" t="n" s="328">
-        <v>10221.0</v>
+        <v>10220.0</v>
       </c>
       <c r="J46" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K46" t="n" s="330">
-        <v>31.0</v>
+        <v>46.0</v>
       </c>
       <c r="L46" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M46" t="n" s="332">
-        <v>-0.38114058227050224</v>
+        <v>1.1471322503441221</v>
       </c>
       <c r="N46" t="n" s="333">
-        <v>0.2635865062093852</v>
+        <v>0.4752726103042621</v>
       </c>
       <c r="O46" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n" s="320">
-        <v>10223.0</v>
+        <v>10221.0</v>
       </c>
       <c r="B47" t="n" s="321">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C47" t="n" s="322">
         <v>6.0</v>
       </c>
       <c r="D47" t="n" s="323">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="E47" t="n" s="324">
         <v>7.0</v>
       </c>
       <c r="F47" t="n" s="325">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="G47" t="n" s="326">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="H47" t="n" s="327">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="I47" t="n" s="328">
-        <v>10223.0</v>
+        <v>10221.0</v>
       </c>
       <c r="J47" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K47" t="n" s="330">
-        <v>42.0</v>
+        <v>31.0</v>
       </c>
       <c r="L47" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M47" t="n" s="332">
-        <v>0.4950446217326467</v>
+        <v>-0.3145315399213145</v>
       </c>
       <c r="N47" t="n" s="333">
-        <v>0.3367836138386369</v>
+        <v>0.25987423721478164</v>
       </c>
       <c r="O47" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n" s="320">
-        <v>10224.0</v>
+        <v>10222.0</v>
       </c>
       <c r="B48" t="n" s="321">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C48" t="n" s="322">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="D48" t="n" s="323">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="E48" t="n" s="324">
         <v>1.0</v>
@@ -13083,201 +13275,201 @@
         <v>1.0</v>
       </c>
       <c r="G48" t="n" s="326">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="H48" t="n" s="327">
         <v>2.0</v>
       </c>
       <c r="I48" t="n" s="328">
-        <v>10224.0</v>
+        <v>10222.0</v>
       </c>
       <c r="J48" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K48" t="n" s="330">
-        <v>24.0</v>
+        <v>11.0</v>
       </c>
       <c r="L48" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M48" t="n" s="332">
-        <v>-0.8527022915588499</v>
+        <v>-1.9393656513531345</v>
       </c>
       <c r="N48" t="n" s="333">
-        <v>0.2671847031339451</v>
+        <v>0.4109723312821443</v>
       </c>
       <c r="O48" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n" s="320">
-        <v>10226.0</v>
+        <v>10223.0</v>
       </c>
       <c r="B49" t="n" s="321">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C49" t="n" s="322">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D49" t="n" s="323">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="E49" t="n" s="324">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="F49" t="n" s="325">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G49" t="n" s="326">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H49" t="n" s="327">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="I49" t="n" s="328">
-        <v>10226.0</v>
+        <v>10223.0</v>
       </c>
       <c r="J49" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K49" t="n" s="330">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="L49" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M49" t="n" s="332">
-        <v>-1.1434122935279403</v>
+        <v>0.5513721786467692</v>
       </c>
       <c r="N49" t="n" s="333">
-        <v>0.28184149961701355</v>
+        <v>0.3367015015186281</v>
       </c>
       <c r="O49" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n" s="320">
-        <v>10227.0</v>
+        <v>10224.0</v>
       </c>
       <c r="B50" t="n" s="321">
+        <v>4.0</v>
+      </c>
+      <c r="C50" t="n" s="322">
+        <v>7.0</v>
+      </c>
+      <c r="D50" t="n" s="323">
+        <v>4.0</v>
+      </c>
+      <c r="E50" t="n" s="324">
+        <v>1.0</v>
+      </c>
+      <c r="F50" t="n" s="325">
+        <v>1.0</v>
+      </c>
+      <c r="G50" t="n" s="326">
         <v>5.0</v>
       </c>
-      <c r="C50" t="n" s="322">
-        <v>6.0</v>
-      </c>
-      <c r="D50" t="n" s="323">
-        <v>4.0</v>
-      </c>
-      <c r="E50" t="n" s="324">
-        <v>5.0</v>
-      </c>
-      <c r="F50" t="n" s="325">
-        <v>3.0</v>
-      </c>
-      <c r="G50" t="n" s="326">
-        <v>6.0</v>
-      </c>
       <c r="H50" t="n" s="327">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I50" t="n" s="328">
-        <v>10227.0</v>
+        <v>10224.0</v>
       </c>
       <c r="J50" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K50" t="n" s="330">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="L50" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M50" t="n" s="332">
-        <v>-0.3134362243049981</v>
+        <v>-0.7679820030768932</v>
       </c>
       <c r="N50" t="n" s="333">
-        <v>0.2651660422645224</v>
+        <v>0.26119267841708754</v>
       </c>
       <c r="O50" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n" s="320">
-        <v>10228.0</v>
+        <v>10226.0</v>
       </c>
       <c r="B51" t="n" s="321">
+        <v>2.0</v>
+      </c>
+      <c r="C51" t="n" s="322">
+        <v>2.0</v>
+      </c>
+      <c r="D51" t="n" s="323">
+        <v>4.0</v>
+      </c>
+      <c r="E51" t="n" s="324">
         <v>3.0</v>
       </c>
-      <c r="C51" t="n" s="322">
-        <v>4.0</v>
-      </c>
-      <c r="D51" t="n" s="323">
-        <v>5.0</v>
-      </c>
-      <c r="E51" t="n" s="324">
-        <v>6.0</v>
-      </c>
       <c r="F51" t="n" s="325">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="G51" t="n" s="326">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="H51" t="n" s="327">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="I51" t="n" s="328">
-        <v>10228.0</v>
+        <v>10226.0</v>
       </c>
       <c r="J51" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K51" t="n" s="330">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
       <c r="L51" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M51" t="n" s="332">
-        <v>-0.38114058227050224</v>
+        <v>-1.04375468015487</v>
       </c>
       <c r="N51" t="n" s="333">
-        <v>0.2635865062093852</v>
+        <v>0.2745745678544573</v>
       </c>
       <c r="O51" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n" s="320">
-        <v>10230.0</v>
+        <v>10227.0</v>
       </c>
       <c r="B52" t="n" s="321">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C52" t="n" s="322">
+        <v>6.0</v>
+      </c>
+      <c r="D52" t="n" s="323">
+        <v>4.0</v>
+      </c>
+      <c r="E52" t="n" s="324">
         <v>5.0</v>
       </c>
-      <c r="D52" t="n" s="323">
-        <v>7.0</v>
-      </c>
-      <c r="E52" t="n" s="324">
+      <c r="F52" t="n" s="325">
         <v>3.0</v>
       </c>
-      <c r="F52" t="n" s="325">
-        <v>4.0</v>
-      </c>
       <c r="G52" t="n" s="326">
+        <v>6.0</v>
+      </c>
+      <c r="H52" t="n" s="327">
         <v>3.0</v>
       </c>
-      <c r="H52" t="n" s="327">
-        <v>4.0</v>
-      </c>
       <c r="I52" t="n" s="328">
-        <v>10230.0</v>
+        <v>10227.0</v>
       </c>
       <c r="J52" t="n" s="329">
         <v>7.0</v>
@@ -13289,65 +13481,65 @@
         <v>49.0</v>
       </c>
       <c r="M52" t="n" s="332">
-        <v>-0.3134362243049981</v>
+        <v>-0.24865992436960874</v>
       </c>
       <c r="N52" t="n" s="333">
-        <v>0.2651660422645224</v>
+        <v>0.2617788528689666</v>
       </c>
       <c r="O52" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n" s="320">
-        <v>10231.0</v>
+        <v>10228.0</v>
       </c>
       <c r="B53" t="n" s="321">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="C53" t="n" s="322">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="D53" t="n" s="323">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="E53" t="n" s="324">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="F53" t="n" s="325">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="G53" t="n" s="326">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="H53" t="n" s="327">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="I53" t="n" s="328">
-        <v>10231.0</v>
+        <v>10228.0</v>
       </c>
       <c r="J53" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K53" t="n" s="330">
-        <v>47.0</v>
+        <v>31.0</v>
       </c>
       <c r="L53" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M53" t="n" s="332">
-        <v>1.3443366272682065</v>
+        <v>-0.3145315399213145</v>
       </c>
       <c r="N53" t="n" s="333">
-        <v>0.5591024679315759</v>
+        <v>0.25987423721478164</v>
       </c>
       <c r="O53" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n" s="320">
-        <v>10232.0</v>
+        <v>10230.0</v>
       </c>
       <c r="B54" t="n" s="321">
         <v>6.0</v>
@@ -13356,192 +13548,192 @@
         <v>5.0</v>
       </c>
       <c r="D54" t="n" s="323">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E54" t="n" s="324">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="F54" t="n" s="325">
         <v>4.0</v>
       </c>
       <c r="G54" t="n" s="326">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="H54" t="n" s="327">
         <v>4.0</v>
       </c>
       <c r="I54" t="n" s="328">
-        <v>10232.0</v>
+        <v>10230.0</v>
       </c>
       <c r="J54" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K54" t="n" s="330">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="L54" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M54" t="n" s="332">
-        <v>-0.030134652851286192</v>
+        <v>-0.24865992436960874</v>
       </c>
       <c r="N54" t="n" s="333">
-        <v>0.27830827755994264</v>
+        <v>0.2617788528689666</v>
       </c>
       <c r="O54" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n" s="320">
-        <v>10233.0</v>
+        <v>10231.0</v>
       </c>
       <c r="B55" t="n" s="321">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C55" t="n" s="322">
         <v>6.0</v>
       </c>
       <c r="D55" t="n" s="323">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="E55" t="n" s="324">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="F55" t="n" s="325">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="G55" t="n" s="326">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="H55" t="n" s="327">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="I55" t="n" s="328">
-        <v>10233.0</v>
+        <v>10231.0</v>
       </c>
       <c r="J55" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K55" t="n" s="330">
-        <v>25.0</v>
+        <v>47.0</v>
       </c>
       <c r="L55" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M55" t="n" s="332">
-        <v>-0.7838387007366574</v>
+        <v>1.6322122381693922</v>
       </c>
       <c r="N55" t="n" s="333">
-        <v>0.26513011225862426</v>
+        <v>0.6499317220165242</v>
       </c>
       <c r="O55" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n" s="320">
-        <v>10234.0</v>
+        <v>10232.0</v>
       </c>
       <c r="B56" t="n" s="321">
         <v>6.0</v>
       </c>
       <c r="C56" t="n" s="322">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="D56" t="n" s="323">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E56" t="n" s="324">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="F56" t="n" s="325">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G56" t="n" s="326">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="H56" t="n" s="327">
         <v>4.0</v>
       </c>
       <c r="I56" t="n" s="328">
-        <v>10234.0</v>
+        <v>10232.0</v>
       </c>
       <c r="J56" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K56" t="n" s="330">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="L56" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M56" t="n" s="332">
-        <v>-0.7158916877103274</v>
+        <v>0.029085845594083753</v>
       </c>
       <c r="N56" t="n" s="333">
-        <v>0.2636109267237675</v>
+        <v>0.2761997437680368</v>
       </c>
       <c r="O56" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n" s="320">
-        <v>10237.0</v>
+        <v>10233.0</v>
       </c>
       <c r="B57" t="n" s="321">
+        <v>1.0</v>
+      </c>
+      <c r="C57" t="n" s="322">
+        <v>6.0</v>
+      </c>
+      <c r="D57" t="n" s="323">
         <v>5.0</v>
       </c>
-      <c r="C57" t="n" s="322">
-        <v>7.0</v>
-      </c>
-      <c r="D57" t="n" s="323">
+      <c r="E57" t="n" s="324">
+        <v>5.0</v>
+      </c>
+      <c r="F57" t="n" s="325">
+        <v>2.0</v>
+      </c>
+      <c r="G57" t="n" s="326">
         <v>3.0</v>
       </c>
-      <c r="E57" t="n" s="324">
-        <v>6.0</v>
-      </c>
-      <c r="F57" t="n" s="325">
-        <v>6.0</v>
-      </c>
-      <c r="G57" t="n" s="326">
-        <v>6.0</v>
-      </c>
       <c r="H57" t="n" s="327">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="I57" t="n" s="328">
-        <v>10237.0</v>
+        <v>10233.0</v>
       </c>
       <c r="J57" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K57" t="n" s="330">
-        <v>37.0</v>
+        <v>25.0</v>
       </c>
       <c r="L57" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M57" t="n" s="332">
-        <v>0.04589615724245862</v>
+        <v>-0.7022987590701623</v>
       </c>
       <c r="N57" t="n" s="333">
-        <v>0.28380551974698776</v>
+        <v>0.2594602711116461</v>
       </c>
       <c r="O57" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n" s="320">
-        <v>10238.0</v>
+        <v>10234.0</v>
       </c>
       <c r="B58" t="n" s="321">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C58" t="n" s="322">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="D58" t="n" s="323">
         <v>3.0</v>
@@ -13550,34 +13742,175 @@
         <v>4.0</v>
       </c>
       <c r="F58" t="n" s="325">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G58" t="n" s="326">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="H58" t="n" s="327">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="I58" t="n" s="328">
-        <v>10238.0</v>
+        <v>10234.0</v>
       </c>
       <c r="J58" t="n" s="329">
         <v>7.0</v>
       </c>
       <c r="K58" t="n" s="330">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="L58" t="n" s="331">
         <v>49.0</v>
       </c>
       <c r="M58" t="n" s="332">
-        <v>-0.8527022915588499</v>
+        <v>-0.6373264888974608</v>
       </c>
       <c r="N58" t="n" s="333">
-        <v>0.2671847031339451</v>
+        <v>0.25826516533035615</v>
       </c>
       <c r="O58" t="n" s="334">
-        <v>0.7698733951652705</v>
+        <v>0.8042547799159506</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n" s="320">
+        <v>10237.0</v>
+      </c>
+      <c r="B59" t="n" s="321">
+        <v>5.0</v>
+      </c>
+      <c r="C59" t="n" s="322">
+        <v>7.0</v>
+      </c>
+      <c r="D59" t="n" s="323">
+        <v>3.0</v>
+      </c>
+      <c r="E59" t="n" s="324">
+        <v>6.0</v>
+      </c>
+      <c r="F59" t="n" s="325">
+        <v>6.0</v>
+      </c>
+      <c r="G59" t="n" s="326">
+        <v>6.0</v>
+      </c>
+      <c r="H59" t="n" s="327">
+        <v>4.0</v>
+      </c>
+      <c r="I59" t="n" s="328">
+        <v>10237.0</v>
+      </c>
+      <c r="J59" t="n" s="329">
+        <v>7.0</v>
+      </c>
+      <c r="K59" t="n" s="330">
+        <v>37.0</v>
+      </c>
+      <c r="L59" t="n" s="331">
+        <v>49.0</v>
+      </c>
+      <c r="M59" t="n" s="332">
+        <v>0.10416310867451942</v>
+      </c>
+      <c r="N59" t="n" s="333">
+        <v>0.2820123021870332</v>
+      </c>
+      <c r="O59" t="n" s="334">
+        <v>0.8042547799159506</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n" s="320">
+        <v>10238.0</v>
+      </c>
+      <c r="B60" t="n" s="321">
+        <v>4.0</v>
+      </c>
+      <c r="C60" t="n" s="322">
+        <v>3.0</v>
+      </c>
+      <c r="D60" t="n" s="323">
+        <v>3.0</v>
+      </c>
+      <c r="E60" t="n" s="324">
+        <v>4.0</v>
+      </c>
+      <c r="F60" t="n" s="325">
+        <v>1.0</v>
+      </c>
+      <c r="G60" t="n" s="326">
+        <v>6.0</v>
+      </c>
+      <c r="H60" t="n" s="327">
+        <v>3.0</v>
+      </c>
+      <c r="I60" t="n" s="328">
+        <v>10238.0</v>
+      </c>
+      <c r="J60" t="n" s="329">
+        <v>7.0</v>
+      </c>
+      <c r="K60" t="n" s="330">
+        <v>24.0</v>
+      </c>
+      <c r="L60" t="n" s="331">
+        <v>49.0</v>
+      </c>
+      <c r="M60" t="n" s="332">
+        <v>-0.7679820030768932</v>
+      </c>
+      <c r="N60" t="n" s="333">
+        <v>0.26119267841708754</v>
+      </c>
+      <c r="O60" t="n" s="334">
+        <v>0.8042547799159506</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n" s="320">
+        <v>10240.0</v>
+      </c>
+      <c r="B61" t="n" s="321">
+        <v>2.0</v>
+      </c>
+      <c r="C61" t="n" s="322">
+        <v>6.0</v>
+      </c>
+      <c r="D61" t="n" s="323">
+        <v>1.0</v>
+      </c>
+      <c r="E61" t="n" s="324">
+        <v>3.0</v>
+      </c>
+      <c r="F61" t="n" s="325">
+        <v>1.0</v>
+      </c>
+      <c r="G61" t="n" s="326">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="n" s="327">
+        <v>4.0</v>
+      </c>
+      <c r="I61" t="n" s="328">
+        <v>10240.0</v>
+      </c>
+      <c r="J61" t="n" s="329">
+        <v>7.0</v>
+      </c>
+      <c r="K61" t="n" s="330">
+        <v>18.0</v>
+      </c>
+      <c r="L61" t="n" s="331">
+        <v>49.0</v>
+      </c>
+      <c r="M61" t="n" s="332">
+        <v>-1.1950467661594768</v>
+      </c>
+      <c r="N61" t="n" s="333">
+        <v>0.2865919358344316</v>
+      </c>
+      <c r="O61" t="n" s="334">
+        <v>0.8042547799159506</v>
       </c>
     </row>
   </sheetData>
